--- a/rubrics-worksheets/Descriptor-classifications-worksheet-v2.0.xlsx
+++ b/rubrics-worksheets/Descriptor-classifications-worksheet-v2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schuster/Desktop/modeldatarcn/RCN-rubrics-worksheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4C491D-E9FF-8B4E-AEFC-A32E4BE9C6D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5AFD35-2140-CC41-A404-6EFF3ADAE83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2140" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric Worksheet" sheetId="1" r:id="rId1"/>
@@ -395,15 +395,6 @@
     <t>Preserve and provide access to simulation workflow configuration and code components</t>
   </si>
   <si>
-    <t>See Use Case 1, Knowledge Production</t>
-  </si>
-  <si>
-    <t>See Use Case 2, Knowledge Production</t>
-  </si>
-  <si>
-    <t>See Use Case 3, Knowledge Production</t>
-  </si>
-  <si>
     <t xml:space="preserve">User Entered Score.  (Integers only)                 Score Range:                       1 -Class 1.                                                                      2 -Class 2                                                                3 -Class 3                               </t>
   </si>
   <si>
@@ -411,6 +402,15 @@
   </si>
   <si>
     <t xml:space="preserve">Rubric Use Case Examples can be accessed at: https://modeldatarcn.github.io/rubrics-worksheets/Rubric-Instructions-and-Use-Cases.pdf </t>
+  </si>
+  <si>
+    <t>See Use Case 1</t>
+  </si>
+  <si>
+    <t>See Use Case 2</t>
+  </si>
+  <si>
+    <t>See Use Case 3</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -997,52 +997,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1065,18 +1069,14 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1373,12 +1373,12 @@
   </sheetPr>
   <dimension ref="A1:AB1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="29.1640625" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
@@ -1393,7 +1393,7 @@
     <col min="13" max="17" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="45.75" customHeight="1">
+    <row r="1" spans="1:28" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1412,19 +1412,19 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:28" ht="14">
-      <c r="A2" s="103" t="s">
+    <row r="2" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1433,19 +1433,19 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="14">
-      <c r="A3" s="105" t="s">
+    <row r="3" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1454,17 +1454,17 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="14">
-      <c r="A4" s="130" t="s">
-        <v>128</v>
+    <row r="4" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="118" t="s">
+        <v>125</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
@@ -1475,7 +1475,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="16">
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -1494,18 +1494,18 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="16">
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="104"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="8"/>
@@ -1517,7 +1517,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="15">
+    <row r="7" spans="1:28" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -1540,7 +1540,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="84">
+    <row r="8" spans="1:28" ht="84" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -1560,8 +1560,8 @@
       <c r="G8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="129" t="s">
-        <v>127</v>
+      <c r="H8" s="103" t="s">
+        <v>124</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>12</v>
@@ -1577,7 +1577,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="14">
+    <row r="9" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1606,19 +1606,19 @@
       <c r="AA9" s="23"/>
       <c r="AB9" s="23"/>
     </row>
-    <row r="10" spans="1:28" ht="16">
-      <c r="A10" s="107" t="s">
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
@@ -1638,19 +1638,19 @@
       <c r="AA10" s="23"/>
       <c r="AB10" s="23"/>
     </row>
-    <row r="11" spans="1:28" ht="16">
-      <c r="A11" s="107" t="s">
+    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -1670,11 +1670,11 @@
       <c r="AA11" s="23"/>
       <c r="AB11" s="23"/>
     </row>
-    <row r="12" spans="1:28" ht="196">
-      <c r="A12" s="109" t="s">
+    <row r="12" spans="1:28" ht="196" x14ac:dyDescent="0.15">
+      <c r="A12" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -1690,13 +1690,15 @@
       <c r="G12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="27">
+        <v>1</v>
+      </c>
       <c r="I12" s="28">
         <v>2</v>
       </c>
       <c r="J12" s="29">
         <f t="shared" ref="J12:J14" si="0">IF(H12&gt;1,H12*I12,H12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
@@ -1717,9 +1719,9 @@
       <c r="AA12" s="23"/>
       <c r="AB12" s="23"/>
     </row>
-    <row r="13" spans="1:28" ht="56">
-      <c r="A13" s="110"/>
-      <c r="B13" s="24" t="s">
+    <row r="13" spans="1:28" ht="56" x14ac:dyDescent="0.15">
+      <c r="A13" s="109"/>
+      <c r="B13" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -1762,8 +1764,8 @@
       <c r="AA13" s="23"/>
       <c r="AB13" s="23"/>
     </row>
-    <row r="14" spans="1:28" ht="42">
-      <c r="A14" s="110"/>
+    <row r="14" spans="1:28" ht="42" x14ac:dyDescent="0.15">
+      <c r="A14" s="109"/>
       <c r="B14" s="31" t="s">
         <v>27</v>
       </c>
@@ -1805,8 +1807,8 @@
       <c r="AA14" s="23"/>
       <c r="AB14" s="23"/>
     </row>
-    <row r="15" spans="1:28" ht="40.5" customHeight="1">
-      <c r="A15" s="111"/>
+    <row r="15" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="107"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
@@ -1817,14 +1819,14 @@
       </c>
       <c r="H15" s="34">
         <f>SUM(H12:H14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="35" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="34">
         <f>SUM(J12:J14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
@@ -1845,7 +1847,7 @@
       <c r="AA15" s="23"/>
       <c r="AB15" s="23"/>
     </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1">
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="36"/>
@@ -1874,19 +1876,19 @@
       <c r="AA16" s="23"/>
       <c r="AB16" s="23"/>
     </row>
-    <row r="17" spans="1:28" ht="20.25" customHeight="1">
-      <c r="A17" s="122" t="s">
+    <row r="17" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="119"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="115"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
@@ -1906,19 +1908,19 @@
       <c r="AA17" s="23"/>
       <c r="AB17" s="23"/>
     </row>
-    <row r="18" spans="1:28" ht="42.75" customHeight="1">
-      <c r="A18" s="123" t="s">
+    <row r="18" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="119"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="115"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
@@ -1938,8 +1940,8 @@
       <c r="AA18" s="23"/>
       <c r="AB18" s="23"/>
     </row>
-    <row r="19" spans="1:28" ht="84">
-      <c r="A19" s="124" t="s">
+    <row r="19" spans="1:28" ht="84" x14ac:dyDescent="0.15">
+      <c r="A19" s="126" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="38" t="s">
@@ -1983,8 +1985,8 @@
       <c r="AA19" s="23"/>
       <c r="AB19" s="23"/>
     </row>
-    <row r="20" spans="1:28" ht="109.5" customHeight="1">
-      <c r="A20" s="110"/>
+    <row r="20" spans="1:28" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="109"/>
       <c r="B20" s="43" t="s">
         <v>40</v>
       </c>
@@ -2026,8 +2028,8 @@
       <c r="AA20" s="23"/>
       <c r="AB20" s="23"/>
     </row>
-    <row r="21" spans="1:28" ht="30">
-      <c r="A21" s="111"/>
+    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+      <c r="A21" s="107"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
@@ -2066,7 +2068,7 @@
       <c r="AA21" s="23"/>
       <c r="AB21" s="23"/>
     </row>
-    <row r="22" spans="1:28" ht="14">
+    <row r="22" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="20"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -2096,19 +2098,19 @@
       <c r="AA22" s="23"/>
       <c r="AB22" s="23"/>
     </row>
-    <row r="23" spans="1:28" ht="16">
-      <c r="A23" s="125" t="s">
+    <row r="23" spans="1:28" ht="16" x14ac:dyDescent="0.15">
+      <c r="A23" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="119"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="115"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
@@ -2128,8 +2130,8 @@
       <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
     </row>
-    <row r="24" spans="1:28" ht="84">
-      <c r="A24" s="126" t="s">
+    <row r="24" spans="1:28" ht="84" x14ac:dyDescent="0.15">
+      <c r="A24" s="128" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -2175,8 +2177,8 @@
       <c r="AA24" s="23"/>
       <c r="AB24" s="23"/>
     </row>
-    <row r="25" spans="1:28" ht="56">
-      <c r="A25" s="110"/>
+    <row r="25" spans="1:28" ht="56" x14ac:dyDescent="0.15">
+      <c r="A25" s="109"/>
       <c r="B25" s="48" t="s">
         <v>53</v>
       </c>
@@ -2218,8 +2220,8 @@
       <c r="AA25" s="23"/>
       <c r="AB25" s="23"/>
     </row>
-    <row r="26" spans="1:28" ht="98">
-      <c r="A26" s="110"/>
+    <row r="26" spans="1:28" ht="98" x14ac:dyDescent="0.15">
+      <c r="A26" s="109"/>
       <c r="B26" s="48" t="s">
         <v>57</v>
       </c>
@@ -2261,8 +2263,8 @@
       <c r="AA26" s="23"/>
       <c r="AB26" s="23"/>
     </row>
-    <row r="27" spans="1:28" ht="98">
-      <c r="A27" s="110"/>
+    <row r="27" spans="1:28" ht="98" x14ac:dyDescent="0.15">
+      <c r="A27" s="109"/>
       <c r="B27" s="53" t="s">
         <v>61</v>
       </c>
@@ -2304,8 +2306,8 @@
       <c r="AA27" s="23"/>
       <c r="AB27" s="23"/>
     </row>
-    <row r="28" spans="1:28" ht="30">
-      <c r="A28" s="111"/>
+    <row r="28" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+      <c r="A28" s="107"/>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
       <c r="D28" s="53"/>
@@ -2344,7 +2346,7 @@
       <c r="AA28" s="23"/>
       <c r="AB28" s="23"/>
     </row>
-    <row r="29" spans="1:28" ht="13">
+    <row r="29" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -2374,19 +2376,19 @@
       <c r="AA29" s="23"/>
       <c r="AB29" s="23"/>
     </row>
-    <row r="30" spans="1:28" ht="16">
-      <c r="A30" s="127" t="s">
+    <row r="30" spans="1:28" ht="16" x14ac:dyDescent="0.15">
+      <c r="A30" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="119"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="115"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -2406,8 +2408,8 @@
       <c r="AA30" s="23"/>
       <c r="AB30" s="23"/>
     </row>
-    <row r="31" spans="1:28" ht="84">
-      <c r="A31" s="112" t="s">
+    <row r="31" spans="1:28" ht="84" x14ac:dyDescent="0.15">
+      <c r="A31" s="122" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="57" t="s">
@@ -2453,8 +2455,8 @@
       <c r="AA31" s="23"/>
       <c r="AB31" s="23"/>
     </row>
-    <row r="32" spans="1:28" ht="56">
-      <c r="A32" s="110"/>
+    <row r="32" spans="1:28" ht="56" x14ac:dyDescent="0.15">
+      <c r="A32" s="109"/>
       <c r="B32" s="57" t="s">
         <v>74</v>
       </c>
@@ -2496,8 +2498,8 @@
       <c r="AA32" s="23"/>
       <c r="AB32" s="23"/>
     </row>
-    <row r="33" spans="1:28" ht="98">
-      <c r="A33" s="110"/>
+    <row r="33" spans="1:28" ht="98" x14ac:dyDescent="0.15">
+      <c r="A33" s="109"/>
       <c r="B33" s="57" t="s">
         <v>76</v>
       </c>
@@ -2539,8 +2541,8 @@
       <c r="AA33" s="23"/>
       <c r="AB33" s="23"/>
     </row>
-    <row r="34" spans="1:28" ht="30">
-      <c r="A34" s="111"/>
+    <row r="34" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+      <c r="A34" s="107"/>
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
       <c r="D34" s="58"/>
@@ -2579,7 +2581,7 @@
       <c r="AA34" s="23"/>
       <c r="AB34" s="23"/>
     </row>
-    <row r="35" spans="1:28" ht="13">
+    <row r="35" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -2609,19 +2611,19 @@
       <c r="AA35" s="23"/>
       <c r="AB35" s="23"/>
     </row>
-    <row r="36" spans="1:28" ht="16">
-      <c r="A36" s="128" t="s">
+    <row r="36" spans="1:28" ht="16" x14ac:dyDescent="0.15">
+      <c r="A36" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="119"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="115"/>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
@@ -2641,8 +2643,8 @@
       <c r="AA36" s="23"/>
       <c r="AB36" s="23"/>
     </row>
-    <row r="37" spans="1:28" ht="98">
-      <c r="A37" s="113" t="s">
+    <row r="37" spans="1:28" ht="98" x14ac:dyDescent="0.15">
+      <c r="A37" s="123" t="s">
         <v>81</v>
       </c>
       <c r="B37" s="66" t="s">
@@ -2675,8 +2677,8 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:28" ht="30">
-      <c r="A38" s="111"/>
+    <row r="38" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+      <c r="A38" s="107"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
       <c r="D38" s="67"/>
@@ -2704,7 +2706,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:28" ht="13">
+    <row r="39" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -2723,19 +2725,19 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:28" ht="16">
-      <c r="A40" s="118" t="s">
+    <row r="40" spans="1:28" ht="16" x14ac:dyDescent="0.15">
+      <c r="A40" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="119"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="115"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
@@ -2744,8 +2746,8 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:28" ht="56">
-      <c r="A41" s="114" t="s">
+    <row r="41" spans="1:28" ht="56" x14ac:dyDescent="0.15">
+      <c r="A41" s="106" t="s">
         <v>89</v>
       </c>
       <c r="B41" s="75" t="s">
@@ -2780,8 +2782,8 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:28" ht="30">
-      <c r="A42" s="111"/>
+    <row r="42" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+      <c r="A42" s="107"/>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
       <c r="D42" s="75"/>
@@ -2809,7 +2811,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:28" ht="13">
+    <row r="43" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -2828,19 +2830,19 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:28" ht="16">
-      <c r="A44" s="120" t="s">
+    <row r="44" spans="1:28" ht="16" x14ac:dyDescent="0.15">
+      <c r="A44" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="119"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="115"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -2849,8 +2851,8 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:28" ht="70">
-      <c r="A45" s="115" t="s">
+    <row r="45" spans="1:28" ht="70" x14ac:dyDescent="0.15">
+      <c r="A45" s="108" t="s">
         <v>97</v>
       </c>
       <c r="B45" s="82" t="s">
@@ -2885,8 +2887,8 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:28" ht="84">
-      <c r="A46" s="110"/>
+    <row r="46" spans="1:28" ht="84" x14ac:dyDescent="0.15">
+      <c r="A46" s="109"/>
       <c r="B46" s="83" t="s">
         <v>103</v>
       </c>
@@ -2917,8 +2919,8 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:28" ht="30">
-      <c r="A47" s="111"/>
+    <row r="47" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+      <c r="A47" s="107"/>
       <c r="B47" s="83"/>
       <c r="C47" s="83"/>
       <c r="D47" s="87"/>
@@ -2946,7 +2948,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:28" ht="13">
+    <row r="48" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -2965,19 +2967,19 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:28" ht="16">
-      <c r="A49" s="121" t="s">
+    <row r="49" spans="1:28" ht="16" x14ac:dyDescent="0.15">
+      <c r="A49" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="119"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="115"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -2986,14 +2988,14 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:28" ht="84">
-      <c r="A50" s="116" t="s">
+    <row r="50" spans="1:28" ht="84" x14ac:dyDescent="0.15">
+      <c r="A50" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="91" t="s">
+      <c r="C50" s="92" t="s">
         <v>111</v>
       </c>
       <c r="D50" s="92"/>
@@ -3031,8 +3033,8 @@
       <c r="AA50" s="23"/>
       <c r="AB50" s="23"/>
     </row>
-    <row r="51" spans="1:28" ht="30">
-      <c r="A51" s="111"/>
+    <row r="51" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+      <c r="A51" s="107"/>
       <c r="B51" s="95"/>
       <c r="C51" s="95"/>
       <c r="D51" s="95"/>
@@ -3071,7 +3073,7 @@
       <c r="AA51" s="23"/>
       <c r="AB51" s="23"/>
     </row>
-    <row r="52" spans="1:28" ht="14">
+    <row r="52" spans="1:28" ht="14" x14ac:dyDescent="0.15">
       <c r="J52" s="19"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -3081,7 +3083,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:28" ht="30">
+    <row r="53" spans="1:28" ht="30" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="22"/>
@@ -3093,14 +3095,14 @@
       </c>
       <c r="H53" s="99">
         <f>H15+H21+H28+H34+H38+H42+H47+H51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="98" t="s">
         <v>116</v>
       </c>
       <c r="J53" s="99">
         <f>J15+J21+J28+J34+J38+J42+J47+J51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="100"/>
       <c r="L53" s="101"/>
@@ -3110,16 +3112,16 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:28" ht="14">
-      <c r="A54" s="130" t="s">
-        <v>129</v>
+    <row r="54" spans="1:28" ht="14" x14ac:dyDescent="0.15">
+      <c r="A54" s="118" t="s">
+        <v>126</v>
       </c>
-      <c r="B54" s="131"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="131"/>
-      <c r="G54" s="131"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="119"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="3"/>
@@ -3131,7 +3133,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:28" ht="13">
+    <row r="55" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="3"/>
@@ -3143,8 +3145,8 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:28" ht="30">
-      <c r="A56" s="117"/>
+    <row r="56" spans="1:28" ht="30" x14ac:dyDescent="0.15">
+      <c r="A56" s="111"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -3166,8 +3168,8 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:28" ht="45">
-      <c r="A57" s="104"/>
+    <row r="57" spans="1:28" ht="45" x14ac:dyDescent="0.15">
+      <c r="A57" s="112"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -3189,7 +3191,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:28" ht="60">
+    <row r="58" spans="1:28" ht="60" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="22"/>
@@ -3212,22 +3214,22 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:28" ht="30">
+    <row r="59" spans="1:28" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="133" t="s">
-        <v>124</v>
+      <c r="G59" s="104"/>
+      <c r="H59" s="105" t="s">
+        <v>127</v>
       </c>
-      <c r="I59" s="133" t="s">
-        <v>125</v>
+      <c r="I59" s="105" t="s">
+        <v>128</v>
       </c>
-      <c r="J59" s="133" t="s">
-        <v>126</v>
+      <c r="J59" s="105" t="s">
+        <v>129</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -3237,7 +3239,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
     </row>
-    <row r="60" spans="1:28" ht="13">
+    <row r="60" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="22"/>
@@ -3253,7 +3255,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:28" ht="13">
+    <row r="61" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="22"/>
@@ -3272,7 +3274,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:28" ht="13">
+    <row r="62" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="22"/>
@@ -3291,7 +3293,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:28" ht="13">
+    <row r="63" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="22"/>
@@ -3310,7 +3312,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:28" ht="13">
+    <row r="64" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="22"/>
@@ -3329,7 +3331,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" ht="13">
+    <row r="65" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="22"/>
@@ -3348,7 +3350,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" ht="13">
+    <row r="66" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="22"/>
@@ -3367,7 +3369,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" ht="13">
+    <row r="67" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="22"/>
@@ -3386,7 +3388,7 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" ht="13">
+    <row r="68" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="22"/>
@@ -3405,7 +3407,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" ht="13">
+    <row r="69" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="22"/>
@@ -3424,7 +3426,7 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" ht="13">
+    <row r="70" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="22"/>
@@ -3443,7 +3445,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" ht="13">
+    <row r="71" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="22"/>
@@ -3462,7 +3464,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" ht="13">
+    <row r="72" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="22"/>
@@ -3481,7 +3483,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" ht="13">
+    <row r="73" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="22"/>
@@ -3500,7 +3502,7 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" ht="13">
+    <row r="74" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="22"/>
@@ -3519,7 +3521,7 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" ht="13">
+    <row r="75" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="22"/>
@@ -3538,7 +3540,7 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" ht="13">
+    <row r="76" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="22"/>
@@ -3557,7 +3559,7 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17" ht="13">
+    <row r="77" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="22"/>
@@ -3576,7 +3578,7 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17" ht="13">
+    <row r="78" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="22"/>
@@ -3595,7 +3597,7 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" ht="13">
+    <row r="79" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="22"/>
@@ -3614,7 +3616,7 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="1:17" ht="13">
+    <row r="80" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="22"/>
@@ -3633,7 +3635,7 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
     </row>
-    <row r="81" spans="1:17" ht="13">
+    <row r="81" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="22"/>
@@ -3652,7 +3654,7 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="1:17" ht="13">
+    <row r="82" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="22"/>
@@ -3671,7 +3673,7 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
     </row>
-    <row r="83" spans="1:17" ht="13">
+    <row r="83" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="22"/>
@@ -3690,7 +3692,7 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
     </row>
-    <row r="84" spans="1:17" ht="13">
+    <row r="84" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="22"/>
@@ -3709,7 +3711,7 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
     </row>
-    <row r="85" spans="1:17" ht="13">
+    <row r="85" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="22"/>
@@ -3728,7 +3730,7 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
     </row>
-    <row r="86" spans="1:17" ht="13">
+    <row r="86" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="22"/>
@@ -3747,7 +3749,7 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
     </row>
-    <row r="87" spans="1:17" ht="13">
+    <row r="87" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="22"/>
@@ -3766,7 +3768,7 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="13">
+    <row r="88" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="22"/>
@@ -3785,7 +3787,7 @@
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" ht="13">
+    <row r="89" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="22"/>
@@ -3804,7 +3806,7 @@
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" ht="13">
+    <row r="90" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="22"/>
@@ -3823,7 +3825,7 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="13">
+    <row r="91" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="22"/>
@@ -3842,7 +3844,7 @@
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" ht="13">
+    <row r="92" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="22"/>
@@ -3861,7 +3863,7 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="13">
+    <row r="93" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="22"/>
@@ -3880,7 +3882,7 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="13">
+    <row r="94" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="22"/>
@@ -3899,7 +3901,7 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="13">
+    <row r="95" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="22"/>
@@ -3918,7 +3920,7 @@
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="13">
+    <row r="96" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="22"/>
@@ -3937,7 +3939,7 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" ht="13">
+    <row r="97" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="22"/>
@@ -3956,7 +3958,7 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" ht="13">
+    <row r="98" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="22"/>
@@ -3975,7 +3977,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" ht="13">
+    <row r="99" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="22"/>
@@ -3994,7 +3996,7 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" ht="13">
+    <row r="100" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="22"/>
@@ -4013,7 +4015,7 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" ht="13">
+    <row r="101" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="22"/>
@@ -4032,7 +4034,7 @@
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" ht="13">
+    <row r="102" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="22"/>
@@ -4051,7 +4053,7 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" ht="13">
+    <row r="103" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="22"/>
@@ -4070,7 +4072,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" ht="13">
+    <row r="104" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="22"/>
@@ -4089,7 +4091,7 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" ht="13">
+    <row r="105" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="22"/>
@@ -4108,7 +4110,7 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" ht="13">
+    <row r="106" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="22"/>
@@ -4127,7 +4129,7 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" ht="13">
+    <row r="107" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="22"/>
@@ -4146,7 +4148,7 @@
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" ht="13">
+    <row r="108" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="22"/>
@@ -4165,7 +4167,7 @@
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" ht="13">
+    <row r="109" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="22"/>
@@ -4184,7 +4186,7 @@
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
     </row>
-    <row r="110" spans="1:17" ht="13">
+    <row r="110" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="22"/>
@@ -4203,7 +4205,7 @@
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
     </row>
-    <row r="111" spans="1:17" ht="13">
+    <row r="111" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="22"/>
@@ -4222,7 +4224,7 @@
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
     </row>
-    <row r="112" spans="1:17" ht="13">
+    <row r="112" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="22"/>
@@ -4241,7 +4243,7 @@
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
     </row>
-    <row r="113" spans="1:17" ht="13">
+    <row r="113" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="22"/>
@@ -4260,7 +4262,7 @@
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
     </row>
-    <row r="114" spans="1:17" ht="13">
+    <row r="114" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="22"/>
@@ -4279,7 +4281,7 @@
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
     </row>
-    <row r="115" spans="1:17" ht="13">
+    <row r="115" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="22"/>
@@ -4298,7 +4300,7 @@
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
     </row>
-    <row r="116" spans="1:17" ht="13">
+    <row r="116" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="22"/>
@@ -4317,7 +4319,7 @@
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
     </row>
-    <row r="117" spans="1:17" ht="13">
+    <row r="117" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="22"/>
@@ -4336,7 +4338,7 @@
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
     </row>
-    <row r="118" spans="1:17" ht="13">
+    <row r="118" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="22"/>
@@ -4355,7 +4357,7 @@
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
     </row>
-    <row r="119" spans="1:17" ht="13">
+    <row r="119" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="22"/>
@@ -4374,7 +4376,7 @@
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
     </row>
-    <row r="120" spans="1:17" ht="13">
+    <row r="120" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="22"/>
@@ -4393,7 +4395,7 @@
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
     </row>
-    <row r="121" spans="1:17" ht="13">
+    <row r="121" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="22"/>
@@ -4412,7 +4414,7 @@
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
     </row>
-    <row r="122" spans="1:17" ht="13">
+    <row r="122" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="22"/>
@@ -4431,7 +4433,7 @@
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
     </row>
-    <row r="123" spans="1:17" ht="13">
+    <row r="123" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="22"/>
@@ -4450,7 +4452,7 @@
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
     </row>
-    <row r="124" spans="1:17" ht="13">
+    <row r="124" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="22"/>
@@ -4469,7 +4471,7 @@
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
     </row>
-    <row r="125" spans="1:17" ht="13">
+    <row r="125" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="22"/>
@@ -4488,7 +4490,7 @@
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
     </row>
-    <row r="126" spans="1:17" ht="13">
+    <row r="126" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="22"/>
@@ -4507,7 +4509,7 @@
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
     </row>
-    <row r="127" spans="1:17" ht="13">
+    <row r="127" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="22"/>
@@ -4526,7 +4528,7 @@
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
     </row>
-    <row r="128" spans="1:17" ht="13">
+    <row r="128" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="22"/>
@@ -4545,7 +4547,7 @@
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
     </row>
-    <row r="129" spans="1:17" ht="13">
+    <row r="129" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="22"/>
@@ -4564,7 +4566,7 @@
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
     </row>
-    <row r="130" spans="1:17" ht="13">
+    <row r="130" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="22"/>
@@ -4583,7 +4585,7 @@
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
     </row>
-    <row r="131" spans="1:17" ht="13">
+    <row r="131" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="22"/>
@@ -4602,7 +4604,7 @@
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
     </row>
-    <row r="132" spans="1:17" ht="13">
+    <row r="132" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="22"/>
@@ -4621,7 +4623,7 @@
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
     </row>
-    <row r="133" spans="1:17" ht="13">
+    <row r="133" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="22"/>
@@ -4640,7 +4642,7 @@
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
     </row>
-    <row r="134" spans="1:17" ht="13">
+    <row r="134" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="22"/>
@@ -4659,7 +4661,7 @@
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
     </row>
-    <row r="135" spans="1:17" ht="13">
+    <row r="135" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="22"/>
@@ -4678,7 +4680,7 @@
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
     </row>
-    <row r="136" spans="1:17" ht="13">
+    <row r="136" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="22"/>
@@ -4697,7 +4699,7 @@
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
     </row>
-    <row r="137" spans="1:17" ht="13">
+    <row r="137" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="22"/>
@@ -4716,7 +4718,7 @@
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
     </row>
-    <row r="138" spans="1:17" ht="13">
+    <row r="138" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="22"/>
@@ -4735,7 +4737,7 @@
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
     </row>
-    <row r="139" spans="1:17" ht="13">
+    <row r="139" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="22"/>
@@ -4754,7 +4756,7 @@
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
     </row>
-    <row r="140" spans="1:17" ht="13">
+    <row r="140" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="22"/>
@@ -4773,7 +4775,7 @@
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
     </row>
-    <row r="141" spans="1:17" ht="13">
+    <row r="141" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="22"/>
@@ -4792,7 +4794,7 @@
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
     </row>
-    <row r="142" spans="1:17" ht="13">
+    <row r="142" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="22"/>
@@ -4811,7 +4813,7 @@
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
     </row>
-    <row r="143" spans="1:17" ht="13">
+    <row r="143" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="22"/>
@@ -4830,7 +4832,7 @@
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
     </row>
-    <row r="144" spans="1:17" ht="13">
+    <row r="144" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="22"/>
@@ -4849,7 +4851,7 @@
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
     </row>
-    <row r="145" spans="1:17" ht="13">
+    <row r="145" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="22"/>
@@ -4868,7 +4870,7 @@
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
     </row>
-    <row r="146" spans="1:17" ht="13">
+    <row r="146" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="22"/>
@@ -4887,7 +4889,7 @@
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
     </row>
-    <row r="147" spans="1:17" ht="13">
+    <row r="147" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="22"/>
@@ -4906,7 +4908,7 @@
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
     </row>
-    <row r="148" spans="1:17" ht="13">
+    <row r="148" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="22"/>
@@ -4925,7 +4927,7 @@
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
     </row>
-    <row r="149" spans="1:17" ht="13">
+    <row r="149" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="22"/>
@@ -4944,7 +4946,7 @@
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
     </row>
-    <row r="150" spans="1:17" ht="13">
+    <row r="150" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="22"/>
@@ -4963,7 +4965,7 @@
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
     </row>
-    <row r="151" spans="1:17" ht="13">
+    <row r="151" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="22"/>
@@ -4982,7 +4984,7 @@
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
     </row>
-    <row r="152" spans="1:17" ht="13">
+    <row r="152" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="22"/>
@@ -5001,7 +5003,7 @@
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
     </row>
-    <row r="153" spans="1:17" ht="13">
+    <row r="153" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="22"/>
@@ -5020,7 +5022,7 @@
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
     </row>
-    <row r="154" spans="1:17" ht="13">
+    <row r="154" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="22"/>
@@ -5039,7 +5041,7 @@
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
     </row>
-    <row r="155" spans="1:17" ht="13">
+    <row r="155" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="22"/>
@@ -5058,7 +5060,7 @@
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
     </row>
-    <row r="156" spans="1:17" ht="13">
+    <row r="156" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="22"/>
@@ -5077,7 +5079,7 @@
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
     </row>
-    <row r="157" spans="1:17" ht="13">
+    <row r="157" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="22"/>
@@ -5096,7 +5098,7 @@
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
     </row>
-    <row r="158" spans="1:17" ht="13">
+    <row r="158" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="22"/>
@@ -5115,7 +5117,7 @@
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
     </row>
-    <row r="159" spans="1:17" ht="13">
+    <row r="159" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="22"/>
@@ -5134,7 +5136,7 @@
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
     </row>
-    <row r="160" spans="1:17" ht="13">
+    <row r="160" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="22"/>
@@ -5153,7 +5155,7 @@
       <c r="P160" s="2"/>
       <c r="Q160" s="2"/>
     </row>
-    <row r="161" spans="1:17" ht="13">
+    <row r="161" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="22"/>
@@ -5172,7 +5174,7 @@
       <c r="P161" s="2"/>
       <c r="Q161" s="2"/>
     </row>
-    <row r="162" spans="1:17" ht="13">
+    <row r="162" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="22"/>
@@ -5191,7 +5193,7 @@
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
     </row>
-    <row r="163" spans="1:17" ht="13">
+    <row r="163" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="22"/>
@@ -5210,7 +5212,7 @@
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
     </row>
-    <row r="164" spans="1:17" ht="13">
+    <row r="164" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="22"/>
@@ -5229,7 +5231,7 @@
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
     </row>
-    <row r="165" spans="1:17" ht="13">
+    <row r="165" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="22"/>
@@ -5248,7 +5250,7 @@
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
     </row>
-    <row r="166" spans="1:17" ht="13">
+    <row r="166" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="22"/>
@@ -5267,7 +5269,7 @@
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
     </row>
-    <row r="167" spans="1:17" ht="13">
+    <row r="167" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="22"/>
@@ -5286,7 +5288,7 @@
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
     </row>
-    <row r="168" spans="1:17" ht="13">
+    <row r="168" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="22"/>
@@ -5305,7 +5307,7 @@
       <c r="P168" s="2"/>
       <c r="Q168" s="2"/>
     </row>
-    <row r="169" spans="1:17" ht="13">
+    <row r="169" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="22"/>
@@ -5324,7 +5326,7 @@
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
     </row>
-    <row r="170" spans="1:17" ht="13">
+    <row r="170" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="22"/>
@@ -5343,7 +5345,7 @@
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
     </row>
-    <row r="171" spans="1:17" ht="13">
+    <row r="171" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="22"/>
@@ -5362,7 +5364,7 @@
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
     </row>
-    <row r="172" spans="1:17" ht="13">
+    <row r="172" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="22"/>
@@ -5381,7 +5383,7 @@
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
     </row>
-    <row r="173" spans="1:17" ht="13">
+    <row r="173" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="22"/>
@@ -5400,7 +5402,7 @@
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
     </row>
-    <row r="174" spans="1:17" ht="13">
+    <row r="174" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="22"/>
@@ -5419,7 +5421,7 @@
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
     </row>
-    <row r="175" spans="1:17" ht="13">
+    <row r="175" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="22"/>
@@ -5438,7 +5440,7 @@
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
     </row>
-    <row r="176" spans="1:17" ht="13">
+    <row r="176" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="22"/>
@@ -5457,7 +5459,7 @@
       <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
     </row>
-    <row r="177" spans="1:17" ht="13">
+    <row r="177" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="22"/>
@@ -5476,7 +5478,7 @@
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
     </row>
-    <row r="178" spans="1:17" ht="13">
+    <row r="178" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="22"/>
@@ -5495,7 +5497,7 @@
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
     </row>
-    <row r="179" spans="1:17" ht="13">
+    <row r="179" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="22"/>
@@ -5514,7 +5516,7 @@
       <c r="P179" s="2"/>
       <c r="Q179" s="2"/>
     </row>
-    <row r="180" spans="1:17" ht="13">
+    <row r="180" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="22"/>
@@ -5533,7 +5535,7 @@
       <c r="P180" s="2"/>
       <c r="Q180" s="2"/>
     </row>
-    <row r="181" spans="1:17" ht="13">
+    <row r="181" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="22"/>
@@ -5552,7 +5554,7 @@
       <c r="P181" s="2"/>
       <c r="Q181" s="2"/>
     </row>
-    <row r="182" spans="1:17" ht="13">
+    <row r="182" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="22"/>
@@ -5571,7 +5573,7 @@
       <c r="P182" s="2"/>
       <c r="Q182" s="2"/>
     </row>
-    <row r="183" spans="1:17" ht="13">
+    <row r="183" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="22"/>
@@ -5590,7 +5592,7 @@
       <c r="P183" s="2"/>
       <c r="Q183" s="2"/>
     </row>
-    <row r="184" spans="1:17" ht="13">
+    <row r="184" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="22"/>
@@ -5609,7 +5611,7 @@
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
     </row>
-    <row r="185" spans="1:17" ht="13">
+    <row r="185" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="22"/>
@@ -5628,7 +5630,7 @@
       <c r="P185" s="2"/>
       <c r="Q185" s="2"/>
     </row>
-    <row r="186" spans="1:17" ht="13">
+    <row r="186" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="22"/>
@@ -5647,7 +5649,7 @@
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
     </row>
-    <row r="187" spans="1:17" ht="13">
+    <row r="187" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="22"/>
@@ -5666,7 +5668,7 @@
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
     </row>
-    <row r="188" spans="1:17" ht="13">
+    <row r="188" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="22"/>
@@ -5685,7 +5687,7 @@
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
     </row>
-    <row r="189" spans="1:17" ht="13">
+    <row r="189" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="22"/>
@@ -5704,7 +5706,7 @@
       <c r="P189" s="2"/>
       <c r="Q189" s="2"/>
     </row>
-    <row r="190" spans="1:17" ht="13">
+    <row r="190" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="22"/>
@@ -5723,7 +5725,7 @@
       <c r="P190" s="2"/>
       <c r="Q190" s="2"/>
     </row>
-    <row r="191" spans="1:17" ht="13">
+    <row r="191" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="22"/>
@@ -5742,7 +5744,7 @@
       <c r="P191" s="2"/>
       <c r="Q191" s="2"/>
     </row>
-    <row r="192" spans="1:17" ht="13">
+    <row r="192" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="22"/>
@@ -5761,7 +5763,7 @@
       <c r="P192" s="2"/>
       <c r="Q192" s="2"/>
     </row>
-    <row r="193" spans="1:17" ht="13">
+    <row r="193" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="22"/>
@@ -5780,7 +5782,7 @@
       <c r="P193" s="2"/>
       <c r="Q193" s="2"/>
     </row>
-    <row r="194" spans="1:17" ht="13">
+    <row r="194" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="22"/>
@@ -5799,7 +5801,7 @@
       <c r="P194" s="2"/>
       <c r="Q194" s="2"/>
     </row>
-    <row r="195" spans="1:17" ht="13">
+    <row r="195" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="22"/>
@@ -5818,7 +5820,7 @@
       <c r="P195" s="2"/>
       <c r="Q195" s="2"/>
     </row>
-    <row r="196" spans="1:17" ht="13">
+    <row r="196" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="22"/>
@@ -5837,7 +5839,7 @@
       <c r="P196" s="2"/>
       <c r="Q196" s="2"/>
     </row>
-    <row r="197" spans="1:17" ht="13">
+    <row r="197" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="22"/>
@@ -5856,7 +5858,7 @@
       <c r="P197" s="2"/>
       <c r="Q197" s="2"/>
     </row>
-    <row r="198" spans="1:17" ht="13">
+    <row r="198" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="22"/>
@@ -5875,7 +5877,7 @@
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
     </row>
-    <row r="199" spans="1:17" ht="13">
+    <row r="199" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="22"/>
@@ -5894,7 +5896,7 @@
       <c r="P199" s="2"/>
       <c r="Q199" s="2"/>
     </row>
-    <row r="200" spans="1:17" ht="13">
+    <row r="200" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="22"/>
@@ -5913,7 +5915,7 @@
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
     </row>
-    <row r="201" spans="1:17" ht="13">
+    <row r="201" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="22"/>
@@ -5932,7 +5934,7 @@
       <c r="P201" s="2"/>
       <c r="Q201" s="2"/>
     </row>
-    <row r="202" spans="1:17" ht="13">
+    <row r="202" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="22"/>
@@ -5951,7 +5953,7 @@
       <c r="P202" s="2"/>
       <c r="Q202" s="2"/>
     </row>
-    <row r="203" spans="1:17" ht="13">
+    <row r="203" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="22"/>
@@ -5970,7 +5972,7 @@
       <c r="P203" s="2"/>
       <c r="Q203" s="2"/>
     </row>
-    <row r="204" spans="1:17" ht="13">
+    <row r="204" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="22"/>
@@ -5989,7 +5991,7 @@
       <c r="P204" s="2"/>
       <c r="Q204" s="2"/>
     </row>
-    <row r="205" spans="1:17" ht="13">
+    <row r="205" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="22"/>
@@ -6008,7 +6010,7 @@
       <c r="P205" s="2"/>
       <c r="Q205" s="2"/>
     </row>
-    <row r="206" spans="1:17" ht="13">
+    <row r="206" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="22"/>
@@ -6027,7 +6029,7 @@
       <c r="P206" s="2"/>
       <c r="Q206" s="2"/>
     </row>
-    <row r="207" spans="1:17" ht="13">
+    <row r="207" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="22"/>
@@ -6046,7 +6048,7 @@
       <c r="P207" s="2"/>
       <c r="Q207" s="2"/>
     </row>
-    <row r="208" spans="1:17" ht="13">
+    <row r="208" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="22"/>
@@ -6065,7 +6067,7 @@
       <c r="P208" s="2"/>
       <c r="Q208" s="2"/>
     </row>
-    <row r="209" spans="1:17" ht="13">
+    <row r="209" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="22"/>
@@ -6084,7 +6086,7 @@
       <c r="P209" s="2"/>
       <c r="Q209" s="2"/>
     </row>
-    <row r="210" spans="1:17" ht="13">
+    <row r="210" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="22"/>
@@ -6103,7 +6105,7 @@
       <c r="P210" s="2"/>
       <c r="Q210" s="2"/>
     </row>
-    <row r="211" spans="1:17" ht="13">
+    <row r="211" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="22"/>
@@ -6122,7 +6124,7 @@
       <c r="P211" s="2"/>
       <c r="Q211" s="2"/>
     </row>
-    <row r="212" spans="1:17" ht="13">
+    <row r="212" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="22"/>
@@ -6141,7 +6143,7 @@
       <c r="P212" s="2"/>
       <c r="Q212" s="2"/>
     </row>
-    <row r="213" spans="1:17" ht="13">
+    <row r="213" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="22"/>
@@ -6160,7 +6162,7 @@
       <c r="P213" s="2"/>
       <c r="Q213" s="2"/>
     </row>
-    <row r="214" spans="1:17" ht="13">
+    <row r="214" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="22"/>
@@ -6179,7 +6181,7 @@
       <c r="P214" s="2"/>
       <c r="Q214" s="2"/>
     </row>
-    <row r="215" spans="1:17" ht="13">
+    <row r="215" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="22"/>
@@ -6198,7 +6200,7 @@
       <c r="P215" s="2"/>
       <c r="Q215" s="2"/>
     </row>
-    <row r="216" spans="1:17" ht="13">
+    <row r="216" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="22"/>
@@ -6217,7 +6219,7 @@
       <c r="P216" s="2"/>
       <c r="Q216" s="2"/>
     </row>
-    <row r="217" spans="1:17" ht="13">
+    <row r="217" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="22"/>
@@ -6236,7 +6238,7 @@
       <c r="P217" s="2"/>
       <c r="Q217" s="2"/>
     </row>
-    <row r="218" spans="1:17" ht="13">
+    <row r="218" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="22"/>
@@ -6255,7 +6257,7 @@
       <c r="P218" s="2"/>
       <c r="Q218" s="2"/>
     </row>
-    <row r="219" spans="1:17" ht="13">
+    <row r="219" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="22"/>
@@ -6274,7 +6276,7 @@
       <c r="P219" s="2"/>
       <c r="Q219" s="2"/>
     </row>
-    <row r="220" spans="1:17" ht="13">
+    <row r="220" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="22"/>
@@ -6293,7 +6295,7 @@
       <c r="P220" s="2"/>
       <c r="Q220" s="2"/>
     </row>
-    <row r="221" spans="1:17" ht="13">
+    <row r="221" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="22"/>
@@ -6312,7 +6314,7 @@
       <c r="P221" s="2"/>
       <c r="Q221" s="2"/>
     </row>
-    <row r="222" spans="1:17" ht="13">
+    <row r="222" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="22"/>
@@ -6331,7 +6333,7 @@
       <c r="P222" s="2"/>
       <c r="Q222" s="2"/>
     </row>
-    <row r="223" spans="1:17" ht="13">
+    <row r="223" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="22"/>
@@ -6350,7 +6352,7 @@
       <c r="P223" s="2"/>
       <c r="Q223" s="2"/>
     </row>
-    <row r="224" spans="1:17" ht="13">
+    <row r="224" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="22"/>
@@ -6369,7 +6371,7 @@
       <c r="P224" s="2"/>
       <c r="Q224" s="2"/>
     </row>
-    <row r="225" spans="1:17" ht="13">
+    <row r="225" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="22"/>
@@ -6388,7 +6390,7 @@
       <c r="P225" s="2"/>
       <c r="Q225" s="2"/>
     </row>
-    <row r="226" spans="1:17" ht="13">
+    <row r="226" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="22"/>
@@ -6407,7 +6409,7 @@
       <c r="P226" s="2"/>
       <c r="Q226" s="2"/>
     </row>
-    <row r="227" spans="1:17" ht="13">
+    <row r="227" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="22"/>
@@ -6426,7 +6428,7 @@
       <c r="P227" s="2"/>
       <c r="Q227" s="2"/>
     </row>
-    <row r="228" spans="1:17" ht="13">
+    <row r="228" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="22"/>
@@ -6445,7 +6447,7 @@
       <c r="P228" s="2"/>
       <c r="Q228" s="2"/>
     </row>
-    <row r="229" spans="1:17" ht="13">
+    <row r="229" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="22"/>
@@ -6464,7 +6466,7 @@
       <c r="P229" s="2"/>
       <c r="Q229" s="2"/>
     </row>
-    <row r="230" spans="1:17" ht="13">
+    <row r="230" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="22"/>
@@ -6483,7 +6485,7 @@
       <c r="P230" s="2"/>
       <c r="Q230" s="2"/>
     </row>
-    <row r="231" spans="1:17" ht="13">
+    <row r="231" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="22"/>
@@ -6502,7 +6504,7 @@
       <c r="P231" s="2"/>
       <c r="Q231" s="2"/>
     </row>
-    <row r="232" spans="1:17" ht="13">
+    <row r="232" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="22"/>
@@ -6521,7 +6523,7 @@
       <c r="P232" s="2"/>
       <c r="Q232" s="2"/>
     </row>
-    <row r="233" spans="1:17" ht="13">
+    <row r="233" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="22"/>
@@ -6540,7 +6542,7 @@
       <c r="P233" s="2"/>
       <c r="Q233" s="2"/>
     </row>
-    <row r="234" spans="1:17" ht="13">
+    <row r="234" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="22"/>
@@ -6559,7 +6561,7 @@
       <c r="P234" s="2"/>
       <c r="Q234" s="2"/>
     </row>
-    <row r="235" spans="1:17" ht="13">
+    <row r="235" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="22"/>
@@ -6578,7 +6580,7 @@
       <c r="P235" s="2"/>
       <c r="Q235" s="2"/>
     </row>
-    <row r="236" spans="1:17" ht="13">
+    <row r="236" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="22"/>
@@ -6597,7 +6599,7 @@
       <c r="P236" s="2"/>
       <c r="Q236" s="2"/>
     </row>
-    <row r="237" spans="1:17" ht="13">
+    <row r="237" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="22"/>
@@ -6616,7 +6618,7 @@
       <c r="P237" s="2"/>
       <c r="Q237" s="2"/>
     </row>
-    <row r="238" spans="1:17" ht="13">
+    <row r="238" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="22"/>
@@ -6635,7 +6637,7 @@
       <c r="P238" s="2"/>
       <c r="Q238" s="2"/>
     </row>
-    <row r="239" spans="1:17" ht="13">
+    <row r="239" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="22"/>
@@ -6654,7 +6656,7 @@
       <c r="P239" s="2"/>
       <c r="Q239" s="2"/>
     </row>
-    <row r="240" spans="1:17" ht="13">
+    <row r="240" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="22"/>
@@ -6673,7 +6675,7 @@
       <c r="P240" s="2"/>
       <c r="Q240" s="2"/>
     </row>
-    <row r="241" spans="1:17" ht="13">
+    <row r="241" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="22"/>
@@ -6692,7 +6694,7 @@
       <c r="P241" s="2"/>
       <c r="Q241" s="2"/>
     </row>
-    <row r="242" spans="1:17" ht="13">
+    <row r="242" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="22"/>
@@ -6711,7 +6713,7 @@
       <c r="P242" s="2"/>
       <c r="Q242" s="2"/>
     </row>
-    <row r="243" spans="1:17" ht="13">
+    <row r="243" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="22"/>
@@ -6730,7 +6732,7 @@
       <c r="P243" s="2"/>
       <c r="Q243" s="2"/>
     </row>
-    <row r="244" spans="1:17" ht="13">
+    <row r="244" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="22"/>
@@ -6749,7 +6751,7 @@
       <c r="P244" s="2"/>
       <c r="Q244" s="2"/>
     </row>
-    <row r="245" spans="1:17" ht="13">
+    <row r="245" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="22"/>
@@ -6768,7 +6770,7 @@
       <c r="P245" s="2"/>
       <c r="Q245" s="2"/>
     </row>
-    <row r="246" spans="1:17" ht="13">
+    <row r="246" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="22"/>
@@ -6787,7 +6789,7 @@
       <c r="P246" s="2"/>
       <c r="Q246" s="2"/>
     </row>
-    <row r="247" spans="1:17" ht="13">
+    <row r="247" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="22"/>
@@ -6806,7 +6808,7 @@
       <c r="P247" s="2"/>
       <c r="Q247" s="2"/>
     </row>
-    <row r="248" spans="1:17" ht="13">
+    <row r="248" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="22"/>
@@ -6825,7 +6827,7 @@
       <c r="P248" s="2"/>
       <c r="Q248" s="2"/>
     </row>
-    <row r="249" spans="1:17" ht="13">
+    <row r="249" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="22"/>
@@ -6844,7 +6846,7 @@
       <c r="P249" s="2"/>
       <c r="Q249" s="2"/>
     </row>
-    <row r="250" spans="1:17" ht="13">
+    <row r="250" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="22"/>
@@ -6863,7 +6865,7 @@
       <c r="P250" s="2"/>
       <c r="Q250" s="2"/>
     </row>
-    <row r="251" spans="1:17" ht="13">
+    <row r="251" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="22"/>
@@ -6882,7 +6884,7 @@
       <c r="P251" s="2"/>
       <c r="Q251" s="2"/>
     </row>
-    <row r="252" spans="1:17" ht="13">
+    <row r="252" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="22"/>
@@ -6901,7 +6903,7 @@
       <c r="P252" s="2"/>
       <c r="Q252" s="2"/>
     </row>
-    <row r="253" spans="1:17" ht="13">
+    <row r="253" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="22"/>
@@ -6920,7 +6922,7 @@
       <c r="P253" s="2"/>
       <c r="Q253" s="2"/>
     </row>
-    <row r="254" spans="1:17" ht="13">
+    <row r="254" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="22"/>
@@ -6939,7 +6941,7 @@
       <c r="P254" s="2"/>
       <c r="Q254" s="2"/>
     </row>
-    <row r="255" spans="1:17" ht="13">
+    <row r="255" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="22"/>
@@ -6958,7 +6960,7 @@
       <c r="P255" s="2"/>
       <c r="Q255" s="2"/>
     </row>
-    <row r="256" spans="1:17" ht="13">
+    <row r="256" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="22"/>
@@ -6977,7 +6979,7 @@
       <c r="P256" s="2"/>
       <c r="Q256" s="2"/>
     </row>
-    <row r="257" spans="1:17" ht="13">
+    <row r="257" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="22"/>
@@ -6996,7 +6998,7 @@
       <c r="P257" s="2"/>
       <c r="Q257" s="2"/>
     </row>
-    <row r="258" spans="1:17" ht="13">
+    <row r="258" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="22"/>
@@ -7015,7 +7017,7 @@
       <c r="P258" s="2"/>
       <c r="Q258" s="2"/>
     </row>
-    <row r="259" spans="1:17" ht="13">
+    <row r="259" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="22"/>
@@ -7034,7 +7036,7 @@
       <c r="P259" s="2"/>
       <c r="Q259" s="2"/>
     </row>
-    <row r="260" spans="1:17" ht="13">
+    <row r="260" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="22"/>
@@ -7053,7 +7055,7 @@
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
     </row>
-    <row r="261" spans="1:17" ht="13">
+    <row r="261" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="22"/>
@@ -7072,7 +7074,7 @@
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
     </row>
-    <row r="262" spans="1:17" ht="13">
+    <row r="262" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="22"/>
@@ -7091,7 +7093,7 @@
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
     </row>
-    <row r="263" spans="1:17" ht="13">
+    <row r="263" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="22"/>
@@ -7110,7 +7112,7 @@
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
     </row>
-    <row r="264" spans="1:17" ht="13">
+    <row r="264" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="22"/>
@@ -7129,7 +7131,7 @@
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
     </row>
-    <row r="265" spans="1:17" ht="13">
+    <row r="265" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="22"/>
@@ -7148,7 +7150,7 @@
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
     </row>
-    <row r="266" spans="1:17" ht="13">
+    <row r="266" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="22"/>
@@ -7167,7 +7169,7 @@
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
     </row>
-    <row r="267" spans="1:17" ht="13">
+    <row r="267" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="22"/>
@@ -7186,7 +7188,7 @@
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
     </row>
-    <row r="268" spans="1:17" ht="13">
+    <row r="268" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="22"/>
@@ -7205,7 +7207,7 @@
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
     </row>
-    <row r="269" spans="1:17" ht="13">
+    <row r="269" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="22"/>
@@ -7224,7 +7226,7 @@
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
     </row>
-    <row r="270" spans="1:17" ht="13">
+    <row r="270" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="22"/>
@@ -7243,7 +7245,7 @@
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
     </row>
-    <row r="271" spans="1:17" ht="13">
+    <row r="271" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="22"/>
@@ -7262,7 +7264,7 @@
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
     </row>
-    <row r="272" spans="1:17" ht="13">
+    <row r="272" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="22"/>
@@ -7281,7 +7283,7 @@
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>
     </row>
-    <row r="273" spans="1:17" ht="13">
+    <row r="273" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="22"/>
@@ -7300,7 +7302,7 @@
       <c r="P273" s="2"/>
       <c r="Q273" s="2"/>
     </row>
-    <row r="274" spans="1:17" ht="13">
+    <row r="274" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="22"/>
@@ -7319,7 +7321,7 @@
       <c r="P274" s="2"/>
       <c r="Q274" s="2"/>
     </row>
-    <row r="275" spans="1:17" ht="13">
+    <row r="275" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="22"/>
@@ -7338,7 +7340,7 @@
       <c r="P275" s="2"/>
       <c r="Q275" s="2"/>
     </row>
-    <row r="276" spans="1:17" ht="13">
+    <row r="276" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="22"/>
@@ -7357,7 +7359,7 @@
       <c r="P276" s="2"/>
       <c r="Q276" s="2"/>
     </row>
-    <row r="277" spans="1:17" ht="13">
+    <row r="277" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="22"/>
@@ -7376,7 +7378,7 @@
       <c r="P277" s="2"/>
       <c r="Q277" s="2"/>
     </row>
-    <row r="278" spans="1:17" ht="13">
+    <row r="278" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="22"/>
@@ -7395,7 +7397,7 @@
       <c r="P278" s="2"/>
       <c r="Q278" s="2"/>
     </row>
-    <row r="279" spans="1:17" ht="13">
+    <row r="279" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="22"/>
@@ -7414,7 +7416,7 @@
       <c r="P279" s="2"/>
       <c r="Q279" s="2"/>
     </row>
-    <row r="280" spans="1:17" ht="13">
+    <row r="280" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="22"/>
@@ -7433,7 +7435,7 @@
       <c r="P280" s="2"/>
       <c r="Q280" s="2"/>
     </row>
-    <row r="281" spans="1:17" ht="13">
+    <row r="281" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="22"/>
@@ -7452,7 +7454,7 @@
       <c r="P281" s="2"/>
       <c r="Q281" s="2"/>
     </row>
-    <row r="282" spans="1:17" ht="13">
+    <row r="282" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="22"/>
@@ -7471,7 +7473,7 @@
       <c r="P282" s="2"/>
       <c r="Q282" s="2"/>
     </row>
-    <row r="283" spans="1:17" ht="13">
+    <row r="283" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="22"/>
@@ -7490,7 +7492,7 @@
       <c r="P283" s="2"/>
       <c r="Q283" s="2"/>
     </row>
-    <row r="284" spans="1:17" ht="13">
+    <row r="284" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="22"/>
@@ -7509,7 +7511,7 @@
       <c r="P284" s="2"/>
       <c r="Q284" s="2"/>
     </row>
-    <row r="285" spans="1:17" ht="13">
+    <row r="285" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="22"/>
@@ -7528,7 +7530,7 @@
       <c r="P285" s="2"/>
       <c r="Q285" s="2"/>
     </row>
-    <row r="286" spans="1:17" ht="13">
+    <row r="286" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="22"/>
@@ -7547,7 +7549,7 @@
       <c r="P286" s="2"/>
       <c r="Q286" s="2"/>
     </row>
-    <row r="287" spans="1:17" ht="13">
+    <row r="287" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="22"/>
@@ -7566,7 +7568,7 @@
       <c r="P287" s="2"/>
       <c r="Q287" s="2"/>
     </row>
-    <row r="288" spans="1:17" ht="13">
+    <row r="288" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="22"/>
@@ -7585,7 +7587,7 @@
       <c r="P288" s="2"/>
       <c r="Q288" s="2"/>
     </row>
-    <row r="289" spans="1:17" ht="13">
+    <row r="289" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="22"/>
@@ -7604,7 +7606,7 @@
       <c r="P289" s="2"/>
       <c r="Q289" s="2"/>
     </row>
-    <row r="290" spans="1:17" ht="13">
+    <row r="290" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="22"/>
@@ -7623,7 +7625,7 @@
       <c r="P290" s="2"/>
       <c r="Q290" s="2"/>
     </row>
-    <row r="291" spans="1:17" ht="13">
+    <row r="291" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="22"/>
@@ -7642,7 +7644,7 @@
       <c r="P291" s="2"/>
       <c r="Q291" s="2"/>
     </row>
-    <row r="292" spans="1:17" ht="13">
+    <row r="292" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="22"/>
@@ -7661,7 +7663,7 @@
       <c r="P292" s="2"/>
       <c r="Q292" s="2"/>
     </row>
-    <row r="293" spans="1:17" ht="13">
+    <row r="293" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="22"/>
@@ -7680,7 +7682,7 @@
       <c r="P293" s="2"/>
       <c r="Q293" s="2"/>
     </row>
-    <row r="294" spans="1:17" ht="13">
+    <row r="294" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="22"/>
@@ -7699,7 +7701,7 @@
       <c r="P294" s="2"/>
       <c r="Q294" s="2"/>
     </row>
-    <row r="295" spans="1:17" ht="13">
+    <row r="295" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="22"/>
@@ -7718,7 +7720,7 @@
       <c r="P295" s="2"/>
       <c r="Q295" s="2"/>
     </row>
-    <row r="296" spans="1:17" ht="13">
+    <row r="296" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="22"/>
@@ -7737,7 +7739,7 @@
       <c r="P296" s="2"/>
       <c r="Q296" s="2"/>
     </row>
-    <row r="297" spans="1:17" ht="13">
+    <row r="297" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="22"/>
@@ -7756,7 +7758,7 @@
       <c r="P297" s="2"/>
       <c r="Q297" s="2"/>
     </row>
-    <row r="298" spans="1:17" ht="13">
+    <row r="298" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="22"/>
@@ -7775,7 +7777,7 @@
       <c r="P298" s="2"/>
       <c r="Q298" s="2"/>
     </row>
-    <row r="299" spans="1:17" ht="13">
+    <row r="299" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="22"/>
@@ -7794,7 +7796,7 @@
       <c r="P299" s="2"/>
       <c r="Q299" s="2"/>
     </row>
-    <row r="300" spans="1:17" ht="13">
+    <row r="300" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="22"/>
@@ -7813,7 +7815,7 @@
       <c r="P300" s="2"/>
       <c r="Q300" s="2"/>
     </row>
-    <row r="301" spans="1:17" ht="13">
+    <row r="301" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="22"/>
@@ -7832,7 +7834,7 @@
       <c r="P301" s="2"/>
       <c r="Q301" s="2"/>
     </row>
-    <row r="302" spans="1:17" ht="13">
+    <row r="302" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="22"/>
@@ -7851,7 +7853,7 @@
       <c r="P302" s="2"/>
       <c r="Q302" s="2"/>
     </row>
-    <row r="303" spans="1:17" ht="13">
+    <row r="303" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="22"/>
@@ -7870,7 +7872,7 @@
       <c r="P303" s="2"/>
       <c r="Q303" s="2"/>
     </row>
-    <row r="304" spans="1:17" ht="13">
+    <row r="304" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="22"/>
@@ -7889,7 +7891,7 @@
       <c r="P304" s="2"/>
       <c r="Q304" s="2"/>
     </row>
-    <row r="305" spans="1:17" ht="13">
+    <row r="305" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="22"/>
@@ -7908,7 +7910,7 @@
       <c r="P305" s="2"/>
       <c r="Q305" s="2"/>
     </row>
-    <row r="306" spans="1:17" ht="13">
+    <row r="306" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="22"/>
@@ -7927,7 +7929,7 @@
       <c r="P306" s="2"/>
       <c r="Q306" s="2"/>
     </row>
-    <row r="307" spans="1:17" ht="13">
+    <row r="307" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="22"/>
@@ -7946,7 +7948,7 @@
       <c r="P307" s="2"/>
       <c r="Q307" s="2"/>
     </row>
-    <row r="308" spans="1:17" ht="13">
+    <row r="308" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="22"/>
@@ -7965,7 +7967,7 @@
       <c r="P308" s="2"/>
       <c r="Q308" s="2"/>
     </row>
-    <row r="309" spans="1:17" ht="13">
+    <row r="309" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="22"/>
@@ -7984,7 +7986,7 @@
       <c r="P309" s="2"/>
       <c r="Q309" s="2"/>
     </row>
-    <row r="310" spans="1:17" ht="13">
+    <row r="310" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="22"/>
@@ -8003,7 +8005,7 @@
       <c r="P310" s="2"/>
       <c r="Q310" s="2"/>
     </row>
-    <row r="311" spans="1:17" ht="13">
+    <row r="311" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="22"/>
@@ -8022,7 +8024,7 @@
       <c r="P311" s="2"/>
       <c r="Q311" s="2"/>
     </row>
-    <row r="312" spans="1:17" ht="13">
+    <row r="312" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="22"/>
@@ -8041,7 +8043,7 @@
       <c r="P312" s="2"/>
       <c r="Q312" s="2"/>
     </row>
-    <row r="313" spans="1:17" ht="13">
+    <row r="313" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="22"/>
@@ -8060,7 +8062,7 @@
       <c r="P313" s="2"/>
       <c r="Q313" s="2"/>
     </row>
-    <row r="314" spans="1:17" ht="13">
+    <row r="314" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="22"/>
@@ -8079,7 +8081,7 @@
       <c r="P314" s="2"/>
       <c r="Q314" s="2"/>
     </row>
-    <row r="315" spans="1:17" ht="13">
+    <row r="315" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="22"/>
@@ -8098,7 +8100,7 @@
       <c r="P315" s="2"/>
       <c r="Q315" s="2"/>
     </row>
-    <row r="316" spans="1:17" ht="13">
+    <row r="316" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="22"/>
@@ -8117,7 +8119,7 @@
       <c r="P316" s="2"/>
       <c r="Q316" s="2"/>
     </row>
-    <row r="317" spans="1:17" ht="13">
+    <row r="317" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="22"/>
@@ -8136,7 +8138,7 @@
       <c r="P317" s="2"/>
       <c r="Q317" s="2"/>
     </row>
-    <row r="318" spans="1:17" ht="13">
+    <row r="318" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="22"/>
@@ -8155,7 +8157,7 @@
       <c r="P318" s="2"/>
       <c r="Q318" s="2"/>
     </row>
-    <row r="319" spans="1:17" ht="13">
+    <row r="319" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="22"/>
@@ -8174,7 +8176,7 @@
       <c r="P319" s="2"/>
       <c r="Q319" s="2"/>
     </row>
-    <row r="320" spans="1:17" ht="13">
+    <row r="320" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="22"/>
@@ -8193,7 +8195,7 @@
       <c r="P320" s="2"/>
       <c r="Q320" s="2"/>
     </row>
-    <row r="321" spans="1:17" ht="13">
+    <row r="321" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="22"/>
@@ -8212,7 +8214,7 @@
       <c r="P321" s="2"/>
       <c r="Q321" s="2"/>
     </row>
-    <row r="322" spans="1:17" ht="13">
+    <row r="322" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="22"/>
@@ -8231,7 +8233,7 @@
       <c r="P322" s="2"/>
       <c r="Q322" s="2"/>
     </row>
-    <row r="323" spans="1:17" ht="13">
+    <row r="323" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="22"/>
@@ -8250,7 +8252,7 @@
       <c r="P323" s="2"/>
       <c r="Q323" s="2"/>
     </row>
-    <row r="324" spans="1:17" ht="13">
+    <row r="324" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="22"/>
@@ -8269,7 +8271,7 @@
       <c r="P324" s="2"/>
       <c r="Q324" s="2"/>
     </row>
-    <row r="325" spans="1:17" ht="13">
+    <row r="325" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="22"/>
@@ -8288,7 +8290,7 @@
       <c r="P325" s="2"/>
       <c r="Q325" s="2"/>
     </row>
-    <row r="326" spans="1:17" ht="13">
+    <row r="326" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="22"/>
@@ -8307,7 +8309,7 @@
       <c r="P326" s="2"/>
       <c r="Q326" s="2"/>
     </row>
-    <row r="327" spans="1:17" ht="13">
+    <row r="327" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="22"/>
@@ -8326,7 +8328,7 @@
       <c r="P327" s="2"/>
       <c r="Q327" s="2"/>
     </row>
-    <row r="328" spans="1:17" ht="13">
+    <row r="328" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="22"/>
@@ -8345,7 +8347,7 @@
       <c r="P328" s="2"/>
       <c r="Q328" s="2"/>
     </row>
-    <row r="329" spans="1:17" ht="13">
+    <row r="329" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="22"/>
@@ -8364,7 +8366,7 @@
       <c r="P329" s="2"/>
       <c r="Q329" s="2"/>
     </row>
-    <row r="330" spans="1:17" ht="13">
+    <row r="330" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="22"/>
@@ -8383,7 +8385,7 @@
       <c r="P330" s="2"/>
       <c r="Q330" s="2"/>
     </row>
-    <row r="331" spans="1:17" ht="13">
+    <row r="331" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="22"/>
@@ -8402,7 +8404,7 @@
       <c r="P331" s="2"/>
       <c r="Q331" s="2"/>
     </row>
-    <row r="332" spans="1:17" ht="13">
+    <row r="332" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="22"/>
@@ -8421,7 +8423,7 @@
       <c r="P332" s="2"/>
       <c r="Q332" s="2"/>
     </row>
-    <row r="333" spans="1:17" ht="13">
+    <row r="333" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="22"/>
@@ -8440,7 +8442,7 @@
       <c r="P333" s="2"/>
       <c r="Q333" s="2"/>
     </row>
-    <row r="334" spans="1:17" ht="13">
+    <row r="334" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="22"/>
@@ -8459,7 +8461,7 @@
       <c r="P334" s="2"/>
       <c r="Q334" s="2"/>
     </row>
-    <row r="335" spans="1:17" ht="13">
+    <row r="335" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="22"/>
@@ -8478,7 +8480,7 @@
       <c r="P335" s="2"/>
       <c r="Q335" s="2"/>
     </row>
-    <row r="336" spans="1:17" ht="13">
+    <row r="336" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="22"/>
@@ -8497,7 +8499,7 @@
       <c r="P336" s="2"/>
       <c r="Q336" s="2"/>
     </row>
-    <row r="337" spans="1:17" ht="13">
+    <row r="337" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="22"/>
@@ -8516,7 +8518,7 @@
       <c r="P337" s="2"/>
       <c r="Q337" s="2"/>
     </row>
-    <row r="338" spans="1:17" ht="13">
+    <row r="338" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="22"/>
@@ -8535,7 +8537,7 @@
       <c r="P338" s="2"/>
       <c r="Q338" s="2"/>
     </row>
-    <row r="339" spans="1:17" ht="13">
+    <row r="339" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="22"/>
@@ -8554,7 +8556,7 @@
       <c r="P339" s="2"/>
       <c r="Q339" s="2"/>
     </row>
-    <row r="340" spans="1:17" ht="13">
+    <row r="340" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="22"/>
@@ -8573,7 +8575,7 @@
       <c r="P340" s="2"/>
       <c r="Q340" s="2"/>
     </row>
-    <row r="341" spans="1:17" ht="13">
+    <row r="341" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="22"/>
@@ -8592,7 +8594,7 @@
       <c r="P341" s="2"/>
       <c r="Q341" s="2"/>
     </row>
-    <row r="342" spans="1:17" ht="13">
+    <row r="342" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="22"/>
@@ -8611,7 +8613,7 @@
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
     </row>
-    <row r="343" spans="1:17" ht="13">
+    <row r="343" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="22"/>
@@ -8630,7 +8632,7 @@
       <c r="P343" s="2"/>
       <c r="Q343" s="2"/>
     </row>
-    <row r="344" spans="1:17" ht="13">
+    <row r="344" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="22"/>
@@ -8649,7 +8651,7 @@
       <c r="P344" s="2"/>
       <c r="Q344" s="2"/>
     </row>
-    <row r="345" spans="1:17" ht="13">
+    <row r="345" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="22"/>
@@ -8668,7 +8670,7 @@
       <c r="P345" s="2"/>
       <c r="Q345" s="2"/>
     </row>
-    <row r="346" spans="1:17" ht="13">
+    <row r="346" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="22"/>
@@ -8687,7 +8689,7 @@
       <c r="P346" s="2"/>
       <c r="Q346" s="2"/>
     </row>
-    <row r="347" spans="1:17" ht="13">
+    <row r="347" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="22"/>
@@ -8706,7 +8708,7 @@
       <c r="P347" s="2"/>
       <c r="Q347" s="2"/>
     </row>
-    <row r="348" spans="1:17" ht="13">
+    <row r="348" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="22"/>
@@ -8725,7 +8727,7 @@
       <c r="P348" s="2"/>
       <c r="Q348" s="2"/>
     </row>
-    <row r="349" spans="1:17" ht="13">
+    <row r="349" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="22"/>
@@ -8744,7 +8746,7 @@
       <c r="P349" s="2"/>
       <c r="Q349" s="2"/>
     </row>
-    <row r="350" spans="1:17" ht="13">
+    <row r="350" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="22"/>
@@ -8763,7 +8765,7 @@
       <c r="P350" s="2"/>
       <c r="Q350" s="2"/>
     </row>
-    <row r="351" spans="1:17" ht="13">
+    <row r="351" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="22"/>
@@ -8782,7 +8784,7 @@
       <c r="P351" s="2"/>
       <c r="Q351" s="2"/>
     </row>
-    <row r="352" spans="1:17" ht="13">
+    <row r="352" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="22"/>
@@ -8801,7 +8803,7 @@
       <c r="P352" s="2"/>
       <c r="Q352" s="2"/>
     </row>
-    <row r="353" spans="1:17" ht="13">
+    <row r="353" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="22"/>
@@ -8820,7 +8822,7 @@
       <c r="P353" s="2"/>
       <c r="Q353" s="2"/>
     </row>
-    <row r="354" spans="1:17" ht="13">
+    <row r="354" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="22"/>
@@ -8839,7 +8841,7 @@
       <c r="P354" s="2"/>
       <c r="Q354" s="2"/>
     </row>
-    <row r="355" spans="1:17" ht="13">
+    <row r="355" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="22"/>
@@ -8858,7 +8860,7 @@
       <c r="P355" s="2"/>
       <c r="Q355" s="2"/>
     </row>
-    <row r="356" spans="1:17" ht="13">
+    <row r="356" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="22"/>
@@ -8877,7 +8879,7 @@
       <c r="P356" s="2"/>
       <c r="Q356" s="2"/>
     </row>
-    <row r="357" spans="1:17" ht="13">
+    <row r="357" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="22"/>
@@ -8896,7 +8898,7 @@
       <c r="P357" s="2"/>
       <c r="Q357" s="2"/>
     </row>
-    <row r="358" spans="1:17" ht="13">
+    <row r="358" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="22"/>
@@ -8915,7 +8917,7 @@
       <c r="P358" s="2"/>
       <c r="Q358" s="2"/>
     </row>
-    <row r="359" spans="1:17" ht="13">
+    <row r="359" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="22"/>
@@ -8934,7 +8936,7 @@
       <c r="P359" s="2"/>
       <c r="Q359" s="2"/>
     </row>
-    <row r="360" spans="1:17" ht="13">
+    <row r="360" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="22"/>
@@ -8953,7 +8955,7 @@
       <c r="P360" s="2"/>
       <c r="Q360" s="2"/>
     </row>
-    <row r="361" spans="1:17" ht="13">
+    <row r="361" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="22"/>
@@ -8972,7 +8974,7 @@
       <c r="P361" s="2"/>
       <c r="Q361" s="2"/>
     </row>
-    <row r="362" spans="1:17" ht="13">
+    <row r="362" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="22"/>
@@ -8991,7 +8993,7 @@
       <c r="P362" s="2"/>
       <c r="Q362" s="2"/>
     </row>
-    <row r="363" spans="1:17" ht="13">
+    <row r="363" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="22"/>
@@ -9010,7 +9012,7 @@
       <c r="P363" s="2"/>
       <c r="Q363" s="2"/>
     </row>
-    <row r="364" spans="1:17" ht="13">
+    <row r="364" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="22"/>
@@ -9029,7 +9031,7 @@
       <c r="P364" s="2"/>
       <c r="Q364" s="2"/>
     </row>
-    <row r="365" spans="1:17" ht="13">
+    <row r="365" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="22"/>
@@ -9048,7 +9050,7 @@
       <c r="P365" s="2"/>
       <c r="Q365" s="2"/>
     </row>
-    <row r="366" spans="1:17" ht="13">
+    <row r="366" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="22"/>
@@ -9067,7 +9069,7 @@
       <c r="P366" s="2"/>
       <c r="Q366" s="2"/>
     </row>
-    <row r="367" spans="1:17" ht="13">
+    <row r="367" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="22"/>
@@ -9086,7 +9088,7 @@
       <c r="P367" s="2"/>
       <c r="Q367" s="2"/>
     </row>
-    <row r="368" spans="1:17" ht="13">
+    <row r="368" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="22"/>
@@ -9105,7 +9107,7 @@
       <c r="P368" s="2"/>
       <c r="Q368" s="2"/>
     </row>
-    <row r="369" spans="1:17" ht="13">
+    <row r="369" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="22"/>
@@ -9124,7 +9126,7 @@
       <c r="P369" s="2"/>
       <c r="Q369" s="2"/>
     </row>
-    <row r="370" spans="1:17" ht="13">
+    <row r="370" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="22"/>
@@ -9143,7 +9145,7 @@
       <c r="P370" s="2"/>
       <c r="Q370" s="2"/>
     </row>
-    <row r="371" spans="1:17" ht="13">
+    <row r="371" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="22"/>
@@ -9162,7 +9164,7 @@
       <c r="P371" s="2"/>
       <c r="Q371" s="2"/>
     </row>
-    <row r="372" spans="1:17" ht="13">
+    <row r="372" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="22"/>
@@ -9181,7 +9183,7 @@
       <c r="P372" s="2"/>
       <c r="Q372" s="2"/>
     </row>
-    <row r="373" spans="1:17" ht="13">
+    <row r="373" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="22"/>
@@ -9200,7 +9202,7 @@
       <c r="P373" s="2"/>
       <c r="Q373" s="2"/>
     </row>
-    <row r="374" spans="1:17" ht="13">
+    <row r="374" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="22"/>
@@ -9219,7 +9221,7 @@
       <c r="P374" s="2"/>
       <c r="Q374" s="2"/>
     </row>
-    <row r="375" spans="1:17" ht="13">
+    <row r="375" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="22"/>
@@ -9238,7 +9240,7 @@
       <c r="P375" s="2"/>
       <c r="Q375" s="2"/>
     </row>
-    <row r="376" spans="1:17" ht="13">
+    <row r="376" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="22"/>
@@ -9257,7 +9259,7 @@
       <c r="P376" s="2"/>
       <c r="Q376" s="2"/>
     </row>
-    <row r="377" spans="1:17" ht="13">
+    <row r="377" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="22"/>
@@ -9276,7 +9278,7 @@
       <c r="P377" s="2"/>
       <c r="Q377" s="2"/>
     </row>
-    <row r="378" spans="1:17" ht="13">
+    <row r="378" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="22"/>
@@ -9295,7 +9297,7 @@
       <c r="P378" s="2"/>
       <c r="Q378" s="2"/>
     </row>
-    <row r="379" spans="1:17" ht="13">
+    <row r="379" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="22"/>
@@ -9314,7 +9316,7 @@
       <c r="P379" s="2"/>
       <c r="Q379" s="2"/>
     </row>
-    <row r="380" spans="1:17" ht="13">
+    <row r="380" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="22"/>
@@ -9333,7 +9335,7 @@
       <c r="P380" s="2"/>
       <c r="Q380" s="2"/>
     </row>
-    <row r="381" spans="1:17" ht="13">
+    <row r="381" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="22"/>
@@ -9352,7 +9354,7 @@
       <c r="P381" s="2"/>
       <c r="Q381" s="2"/>
     </row>
-    <row r="382" spans="1:17" ht="13">
+    <row r="382" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="22"/>
@@ -9371,7 +9373,7 @@
       <c r="P382" s="2"/>
       <c r="Q382" s="2"/>
     </row>
-    <row r="383" spans="1:17" ht="13">
+    <row r="383" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="22"/>
@@ -9390,7 +9392,7 @@
       <c r="P383" s="2"/>
       <c r="Q383" s="2"/>
     </row>
-    <row r="384" spans="1:17" ht="13">
+    <row r="384" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="22"/>
@@ -9409,7 +9411,7 @@
       <c r="P384" s="2"/>
       <c r="Q384" s="2"/>
     </row>
-    <row r="385" spans="1:17" ht="13">
+    <row r="385" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="22"/>
@@ -9428,7 +9430,7 @@
       <c r="P385" s="2"/>
       <c r="Q385" s="2"/>
     </row>
-    <row r="386" spans="1:17" ht="13">
+    <row r="386" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="22"/>
@@ -9447,7 +9449,7 @@
       <c r="P386" s="2"/>
       <c r="Q386" s="2"/>
     </row>
-    <row r="387" spans="1:17" ht="13">
+    <row r="387" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="22"/>
@@ -9466,7 +9468,7 @@
       <c r="P387" s="2"/>
       <c r="Q387" s="2"/>
     </row>
-    <row r="388" spans="1:17" ht="13">
+    <row r="388" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="22"/>
@@ -9485,7 +9487,7 @@
       <c r="P388" s="2"/>
       <c r="Q388" s="2"/>
     </row>
-    <row r="389" spans="1:17" ht="13">
+    <row r="389" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="22"/>
@@ -9504,7 +9506,7 @@
       <c r="P389" s="2"/>
       <c r="Q389" s="2"/>
     </row>
-    <row r="390" spans="1:17" ht="13">
+    <row r="390" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="22"/>
@@ -9523,7 +9525,7 @@
       <c r="P390" s="2"/>
       <c r="Q390" s="2"/>
     </row>
-    <row r="391" spans="1:17" ht="13">
+    <row r="391" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="22"/>
@@ -9542,7 +9544,7 @@
       <c r="P391" s="2"/>
       <c r="Q391" s="2"/>
     </row>
-    <row r="392" spans="1:17" ht="13">
+    <row r="392" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="22"/>
@@ -9561,7 +9563,7 @@
       <c r="P392" s="2"/>
       <c r="Q392" s="2"/>
     </row>
-    <row r="393" spans="1:17" ht="13">
+    <row r="393" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="22"/>
@@ -9580,7 +9582,7 @@
       <c r="P393" s="2"/>
       <c r="Q393" s="2"/>
     </row>
-    <row r="394" spans="1:17" ht="13">
+    <row r="394" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="22"/>
@@ -9599,7 +9601,7 @@
       <c r="P394" s="2"/>
       <c r="Q394" s="2"/>
     </row>
-    <row r="395" spans="1:17" ht="13">
+    <row r="395" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="22"/>
@@ -9618,7 +9620,7 @@
       <c r="P395" s="2"/>
       <c r="Q395" s="2"/>
     </row>
-    <row r="396" spans="1:17" ht="13">
+    <row r="396" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="22"/>
@@ -9637,7 +9639,7 @@
       <c r="P396" s="2"/>
       <c r="Q396" s="2"/>
     </row>
-    <row r="397" spans="1:17" ht="13">
+    <row r="397" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="22"/>
@@ -9656,7 +9658,7 @@
       <c r="P397" s="2"/>
       <c r="Q397" s="2"/>
     </row>
-    <row r="398" spans="1:17" ht="13">
+    <row r="398" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="22"/>
@@ -9675,7 +9677,7 @@
       <c r="P398" s="2"/>
       <c r="Q398" s="2"/>
     </row>
-    <row r="399" spans="1:17" ht="13">
+    <row r="399" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="22"/>
@@ -9694,7 +9696,7 @@
       <c r="P399" s="2"/>
       <c r="Q399" s="2"/>
     </row>
-    <row r="400" spans="1:17" ht="13">
+    <row r="400" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="22"/>
@@ -9713,7 +9715,7 @@
       <c r="P400" s="2"/>
       <c r="Q400" s="2"/>
     </row>
-    <row r="401" spans="1:17" ht="13">
+    <row r="401" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="22"/>
@@ -9732,7 +9734,7 @@
       <c r="P401" s="2"/>
       <c r="Q401" s="2"/>
     </row>
-    <row r="402" spans="1:17" ht="13">
+    <row r="402" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="22"/>
@@ -9751,7 +9753,7 @@
       <c r="P402" s="2"/>
       <c r="Q402" s="2"/>
     </row>
-    <row r="403" spans="1:17" ht="13">
+    <row r="403" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="22"/>
@@ -9770,7 +9772,7 @@
       <c r="P403" s="2"/>
       <c r="Q403" s="2"/>
     </row>
-    <row r="404" spans="1:17" ht="13">
+    <row r="404" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="22"/>
@@ -9789,7 +9791,7 @@
       <c r="P404" s="2"/>
       <c r="Q404" s="2"/>
     </row>
-    <row r="405" spans="1:17" ht="13">
+    <row r="405" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="22"/>
@@ -9808,7 +9810,7 @@
       <c r="P405" s="2"/>
       <c r="Q405" s="2"/>
     </row>
-    <row r="406" spans="1:17" ht="13">
+    <row r="406" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="22"/>
@@ -9827,7 +9829,7 @@
       <c r="P406" s="2"/>
       <c r="Q406" s="2"/>
     </row>
-    <row r="407" spans="1:17" ht="13">
+    <row r="407" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="22"/>
@@ -9846,7 +9848,7 @@
       <c r="P407" s="2"/>
       <c r="Q407" s="2"/>
     </row>
-    <row r="408" spans="1:17" ht="13">
+    <row r="408" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="22"/>
@@ -9865,7 +9867,7 @@
       <c r="P408" s="2"/>
       <c r="Q408" s="2"/>
     </row>
-    <row r="409" spans="1:17" ht="13">
+    <row r="409" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="22"/>
@@ -9884,7 +9886,7 @@
       <c r="P409" s="2"/>
       <c r="Q409" s="2"/>
     </row>
-    <row r="410" spans="1:17" ht="13">
+    <row r="410" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="22"/>
@@ -9903,7 +9905,7 @@
       <c r="P410" s="2"/>
       <c r="Q410" s="2"/>
     </row>
-    <row r="411" spans="1:17" ht="13">
+    <row r="411" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="22"/>
@@ -9922,7 +9924,7 @@
       <c r="P411" s="2"/>
       <c r="Q411" s="2"/>
     </row>
-    <row r="412" spans="1:17" ht="13">
+    <row r="412" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="22"/>
@@ -9941,7 +9943,7 @@
       <c r="P412" s="2"/>
       <c r="Q412" s="2"/>
     </row>
-    <row r="413" spans="1:17" ht="13">
+    <row r="413" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="22"/>
@@ -9960,7 +9962,7 @@
       <c r="P413" s="2"/>
       <c r="Q413" s="2"/>
     </row>
-    <row r="414" spans="1:17" ht="13">
+    <row r="414" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="22"/>
@@ -9979,7 +9981,7 @@
       <c r="P414" s="2"/>
       <c r="Q414" s="2"/>
     </row>
-    <row r="415" spans="1:17" ht="13">
+    <row r="415" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="22"/>
@@ -9998,7 +10000,7 @@
       <c r="P415" s="2"/>
       <c r="Q415" s="2"/>
     </row>
-    <row r="416" spans="1:17" ht="13">
+    <row r="416" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="22"/>
@@ -10017,7 +10019,7 @@
       <c r="P416" s="2"/>
       <c r="Q416" s="2"/>
     </row>
-    <row r="417" spans="1:17" ht="13">
+    <row r="417" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="22"/>
@@ -10036,7 +10038,7 @@
       <c r="P417" s="2"/>
       <c r="Q417" s="2"/>
     </row>
-    <row r="418" spans="1:17" ht="13">
+    <row r="418" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="22"/>
@@ -10055,7 +10057,7 @@
       <c r="P418" s="2"/>
       <c r="Q418" s="2"/>
     </row>
-    <row r="419" spans="1:17" ht="13">
+    <row r="419" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="22"/>
@@ -10074,7 +10076,7 @@
       <c r="P419" s="2"/>
       <c r="Q419" s="2"/>
     </row>
-    <row r="420" spans="1:17" ht="13">
+    <row r="420" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="22"/>
@@ -10093,7 +10095,7 @@
       <c r="P420" s="2"/>
       <c r="Q420" s="2"/>
     </row>
-    <row r="421" spans="1:17" ht="13">
+    <row r="421" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="22"/>
@@ -10112,7 +10114,7 @@
       <c r="P421" s="2"/>
       <c r="Q421" s="2"/>
     </row>
-    <row r="422" spans="1:17" ht="13">
+    <row r="422" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="22"/>
@@ -10131,7 +10133,7 @@
       <c r="P422" s="2"/>
       <c r="Q422" s="2"/>
     </row>
-    <row r="423" spans="1:17" ht="13">
+    <row r="423" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="22"/>
@@ -10150,7 +10152,7 @@
       <c r="P423" s="2"/>
       <c r="Q423" s="2"/>
     </row>
-    <row r="424" spans="1:17" ht="13">
+    <row r="424" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="22"/>
@@ -10169,7 +10171,7 @@
       <c r="P424" s="2"/>
       <c r="Q424" s="2"/>
     </row>
-    <row r="425" spans="1:17" ht="13">
+    <row r="425" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="22"/>
@@ -10188,7 +10190,7 @@
       <c r="P425" s="2"/>
       <c r="Q425" s="2"/>
     </row>
-    <row r="426" spans="1:17" ht="13">
+    <row r="426" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="22"/>
@@ -10207,7 +10209,7 @@
       <c r="P426" s="2"/>
       <c r="Q426" s="2"/>
     </row>
-    <row r="427" spans="1:17" ht="13">
+    <row r="427" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="22"/>
@@ -10226,7 +10228,7 @@
       <c r="P427" s="2"/>
       <c r="Q427" s="2"/>
     </row>
-    <row r="428" spans="1:17" ht="13">
+    <row r="428" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="22"/>
@@ -10245,7 +10247,7 @@
       <c r="P428" s="2"/>
       <c r="Q428" s="2"/>
     </row>
-    <row r="429" spans="1:17" ht="13">
+    <row r="429" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="22"/>
@@ -10264,7 +10266,7 @@
       <c r="P429" s="2"/>
       <c r="Q429" s="2"/>
     </row>
-    <row r="430" spans="1:17" ht="13">
+    <row r="430" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="22"/>
@@ -10283,7 +10285,7 @@
       <c r="P430" s="2"/>
       <c r="Q430" s="2"/>
     </row>
-    <row r="431" spans="1:17" ht="13">
+    <row r="431" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="22"/>
@@ -10302,7 +10304,7 @@
       <c r="P431" s="2"/>
       <c r="Q431" s="2"/>
     </row>
-    <row r="432" spans="1:17" ht="13">
+    <row r="432" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="22"/>
@@ -10321,7 +10323,7 @@
       <c r="P432" s="2"/>
       <c r="Q432" s="2"/>
     </row>
-    <row r="433" spans="1:17" ht="13">
+    <row r="433" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="22"/>
@@ -10340,7 +10342,7 @@
       <c r="P433" s="2"/>
       <c r="Q433" s="2"/>
     </row>
-    <row r="434" spans="1:17" ht="13">
+    <row r="434" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="22"/>
@@ -10359,7 +10361,7 @@
       <c r="P434" s="2"/>
       <c r="Q434" s="2"/>
     </row>
-    <row r="435" spans="1:17" ht="13">
+    <row r="435" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="22"/>
@@ -10378,7 +10380,7 @@
       <c r="P435" s="2"/>
       <c r="Q435" s="2"/>
     </row>
-    <row r="436" spans="1:17" ht="13">
+    <row r="436" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="22"/>
@@ -10397,7 +10399,7 @@
       <c r="P436" s="2"/>
       <c r="Q436" s="2"/>
     </row>
-    <row r="437" spans="1:17" ht="13">
+    <row r="437" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="22"/>
@@ -10416,7 +10418,7 @@
       <c r="P437" s="2"/>
       <c r="Q437" s="2"/>
     </row>
-    <row r="438" spans="1:17" ht="13">
+    <row r="438" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="22"/>
@@ -10435,7 +10437,7 @@
       <c r="P438" s="2"/>
       <c r="Q438" s="2"/>
     </row>
-    <row r="439" spans="1:17" ht="13">
+    <row r="439" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="22"/>
@@ -10454,7 +10456,7 @@
       <c r="P439" s="2"/>
       <c r="Q439" s="2"/>
     </row>
-    <row r="440" spans="1:17" ht="13">
+    <row r="440" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="22"/>
@@ -10473,7 +10475,7 @@
       <c r="P440" s="2"/>
       <c r="Q440" s="2"/>
     </row>
-    <row r="441" spans="1:17" ht="13">
+    <row r="441" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="22"/>
@@ -10492,7 +10494,7 @@
       <c r="P441" s="2"/>
       <c r="Q441" s="2"/>
     </row>
-    <row r="442" spans="1:17" ht="13">
+    <row r="442" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="22"/>
@@ -10511,7 +10513,7 @@
       <c r="P442" s="2"/>
       <c r="Q442" s="2"/>
     </row>
-    <row r="443" spans="1:17" ht="13">
+    <row r="443" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="22"/>
@@ -10530,7 +10532,7 @@
       <c r="P443" s="2"/>
       <c r="Q443" s="2"/>
     </row>
-    <row r="444" spans="1:17" ht="13">
+    <row r="444" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="22"/>
@@ -10549,7 +10551,7 @@
       <c r="P444" s="2"/>
       <c r="Q444" s="2"/>
     </row>
-    <row r="445" spans="1:17" ht="13">
+    <row r="445" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="22"/>
@@ -10568,7 +10570,7 @@
       <c r="P445" s="2"/>
       <c r="Q445" s="2"/>
     </row>
-    <row r="446" spans="1:17" ht="13">
+    <row r="446" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="22"/>
@@ -10587,7 +10589,7 @@
       <c r="P446" s="2"/>
       <c r="Q446" s="2"/>
     </row>
-    <row r="447" spans="1:17" ht="13">
+    <row r="447" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="22"/>
@@ -10606,7 +10608,7 @@
       <c r="P447" s="2"/>
       <c r="Q447" s="2"/>
     </row>
-    <row r="448" spans="1:17" ht="13">
+    <row r="448" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="22"/>
@@ -10625,7 +10627,7 @@
       <c r="P448" s="2"/>
       <c r="Q448" s="2"/>
     </row>
-    <row r="449" spans="1:17" ht="13">
+    <row r="449" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="22"/>
@@ -10644,7 +10646,7 @@
       <c r="P449" s="2"/>
       <c r="Q449" s="2"/>
     </row>
-    <row r="450" spans="1:17" ht="13">
+    <row r="450" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="22"/>
@@ -10663,7 +10665,7 @@
       <c r="P450" s="2"/>
       <c r="Q450" s="2"/>
     </row>
-    <row r="451" spans="1:17" ht="13">
+    <row r="451" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="22"/>
@@ -10682,7 +10684,7 @@
       <c r="P451" s="2"/>
       <c r="Q451" s="2"/>
     </row>
-    <row r="452" spans="1:17" ht="13">
+    <row r="452" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="22"/>
@@ -10701,7 +10703,7 @@
       <c r="P452" s="2"/>
       <c r="Q452" s="2"/>
     </row>
-    <row r="453" spans="1:17" ht="13">
+    <row r="453" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="22"/>
@@ -10720,7 +10722,7 @@
       <c r="P453" s="2"/>
       <c r="Q453" s="2"/>
     </row>
-    <row r="454" spans="1:17" ht="13">
+    <row r="454" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="22"/>
@@ -10739,7 +10741,7 @@
       <c r="P454" s="2"/>
       <c r="Q454" s="2"/>
     </row>
-    <row r="455" spans="1:17" ht="13">
+    <row r="455" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="22"/>
@@ -10758,7 +10760,7 @@
       <c r="P455" s="2"/>
       <c r="Q455" s="2"/>
     </row>
-    <row r="456" spans="1:17" ht="13">
+    <row r="456" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="22"/>
@@ -10777,7 +10779,7 @@
       <c r="P456" s="2"/>
       <c r="Q456" s="2"/>
     </row>
-    <row r="457" spans="1:17" ht="13">
+    <row r="457" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="22"/>
@@ -10796,7 +10798,7 @@
       <c r="P457" s="2"/>
       <c r="Q457" s="2"/>
     </row>
-    <row r="458" spans="1:17" ht="13">
+    <row r="458" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="22"/>
@@ -10815,7 +10817,7 @@
       <c r="P458" s="2"/>
       <c r="Q458" s="2"/>
     </row>
-    <row r="459" spans="1:17" ht="13">
+    <row r="459" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="22"/>
@@ -10834,7 +10836,7 @@
       <c r="P459" s="2"/>
       <c r="Q459" s="2"/>
     </row>
-    <row r="460" spans="1:17" ht="13">
+    <row r="460" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="22"/>
@@ -10853,7 +10855,7 @@
       <c r="P460" s="2"/>
       <c r="Q460" s="2"/>
     </row>
-    <row r="461" spans="1:17" ht="13">
+    <row r="461" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="22"/>
@@ -10872,7 +10874,7 @@
       <c r="P461" s="2"/>
       <c r="Q461" s="2"/>
     </row>
-    <row r="462" spans="1:17" ht="13">
+    <row r="462" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="22"/>
@@ -10891,7 +10893,7 @@
       <c r="P462" s="2"/>
       <c r="Q462" s="2"/>
     </row>
-    <row r="463" spans="1:17" ht="13">
+    <row r="463" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="22"/>
@@ -10910,7 +10912,7 @@
       <c r="P463" s="2"/>
       <c r="Q463" s="2"/>
     </row>
-    <row r="464" spans="1:17" ht="13">
+    <row r="464" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="22"/>
@@ -10929,7 +10931,7 @@
       <c r="P464" s="2"/>
       <c r="Q464" s="2"/>
     </row>
-    <row r="465" spans="1:17" ht="13">
+    <row r="465" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="22"/>
@@ -10948,7 +10950,7 @@
       <c r="P465" s="2"/>
       <c r="Q465" s="2"/>
     </row>
-    <row r="466" spans="1:17" ht="13">
+    <row r="466" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="22"/>
@@ -10967,7 +10969,7 @@
       <c r="P466" s="2"/>
       <c r="Q466" s="2"/>
     </row>
-    <row r="467" spans="1:17" ht="13">
+    <row r="467" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="22"/>
@@ -10986,7 +10988,7 @@
       <c r="P467" s="2"/>
       <c r="Q467" s="2"/>
     </row>
-    <row r="468" spans="1:17" ht="13">
+    <row r="468" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="22"/>
@@ -11005,7 +11007,7 @@
       <c r="P468" s="2"/>
       <c r="Q468" s="2"/>
     </row>
-    <row r="469" spans="1:17" ht="13">
+    <row r="469" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="22"/>
@@ -11024,7 +11026,7 @@
       <c r="P469" s="2"/>
       <c r="Q469" s="2"/>
     </row>
-    <row r="470" spans="1:17" ht="13">
+    <row r="470" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="22"/>
@@ -11043,7 +11045,7 @@
       <c r="P470" s="2"/>
       <c r="Q470" s="2"/>
     </row>
-    <row r="471" spans="1:17" ht="13">
+    <row r="471" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="22"/>
@@ -11062,7 +11064,7 @@
       <c r="P471" s="2"/>
       <c r="Q471" s="2"/>
     </row>
-    <row r="472" spans="1:17" ht="13">
+    <row r="472" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="22"/>
@@ -11081,7 +11083,7 @@
       <c r="P472" s="2"/>
       <c r="Q472" s="2"/>
     </row>
-    <row r="473" spans="1:17" ht="13">
+    <row r="473" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="22"/>
@@ -11100,7 +11102,7 @@
       <c r="P473" s="2"/>
       <c r="Q473" s="2"/>
     </row>
-    <row r="474" spans="1:17" ht="13">
+    <row r="474" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="22"/>
@@ -11119,7 +11121,7 @@
       <c r="P474" s="2"/>
       <c r="Q474" s="2"/>
     </row>
-    <row r="475" spans="1:17" ht="13">
+    <row r="475" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="22"/>
@@ -11138,7 +11140,7 @@
       <c r="P475" s="2"/>
       <c r="Q475" s="2"/>
     </row>
-    <row r="476" spans="1:17" ht="13">
+    <row r="476" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="22"/>
@@ -11157,7 +11159,7 @@
       <c r="P476" s="2"/>
       <c r="Q476" s="2"/>
     </row>
-    <row r="477" spans="1:17" ht="13">
+    <row r="477" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="22"/>
@@ -11176,7 +11178,7 @@
       <c r="P477" s="2"/>
       <c r="Q477" s="2"/>
     </row>
-    <row r="478" spans="1:17" ht="13">
+    <row r="478" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="22"/>
@@ -11195,7 +11197,7 @@
       <c r="P478" s="2"/>
       <c r="Q478" s="2"/>
     </row>
-    <row r="479" spans="1:17" ht="13">
+    <row r="479" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="22"/>
@@ -11214,7 +11216,7 @@
       <c r="P479" s="2"/>
       <c r="Q479" s="2"/>
     </row>
-    <row r="480" spans="1:17" ht="13">
+    <row r="480" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="22"/>
@@ -11233,7 +11235,7 @@
       <c r="P480" s="2"/>
       <c r="Q480" s="2"/>
     </row>
-    <row r="481" spans="1:17" ht="13">
+    <row r="481" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="22"/>
@@ -11252,7 +11254,7 @@
       <c r="P481" s="2"/>
       <c r="Q481" s="2"/>
     </row>
-    <row r="482" spans="1:17" ht="13">
+    <row r="482" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="22"/>
@@ -11271,7 +11273,7 @@
       <c r="P482" s="2"/>
       <c r="Q482" s="2"/>
     </row>
-    <row r="483" spans="1:17" ht="13">
+    <row r="483" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="22"/>
@@ -11290,7 +11292,7 @@
       <c r="P483" s="2"/>
       <c r="Q483" s="2"/>
     </row>
-    <row r="484" spans="1:17" ht="13">
+    <row r="484" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="22"/>
@@ -11309,7 +11311,7 @@
       <c r="P484" s="2"/>
       <c r="Q484" s="2"/>
     </row>
-    <row r="485" spans="1:17" ht="13">
+    <row r="485" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="22"/>
@@ -11328,7 +11330,7 @@
       <c r="P485" s="2"/>
       <c r="Q485" s="2"/>
     </row>
-    <row r="486" spans="1:17" ht="13">
+    <row r="486" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="22"/>
@@ -11347,7 +11349,7 @@
       <c r="P486" s="2"/>
       <c r="Q486" s="2"/>
     </row>
-    <row r="487" spans="1:17" ht="13">
+    <row r="487" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="22"/>
@@ -11366,7 +11368,7 @@
       <c r="P487" s="2"/>
       <c r="Q487" s="2"/>
     </row>
-    <row r="488" spans="1:17" ht="13">
+    <row r="488" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="22"/>
@@ -11385,7 +11387,7 @@
       <c r="P488" s="2"/>
       <c r="Q488" s="2"/>
     </row>
-    <row r="489" spans="1:17" ht="13">
+    <row r="489" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="22"/>
@@ -11404,7 +11406,7 @@
       <c r="P489" s="2"/>
       <c r="Q489" s="2"/>
     </row>
-    <row r="490" spans="1:17" ht="13">
+    <row r="490" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="22"/>
@@ -11423,7 +11425,7 @@
       <c r="P490" s="2"/>
       <c r="Q490" s="2"/>
     </row>
-    <row r="491" spans="1:17" ht="13">
+    <row r="491" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="22"/>
@@ -11442,7 +11444,7 @@
       <c r="P491" s="2"/>
       <c r="Q491" s="2"/>
     </row>
-    <row r="492" spans="1:17" ht="13">
+    <row r="492" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="22"/>
@@ -11461,7 +11463,7 @@
       <c r="P492" s="2"/>
       <c r="Q492" s="2"/>
     </row>
-    <row r="493" spans="1:17" ht="13">
+    <row r="493" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="22"/>
@@ -11480,7 +11482,7 @@
       <c r="P493" s="2"/>
       <c r="Q493" s="2"/>
     </row>
-    <row r="494" spans="1:17" ht="13">
+    <row r="494" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="22"/>
@@ -11499,7 +11501,7 @@
       <c r="P494" s="2"/>
       <c r="Q494" s="2"/>
     </row>
-    <row r="495" spans="1:17" ht="13">
+    <row r="495" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="22"/>
@@ -11518,7 +11520,7 @@
       <c r="P495" s="2"/>
       <c r="Q495" s="2"/>
     </row>
-    <row r="496" spans="1:17" ht="13">
+    <row r="496" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="22"/>
@@ -11537,7 +11539,7 @@
       <c r="P496" s="2"/>
       <c r="Q496" s="2"/>
     </row>
-    <row r="497" spans="1:17" ht="13">
+    <row r="497" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="22"/>
@@ -11556,7 +11558,7 @@
       <c r="P497" s="2"/>
       <c r="Q497" s="2"/>
     </row>
-    <row r="498" spans="1:17" ht="13">
+    <row r="498" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="22"/>
@@ -11575,7 +11577,7 @@
       <c r="P498" s="2"/>
       <c r="Q498" s="2"/>
     </row>
-    <row r="499" spans="1:17" ht="13">
+    <row r="499" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="22"/>
@@ -11594,7 +11596,7 @@
       <c r="P499" s="2"/>
       <c r="Q499" s="2"/>
     </row>
-    <row r="500" spans="1:17" ht="13">
+    <row r="500" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="22"/>
@@ -11613,7 +11615,7 @@
       <c r="P500" s="2"/>
       <c r="Q500" s="2"/>
     </row>
-    <row r="501" spans="1:17" ht="13">
+    <row r="501" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="22"/>
@@ -11632,7 +11634,7 @@
       <c r="P501" s="2"/>
       <c r="Q501" s="2"/>
     </row>
-    <row r="502" spans="1:17" ht="13">
+    <row r="502" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="22"/>
@@ -11651,7 +11653,7 @@
       <c r="P502" s="2"/>
       <c r="Q502" s="2"/>
     </row>
-    <row r="503" spans="1:17" ht="13">
+    <row r="503" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="22"/>
@@ -11670,7 +11672,7 @@
       <c r="P503" s="2"/>
       <c r="Q503" s="2"/>
     </row>
-    <row r="504" spans="1:17" ht="13">
+    <row r="504" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="22"/>
@@ -11689,7 +11691,7 @@
       <c r="P504" s="2"/>
       <c r="Q504" s="2"/>
     </row>
-    <row r="505" spans="1:17" ht="13">
+    <row r="505" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="22"/>
@@ -11708,7 +11710,7 @@
       <c r="P505" s="2"/>
       <c r="Q505" s="2"/>
     </row>
-    <row r="506" spans="1:17" ht="13">
+    <row r="506" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="22"/>
@@ -11727,7 +11729,7 @@
       <c r="P506" s="2"/>
       <c r="Q506" s="2"/>
     </row>
-    <row r="507" spans="1:17" ht="13">
+    <row r="507" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="22"/>
@@ -11746,7 +11748,7 @@
       <c r="P507" s="2"/>
       <c r="Q507" s="2"/>
     </row>
-    <row r="508" spans="1:17" ht="13">
+    <row r="508" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="22"/>
@@ -11765,7 +11767,7 @@
       <c r="P508" s="2"/>
       <c r="Q508" s="2"/>
     </row>
-    <row r="509" spans="1:17" ht="13">
+    <row r="509" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="22"/>
@@ -11784,7 +11786,7 @@
       <c r="P509" s="2"/>
       <c r="Q509" s="2"/>
     </row>
-    <row r="510" spans="1:17" ht="13">
+    <row r="510" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="22"/>
@@ -11803,7 +11805,7 @@
       <c r="P510" s="2"/>
       <c r="Q510" s="2"/>
     </row>
-    <row r="511" spans="1:17" ht="13">
+    <row r="511" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="22"/>
@@ -11822,7 +11824,7 @@
       <c r="P511" s="2"/>
       <c r="Q511" s="2"/>
     </row>
-    <row r="512" spans="1:17" ht="13">
+    <row r="512" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="22"/>
@@ -11841,7 +11843,7 @@
       <c r="P512" s="2"/>
       <c r="Q512" s="2"/>
     </row>
-    <row r="513" spans="1:17" ht="13">
+    <row r="513" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="22"/>
@@ -11860,7 +11862,7 @@
       <c r="P513" s="2"/>
       <c r="Q513" s="2"/>
     </row>
-    <row r="514" spans="1:17" ht="13">
+    <row r="514" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="22"/>
@@ -11879,7 +11881,7 @@
       <c r="P514" s="2"/>
       <c r="Q514" s="2"/>
     </row>
-    <row r="515" spans="1:17" ht="13">
+    <row r="515" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="22"/>
@@ -11898,7 +11900,7 @@
       <c r="P515" s="2"/>
       <c r="Q515" s="2"/>
     </row>
-    <row r="516" spans="1:17" ht="13">
+    <row r="516" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="22"/>
@@ -11917,7 +11919,7 @@
       <c r="P516" s="2"/>
       <c r="Q516" s="2"/>
     </row>
-    <row r="517" spans="1:17" ht="13">
+    <row r="517" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="22"/>
@@ -11936,7 +11938,7 @@
       <c r="P517" s="2"/>
       <c r="Q517" s="2"/>
     </row>
-    <row r="518" spans="1:17" ht="13">
+    <row r="518" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="22"/>
@@ -11955,7 +11957,7 @@
       <c r="P518" s="2"/>
       <c r="Q518" s="2"/>
     </row>
-    <row r="519" spans="1:17" ht="13">
+    <row r="519" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="22"/>
@@ -11974,7 +11976,7 @@
       <c r="P519" s="2"/>
       <c r="Q519" s="2"/>
     </row>
-    <row r="520" spans="1:17" ht="13">
+    <row r="520" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="22"/>
@@ -11993,7 +11995,7 @@
       <c r="P520" s="2"/>
       <c r="Q520" s="2"/>
     </row>
-    <row r="521" spans="1:17" ht="13">
+    <row r="521" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="22"/>
@@ -12012,7 +12014,7 @@
       <c r="P521" s="2"/>
       <c r="Q521" s="2"/>
     </row>
-    <row r="522" spans="1:17" ht="13">
+    <row r="522" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="22"/>
@@ -12031,7 +12033,7 @@
       <c r="P522" s="2"/>
       <c r="Q522" s="2"/>
     </row>
-    <row r="523" spans="1:17" ht="13">
+    <row r="523" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="22"/>
@@ -12050,7 +12052,7 @@
       <c r="P523" s="2"/>
       <c r="Q523" s="2"/>
     </row>
-    <row r="524" spans="1:17" ht="13">
+    <row r="524" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="22"/>
@@ -12069,7 +12071,7 @@
       <c r="P524" s="2"/>
       <c r="Q524" s="2"/>
     </row>
-    <row r="525" spans="1:17" ht="13">
+    <row r="525" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="22"/>
@@ -12088,7 +12090,7 @@
       <c r="P525" s="2"/>
       <c r="Q525" s="2"/>
     </row>
-    <row r="526" spans="1:17" ht="13">
+    <row r="526" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="22"/>
@@ -12107,7 +12109,7 @@
       <c r="P526" s="2"/>
       <c r="Q526" s="2"/>
     </row>
-    <row r="527" spans="1:17" ht="13">
+    <row r="527" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="22"/>
@@ -12126,7 +12128,7 @@
       <c r="P527" s="2"/>
       <c r="Q527" s="2"/>
     </row>
-    <row r="528" spans="1:17" ht="13">
+    <row r="528" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="22"/>
@@ -12145,7 +12147,7 @@
       <c r="P528" s="2"/>
       <c r="Q528" s="2"/>
     </row>
-    <row r="529" spans="1:17" ht="13">
+    <row r="529" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="22"/>
@@ -12164,7 +12166,7 @@
       <c r="P529" s="2"/>
       <c r="Q529" s="2"/>
     </row>
-    <row r="530" spans="1:17" ht="13">
+    <row r="530" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="22"/>
@@ -12183,7 +12185,7 @@
       <c r="P530" s="2"/>
       <c r="Q530" s="2"/>
     </row>
-    <row r="531" spans="1:17" ht="13">
+    <row r="531" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="22"/>
@@ -12202,7 +12204,7 @@
       <c r="P531" s="2"/>
       <c r="Q531" s="2"/>
     </row>
-    <row r="532" spans="1:17" ht="13">
+    <row r="532" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="22"/>
@@ -12221,7 +12223,7 @@
       <c r="P532" s="2"/>
       <c r="Q532" s="2"/>
     </row>
-    <row r="533" spans="1:17" ht="13">
+    <row r="533" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="22"/>
@@ -12240,7 +12242,7 @@
       <c r="P533" s="2"/>
       <c r="Q533" s="2"/>
     </row>
-    <row r="534" spans="1:17" ht="13">
+    <row r="534" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="22"/>
@@ -12259,7 +12261,7 @@
       <c r="P534" s="2"/>
       <c r="Q534" s="2"/>
     </row>
-    <row r="535" spans="1:17" ht="13">
+    <row r="535" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="22"/>
@@ -12278,7 +12280,7 @@
       <c r="P535" s="2"/>
       <c r="Q535" s="2"/>
     </row>
-    <row r="536" spans="1:17" ht="13">
+    <row r="536" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="22"/>
@@ -12297,7 +12299,7 @@
       <c r="P536" s="2"/>
       <c r="Q536" s="2"/>
     </row>
-    <row r="537" spans="1:17" ht="13">
+    <row r="537" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="22"/>
@@ -12316,7 +12318,7 @@
       <c r="P537" s="2"/>
       <c r="Q537" s="2"/>
     </row>
-    <row r="538" spans="1:17" ht="13">
+    <row r="538" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="22"/>
@@ -12335,7 +12337,7 @@
       <c r="P538" s="2"/>
       <c r="Q538" s="2"/>
     </row>
-    <row r="539" spans="1:17" ht="13">
+    <row r="539" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="22"/>
@@ -12354,7 +12356,7 @@
       <c r="P539" s="2"/>
       <c r="Q539" s="2"/>
     </row>
-    <row r="540" spans="1:17" ht="13">
+    <row r="540" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="22"/>
@@ -12373,7 +12375,7 @@
       <c r="P540" s="2"/>
       <c r="Q540" s="2"/>
     </row>
-    <row r="541" spans="1:17" ht="13">
+    <row r="541" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="22"/>
@@ -12392,7 +12394,7 @@
       <c r="P541" s="2"/>
       <c r="Q541" s="2"/>
     </row>
-    <row r="542" spans="1:17" ht="13">
+    <row r="542" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="22"/>
@@ -12411,7 +12413,7 @@
       <c r="P542" s="2"/>
       <c r="Q542" s="2"/>
     </row>
-    <row r="543" spans="1:17" ht="13">
+    <row r="543" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="22"/>
@@ -12430,7 +12432,7 @@
       <c r="P543" s="2"/>
       <c r="Q543" s="2"/>
     </row>
-    <row r="544" spans="1:17" ht="13">
+    <row r="544" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="22"/>
@@ -12449,7 +12451,7 @@
       <c r="P544" s="2"/>
       <c r="Q544" s="2"/>
     </row>
-    <row r="545" spans="1:17" ht="13">
+    <row r="545" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="22"/>
@@ -12468,7 +12470,7 @@
       <c r="P545" s="2"/>
       <c r="Q545" s="2"/>
     </row>
-    <row r="546" spans="1:17" ht="13">
+    <row r="546" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="22"/>
@@ -12487,7 +12489,7 @@
       <c r="P546" s="2"/>
       <c r="Q546" s="2"/>
     </row>
-    <row r="547" spans="1:17" ht="13">
+    <row r="547" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="22"/>
@@ -12506,7 +12508,7 @@
       <c r="P547" s="2"/>
       <c r="Q547" s="2"/>
     </row>
-    <row r="548" spans="1:17" ht="13">
+    <row r="548" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="22"/>
@@ -12525,7 +12527,7 @@
       <c r="P548" s="2"/>
       <c r="Q548" s="2"/>
     </row>
-    <row r="549" spans="1:17" ht="13">
+    <row r="549" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="22"/>
@@ -12544,7 +12546,7 @@
       <c r="P549" s="2"/>
       <c r="Q549" s="2"/>
     </row>
-    <row r="550" spans="1:17" ht="13">
+    <row r="550" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="22"/>
@@ -12563,7 +12565,7 @@
       <c r="P550" s="2"/>
       <c r="Q550" s="2"/>
     </row>
-    <row r="551" spans="1:17" ht="13">
+    <row r="551" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="22"/>
@@ -12582,7 +12584,7 @@
       <c r="P551" s="2"/>
       <c r="Q551" s="2"/>
     </row>
-    <row r="552" spans="1:17" ht="13">
+    <row r="552" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="22"/>
@@ -12601,7 +12603,7 @@
       <c r="P552" s="2"/>
       <c r="Q552" s="2"/>
     </row>
-    <row r="553" spans="1:17" ht="13">
+    <row r="553" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="22"/>
@@ -12620,7 +12622,7 @@
       <c r="P553" s="2"/>
       <c r="Q553" s="2"/>
     </row>
-    <row r="554" spans="1:17" ht="13">
+    <row r="554" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="22"/>
@@ -12639,7 +12641,7 @@
       <c r="P554" s="2"/>
       <c r="Q554" s="2"/>
     </row>
-    <row r="555" spans="1:17" ht="13">
+    <row r="555" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="22"/>
@@ -12658,7 +12660,7 @@
       <c r="P555" s="2"/>
       <c r="Q555" s="2"/>
     </row>
-    <row r="556" spans="1:17" ht="13">
+    <row r="556" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="22"/>
@@ -12677,7 +12679,7 @@
       <c r="P556" s="2"/>
       <c r="Q556" s="2"/>
     </row>
-    <row r="557" spans="1:17" ht="13">
+    <row r="557" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="22"/>
@@ -12696,7 +12698,7 @@
       <c r="P557" s="2"/>
       <c r="Q557" s="2"/>
     </row>
-    <row r="558" spans="1:17" ht="13">
+    <row r="558" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="22"/>
@@ -12715,7 +12717,7 @@
       <c r="P558" s="2"/>
       <c r="Q558" s="2"/>
     </row>
-    <row r="559" spans="1:17" ht="13">
+    <row r="559" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="22"/>
@@ -12734,7 +12736,7 @@
       <c r="P559" s="2"/>
       <c r="Q559" s="2"/>
     </row>
-    <row r="560" spans="1:17" ht="13">
+    <row r="560" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="22"/>
@@ -12753,7 +12755,7 @@
       <c r="P560" s="2"/>
       <c r="Q560" s="2"/>
     </row>
-    <row r="561" spans="1:17" ht="13">
+    <row r="561" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="22"/>
@@ -12772,7 +12774,7 @@
       <c r="P561" s="2"/>
       <c r="Q561" s="2"/>
     </row>
-    <row r="562" spans="1:17" ht="13">
+    <row r="562" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="22"/>
@@ -12791,7 +12793,7 @@
       <c r="P562" s="2"/>
       <c r="Q562" s="2"/>
     </row>
-    <row r="563" spans="1:17" ht="13">
+    <row r="563" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="22"/>
@@ -12810,7 +12812,7 @@
       <c r="P563" s="2"/>
       <c r="Q563" s="2"/>
     </row>
-    <row r="564" spans="1:17" ht="13">
+    <row r="564" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="22"/>
@@ -12829,7 +12831,7 @@
       <c r="P564" s="2"/>
       <c r="Q564" s="2"/>
     </row>
-    <row r="565" spans="1:17" ht="13">
+    <row r="565" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="22"/>
@@ -12848,7 +12850,7 @@
       <c r="P565" s="2"/>
       <c r="Q565" s="2"/>
     </row>
-    <row r="566" spans="1:17" ht="13">
+    <row r="566" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="22"/>
@@ -12867,7 +12869,7 @@
       <c r="P566" s="2"/>
       <c r="Q566" s="2"/>
     </row>
-    <row r="567" spans="1:17" ht="13">
+    <row r="567" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="22"/>
@@ -12886,7 +12888,7 @@
       <c r="P567" s="2"/>
       <c r="Q567" s="2"/>
     </row>
-    <row r="568" spans="1:17" ht="13">
+    <row r="568" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="22"/>
@@ -12905,7 +12907,7 @@
       <c r="P568" s="2"/>
       <c r="Q568" s="2"/>
     </row>
-    <row r="569" spans="1:17" ht="13">
+    <row r="569" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="22"/>
@@ -12924,7 +12926,7 @@
       <c r="P569" s="2"/>
       <c r="Q569" s="2"/>
     </row>
-    <row r="570" spans="1:17" ht="13">
+    <row r="570" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="22"/>
@@ -12943,7 +12945,7 @@
       <c r="P570" s="2"/>
       <c r="Q570" s="2"/>
     </row>
-    <row r="571" spans="1:17" ht="13">
+    <row r="571" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="22"/>
@@ -12962,7 +12964,7 @@
       <c r="P571" s="2"/>
       <c r="Q571" s="2"/>
     </row>
-    <row r="572" spans="1:17" ht="13">
+    <row r="572" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="22"/>
@@ -12981,7 +12983,7 @@
       <c r="P572" s="2"/>
       <c r="Q572" s="2"/>
     </row>
-    <row r="573" spans="1:17" ht="13">
+    <row r="573" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="22"/>
@@ -13000,7 +13002,7 @@
       <c r="P573" s="2"/>
       <c r="Q573" s="2"/>
     </row>
-    <row r="574" spans="1:17" ht="13">
+    <row r="574" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="22"/>
@@ -13019,7 +13021,7 @@
       <c r="P574" s="2"/>
       <c r="Q574" s="2"/>
     </row>
-    <row r="575" spans="1:17" ht="13">
+    <row r="575" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="22"/>
@@ -13038,7 +13040,7 @@
       <c r="P575" s="2"/>
       <c r="Q575" s="2"/>
     </row>
-    <row r="576" spans="1:17" ht="13">
+    <row r="576" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="22"/>
@@ -13057,7 +13059,7 @@
       <c r="P576" s="2"/>
       <c r="Q576" s="2"/>
     </row>
-    <row r="577" spans="1:17" ht="13">
+    <row r="577" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="22"/>
@@ -13076,7 +13078,7 @@
       <c r="P577" s="2"/>
       <c r="Q577" s="2"/>
     </row>
-    <row r="578" spans="1:17" ht="13">
+    <row r="578" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="22"/>
@@ -13095,7 +13097,7 @@
       <c r="P578" s="2"/>
       <c r="Q578" s="2"/>
     </row>
-    <row r="579" spans="1:17" ht="13">
+    <row r="579" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="22"/>
@@ -13114,7 +13116,7 @@
       <c r="P579" s="2"/>
       <c r="Q579" s="2"/>
     </row>
-    <row r="580" spans="1:17" ht="13">
+    <row r="580" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="22"/>
@@ -13133,7 +13135,7 @@
       <c r="P580" s="2"/>
       <c r="Q580" s="2"/>
     </row>
-    <row r="581" spans="1:17" ht="13">
+    <row r="581" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="22"/>
@@ -13152,7 +13154,7 @@
       <c r="P581" s="2"/>
       <c r="Q581" s="2"/>
     </row>
-    <row r="582" spans="1:17" ht="13">
+    <row r="582" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="22"/>
@@ -13171,7 +13173,7 @@
       <c r="P582" s="2"/>
       <c r="Q582" s="2"/>
     </row>
-    <row r="583" spans="1:17" ht="13">
+    <row r="583" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="22"/>
@@ -13190,7 +13192,7 @@
       <c r="P583" s="2"/>
       <c r="Q583" s="2"/>
     </row>
-    <row r="584" spans="1:17" ht="13">
+    <row r="584" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="22"/>
@@ -13209,7 +13211,7 @@
       <c r="P584" s="2"/>
       <c r="Q584" s="2"/>
     </row>
-    <row r="585" spans="1:17" ht="13">
+    <row r="585" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="22"/>
@@ -13228,7 +13230,7 @@
       <c r="P585" s="2"/>
       <c r="Q585" s="2"/>
     </row>
-    <row r="586" spans="1:17" ht="13">
+    <row r="586" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="22"/>
@@ -13247,7 +13249,7 @@
       <c r="P586" s="2"/>
       <c r="Q586" s="2"/>
     </row>
-    <row r="587" spans="1:17" ht="13">
+    <row r="587" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="22"/>
@@ -13266,7 +13268,7 @@
       <c r="P587" s="2"/>
       <c r="Q587" s="2"/>
     </row>
-    <row r="588" spans="1:17" ht="13">
+    <row r="588" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="22"/>
@@ -13285,7 +13287,7 @@
       <c r="P588" s="2"/>
       <c r="Q588" s="2"/>
     </row>
-    <row r="589" spans="1:17" ht="13">
+    <row r="589" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="22"/>
@@ -13304,7 +13306,7 @@
       <c r="P589" s="2"/>
       <c r="Q589" s="2"/>
     </row>
-    <row r="590" spans="1:17" ht="13">
+    <row r="590" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="22"/>
@@ -13323,7 +13325,7 @@
       <c r="P590" s="2"/>
       <c r="Q590" s="2"/>
     </row>
-    <row r="591" spans="1:17" ht="13">
+    <row r="591" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="22"/>
@@ -13342,7 +13344,7 @@
       <c r="P591" s="2"/>
       <c r="Q591" s="2"/>
     </row>
-    <row r="592" spans="1:17" ht="13">
+    <row r="592" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="22"/>
@@ -13361,7 +13363,7 @@
       <c r="P592" s="2"/>
       <c r="Q592" s="2"/>
     </row>
-    <row r="593" spans="1:17" ht="13">
+    <row r="593" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="22"/>
@@ -13380,7 +13382,7 @@
       <c r="P593" s="2"/>
       <c r="Q593" s="2"/>
     </row>
-    <row r="594" spans="1:17" ht="13">
+    <row r="594" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="22"/>
@@ -13399,7 +13401,7 @@
       <c r="P594" s="2"/>
       <c r="Q594" s="2"/>
     </row>
-    <row r="595" spans="1:17" ht="13">
+    <row r="595" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="22"/>
@@ -13418,7 +13420,7 @@
       <c r="P595" s="2"/>
       <c r="Q595" s="2"/>
     </row>
-    <row r="596" spans="1:17" ht="13">
+    <row r="596" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="22"/>
@@ -13437,7 +13439,7 @@
       <c r="P596" s="2"/>
       <c r="Q596" s="2"/>
     </row>
-    <row r="597" spans="1:17" ht="13">
+    <row r="597" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="22"/>
@@ -13456,7 +13458,7 @@
       <c r="P597" s="2"/>
       <c r="Q597" s="2"/>
     </row>
-    <row r="598" spans="1:17" ht="13">
+    <row r="598" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="22"/>
@@ -13475,7 +13477,7 @@
       <c r="P598" s="2"/>
       <c r="Q598" s="2"/>
     </row>
-    <row r="599" spans="1:17" ht="13">
+    <row r="599" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="22"/>
@@ -13494,7 +13496,7 @@
       <c r="P599" s="2"/>
       <c r="Q599" s="2"/>
     </row>
-    <row r="600" spans="1:17" ht="13">
+    <row r="600" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="22"/>
@@ -13513,7 +13515,7 @@
       <c r="P600" s="2"/>
       <c r="Q600" s="2"/>
     </row>
-    <row r="601" spans="1:17" ht="13">
+    <row r="601" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="22"/>
@@ -13532,7 +13534,7 @@
       <c r="P601" s="2"/>
       <c r="Q601" s="2"/>
     </row>
-    <row r="602" spans="1:17" ht="13">
+    <row r="602" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="22"/>
@@ -13551,7 +13553,7 @@
       <c r="P602" s="2"/>
       <c r="Q602" s="2"/>
     </row>
-    <row r="603" spans="1:17" ht="13">
+    <row r="603" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="22"/>
@@ -13570,7 +13572,7 @@
       <c r="P603" s="2"/>
       <c r="Q603" s="2"/>
     </row>
-    <row r="604" spans="1:17" ht="13">
+    <row r="604" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="22"/>
@@ -13589,7 +13591,7 @@
       <c r="P604" s="2"/>
       <c r="Q604" s="2"/>
     </row>
-    <row r="605" spans="1:17" ht="13">
+    <row r="605" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="22"/>
@@ -13608,7 +13610,7 @@
       <c r="P605" s="2"/>
       <c r="Q605" s="2"/>
     </row>
-    <row r="606" spans="1:17" ht="13">
+    <row r="606" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="22"/>
@@ -13627,7 +13629,7 @@
       <c r="P606" s="2"/>
       <c r="Q606" s="2"/>
     </row>
-    <row r="607" spans="1:17" ht="13">
+    <row r="607" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="22"/>
@@ -13646,7 +13648,7 @@
       <c r="P607" s="2"/>
       <c r="Q607" s="2"/>
     </row>
-    <row r="608" spans="1:17" ht="13">
+    <row r="608" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="22"/>
@@ -13665,7 +13667,7 @@
       <c r="P608" s="2"/>
       <c r="Q608" s="2"/>
     </row>
-    <row r="609" spans="1:17" ht="13">
+    <row r="609" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="22"/>
@@ -13684,7 +13686,7 @@
       <c r="P609" s="2"/>
       <c r="Q609" s="2"/>
     </row>
-    <row r="610" spans="1:17" ht="13">
+    <row r="610" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="22"/>
@@ -13703,7 +13705,7 @@
       <c r="P610" s="2"/>
       <c r="Q610" s="2"/>
     </row>
-    <row r="611" spans="1:17" ht="13">
+    <row r="611" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="22"/>
@@ -13722,7 +13724,7 @@
       <c r="P611" s="2"/>
       <c r="Q611" s="2"/>
     </row>
-    <row r="612" spans="1:17" ht="13">
+    <row r="612" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="22"/>
@@ -13741,7 +13743,7 @@
       <c r="P612" s="2"/>
       <c r="Q612" s="2"/>
     </row>
-    <row r="613" spans="1:17" ht="13">
+    <row r="613" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="22"/>
@@ -13760,7 +13762,7 @@
       <c r="P613" s="2"/>
       <c r="Q613" s="2"/>
     </row>
-    <row r="614" spans="1:17" ht="13">
+    <row r="614" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="22"/>
@@ -13779,7 +13781,7 @@
       <c r="P614" s="2"/>
       <c r="Q614" s="2"/>
     </row>
-    <row r="615" spans="1:17" ht="13">
+    <row r="615" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="22"/>
@@ -13798,7 +13800,7 @@
       <c r="P615" s="2"/>
       <c r="Q615" s="2"/>
     </row>
-    <row r="616" spans="1:17" ht="13">
+    <row r="616" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="22"/>
@@ -13817,7 +13819,7 @@
       <c r="P616" s="2"/>
       <c r="Q616" s="2"/>
     </row>
-    <row r="617" spans="1:17" ht="13">
+    <row r="617" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="22"/>
@@ -13836,7 +13838,7 @@
       <c r="P617" s="2"/>
       <c r="Q617" s="2"/>
     </row>
-    <row r="618" spans="1:17" ht="13">
+    <row r="618" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="22"/>
@@ -13855,7 +13857,7 @@
       <c r="P618" s="2"/>
       <c r="Q618" s="2"/>
     </row>
-    <row r="619" spans="1:17" ht="13">
+    <row r="619" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="22"/>
@@ -13874,7 +13876,7 @@
       <c r="P619" s="2"/>
       <c r="Q619" s="2"/>
     </row>
-    <row r="620" spans="1:17" ht="13">
+    <row r="620" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="22"/>
@@ -13893,7 +13895,7 @@
       <c r="P620" s="2"/>
       <c r="Q620" s="2"/>
     </row>
-    <row r="621" spans="1:17" ht="13">
+    <row r="621" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="22"/>
@@ -13912,7 +13914,7 @@
       <c r="P621" s="2"/>
       <c r="Q621" s="2"/>
     </row>
-    <row r="622" spans="1:17" ht="13">
+    <row r="622" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="22"/>
@@ -13931,7 +13933,7 @@
       <c r="P622" s="2"/>
       <c r="Q622" s="2"/>
     </row>
-    <row r="623" spans="1:17" ht="13">
+    <row r="623" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="22"/>
@@ -13950,7 +13952,7 @@
       <c r="P623" s="2"/>
       <c r="Q623" s="2"/>
     </row>
-    <row r="624" spans="1:17" ht="13">
+    <row r="624" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="22"/>
@@ -13969,7 +13971,7 @@
       <c r="P624" s="2"/>
       <c r="Q624" s="2"/>
     </row>
-    <row r="625" spans="1:17" ht="13">
+    <row r="625" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="22"/>
@@ -13988,7 +13990,7 @@
       <c r="P625" s="2"/>
       <c r="Q625" s="2"/>
     </row>
-    <row r="626" spans="1:17" ht="13">
+    <row r="626" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="22"/>
@@ -14007,7 +14009,7 @@
       <c r="P626" s="2"/>
       <c r="Q626" s="2"/>
     </row>
-    <row r="627" spans="1:17" ht="13">
+    <row r="627" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="22"/>
@@ -14026,7 +14028,7 @@
       <c r="P627" s="2"/>
       <c r="Q627" s="2"/>
     </row>
-    <row r="628" spans="1:17" ht="13">
+    <row r="628" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="22"/>
@@ -14045,7 +14047,7 @@
       <c r="P628" s="2"/>
       <c r="Q628" s="2"/>
     </row>
-    <row r="629" spans="1:17" ht="13">
+    <row r="629" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="22"/>
@@ -14064,7 +14066,7 @@
       <c r="P629" s="2"/>
       <c r="Q629" s="2"/>
     </row>
-    <row r="630" spans="1:17" ht="13">
+    <row r="630" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="22"/>
@@ -14083,7 +14085,7 @@
       <c r="P630" s="2"/>
       <c r="Q630" s="2"/>
     </row>
-    <row r="631" spans="1:17" ht="13">
+    <row r="631" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="22"/>
@@ -14102,7 +14104,7 @@
       <c r="P631" s="2"/>
       <c r="Q631" s="2"/>
     </row>
-    <row r="632" spans="1:17" ht="13">
+    <row r="632" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="22"/>
@@ -14121,7 +14123,7 @@
       <c r="P632" s="2"/>
       <c r="Q632" s="2"/>
     </row>
-    <row r="633" spans="1:17" ht="13">
+    <row r="633" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="22"/>
@@ -14140,7 +14142,7 @@
       <c r="P633" s="2"/>
       <c r="Q633" s="2"/>
     </row>
-    <row r="634" spans="1:17" ht="13">
+    <row r="634" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="22"/>
@@ -14159,7 +14161,7 @@
       <c r="P634" s="2"/>
       <c r="Q634" s="2"/>
     </row>
-    <row r="635" spans="1:17" ht="13">
+    <row r="635" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="22"/>
@@ -14178,7 +14180,7 @@
       <c r="P635" s="2"/>
       <c r="Q635" s="2"/>
     </row>
-    <row r="636" spans="1:17" ht="13">
+    <row r="636" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="22"/>
@@ -14197,7 +14199,7 @@
       <c r="P636" s="2"/>
       <c r="Q636" s="2"/>
     </row>
-    <row r="637" spans="1:17" ht="13">
+    <row r="637" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="22"/>
@@ -14216,7 +14218,7 @@
       <c r="P637" s="2"/>
       <c r="Q637" s="2"/>
     </row>
-    <row r="638" spans="1:17" ht="13">
+    <row r="638" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="22"/>
@@ -14235,7 +14237,7 @@
       <c r="P638" s="2"/>
       <c r="Q638" s="2"/>
     </row>
-    <row r="639" spans="1:17" ht="13">
+    <row r="639" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="22"/>
@@ -14254,7 +14256,7 @@
       <c r="P639" s="2"/>
       <c r="Q639" s="2"/>
     </row>
-    <row r="640" spans="1:17" ht="13">
+    <row r="640" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="22"/>
@@ -14273,7 +14275,7 @@
       <c r="P640" s="2"/>
       <c r="Q640" s="2"/>
     </row>
-    <row r="641" spans="1:17" ht="13">
+    <row r="641" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="22"/>
@@ -14292,7 +14294,7 @@
       <c r="P641" s="2"/>
       <c r="Q641" s="2"/>
     </row>
-    <row r="642" spans="1:17" ht="13">
+    <row r="642" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="22"/>
@@ -14311,7 +14313,7 @@
       <c r="P642" s="2"/>
       <c r="Q642" s="2"/>
     </row>
-    <row r="643" spans="1:17" ht="13">
+    <row r="643" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="22"/>
@@ -14330,7 +14332,7 @@
       <c r="P643" s="2"/>
       <c r="Q643" s="2"/>
     </row>
-    <row r="644" spans="1:17" ht="13">
+    <row r="644" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="22"/>
@@ -14349,7 +14351,7 @@
       <c r="P644" s="2"/>
       <c r="Q644" s="2"/>
     </row>
-    <row r="645" spans="1:17" ht="13">
+    <row r="645" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="22"/>
@@ -14368,7 +14370,7 @@
       <c r="P645" s="2"/>
       <c r="Q645" s="2"/>
     </row>
-    <row r="646" spans="1:17" ht="13">
+    <row r="646" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="22"/>
@@ -14387,7 +14389,7 @@
       <c r="P646" s="2"/>
       <c r="Q646" s="2"/>
     </row>
-    <row r="647" spans="1:17" ht="13">
+    <row r="647" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="22"/>
@@ -14406,7 +14408,7 @@
       <c r="P647" s="2"/>
       <c r="Q647" s="2"/>
     </row>
-    <row r="648" spans="1:17" ht="13">
+    <row r="648" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="22"/>
@@ -14425,7 +14427,7 @@
       <c r="P648" s="2"/>
       <c r="Q648" s="2"/>
     </row>
-    <row r="649" spans="1:17" ht="13">
+    <row r="649" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="22"/>
@@ -14444,7 +14446,7 @@
       <c r="P649" s="2"/>
       <c r="Q649" s="2"/>
     </row>
-    <row r="650" spans="1:17" ht="13">
+    <row r="650" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="22"/>
@@ -14463,7 +14465,7 @@
       <c r="P650" s="2"/>
       <c r="Q650" s="2"/>
     </row>
-    <row r="651" spans="1:17" ht="13">
+    <row r="651" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="22"/>
@@ -14482,7 +14484,7 @@
       <c r="P651" s="2"/>
       <c r="Q651" s="2"/>
     </row>
-    <row r="652" spans="1:17" ht="13">
+    <row r="652" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="22"/>
@@ -14501,7 +14503,7 @@
       <c r="P652" s="2"/>
       <c r="Q652" s="2"/>
     </row>
-    <row r="653" spans="1:17" ht="13">
+    <row r="653" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="22"/>
@@ -14520,7 +14522,7 @@
       <c r="P653" s="2"/>
       <c r="Q653" s="2"/>
     </row>
-    <row r="654" spans="1:17" ht="13">
+    <row r="654" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="22"/>
@@ -14539,7 +14541,7 @@
       <c r="P654" s="2"/>
       <c r="Q654" s="2"/>
     </row>
-    <row r="655" spans="1:17" ht="13">
+    <row r="655" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="22"/>
@@ -14558,7 +14560,7 @@
       <c r="P655" s="2"/>
       <c r="Q655" s="2"/>
     </row>
-    <row r="656" spans="1:17" ht="13">
+    <row r="656" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="22"/>
@@ -14577,7 +14579,7 @@
       <c r="P656" s="2"/>
       <c r="Q656" s="2"/>
     </row>
-    <row r="657" spans="1:17" ht="13">
+    <row r="657" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="22"/>
@@ -14596,7 +14598,7 @@
       <c r="P657" s="2"/>
       <c r="Q657" s="2"/>
     </row>
-    <row r="658" spans="1:17" ht="13">
+    <row r="658" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="22"/>
@@ -14615,7 +14617,7 @@
       <c r="P658" s="2"/>
       <c r="Q658" s="2"/>
     </row>
-    <row r="659" spans="1:17" ht="13">
+    <row r="659" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="22"/>
@@ -14634,7 +14636,7 @@
       <c r="P659" s="2"/>
       <c r="Q659" s="2"/>
     </row>
-    <row r="660" spans="1:17" ht="13">
+    <row r="660" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="22"/>
@@ -14653,7 +14655,7 @@
       <c r="P660" s="2"/>
       <c r="Q660" s="2"/>
     </row>
-    <row r="661" spans="1:17" ht="13">
+    <row r="661" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="22"/>
@@ -14672,7 +14674,7 @@
       <c r="P661" s="2"/>
       <c r="Q661" s="2"/>
     </row>
-    <row r="662" spans="1:17" ht="13">
+    <row r="662" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="22"/>
@@ -14691,7 +14693,7 @@
       <c r="P662" s="2"/>
       <c r="Q662" s="2"/>
     </row>
-    <row r="663" spans="1:17" ht="13">
+    <row r="663" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="22"/>
@@ -14710,7 +14712,7 @@
       <c r="P663" s="2"/>
       <c r="Q663" s="2"/>
     </row>
-    <row r="664" spans="1:17" ht="13">
+    <row r="664" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="22"/>
@@ -14729,7 +14731,7 @@
       <c r="P664" s="2"/>
       <c r="Q664" s="2"/>
     </row>
-    <row r="665" spans="1:17" ht="13">
+    <row r="665" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="22"/>
@@ -14748,7 +14750,7 @@
       <c r="P665" s="2"/>
       <c r="Q665" s="2"/>
     </row>
-    <row r="666" spans="1:17" ht="13">
+    <row r="666" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="22"/>
@@ -14767,7 +14769,7 @@
       <c r="P666" s="2"/>
       <c r="Q666" s="2"/>
     </row>
-    <row r="667" spans="1:17" ht="13">
+    <row r="667" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="22"/>
@@ -14786,7 +14788,7 @@
       <c r="P667" s="2"/>
       <c r="Q667" s="2"/>
     </row>
-    <row r="668" spans="1:17" ht="13">
+    <row r="668" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="22"/>
@@ -14805,7 +14807,7 @@
       <c r="P668" s="2"/>
       <c r="Q668" s="2"/>
     </row>
-    <row r="669" spans="1:17" ht="13">
+    <row r="669" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="22"/>
@@ -14824,7 +14826,7 @@
       <c r="P669" s="2"/>
       <c r="Q669" s="2"/>
     </row>
-    <row r="670" spans="1:17" ht="13">
+    <row r="670" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="22"/>
@@ -14843,7 +14845,7 @@
       <c r="P670" s="2"/>
       <c r="Q670" s="2"/>
     </row>
-    <row r="671" spans="1:17" ht="13">
+    <row r="671" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="22"/>
@@ -14862,7 +14864,7 @@
       <c r="P671" s="2"/>
       <c r="Q671" s="2"/>
     </row>
-    <row r="672" spans="1:17" ht="13">
+    <row r="672" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="22"/>
@@ -14881,7 +14883,7 @@
       <c r="P672" s="2"/>
       <c r="Q672" s="2"/>
     </row>
-    <row r="673" spans="1:17" ht="13">
+    <row r="673" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="22"/>
@@ -14900,7 +14902,7 @@
       <c r="P673" s="2"/>
       <c r="Q673" s="2"/>
     </row>
-    <row r="674" spans="1:17" ht="13">
+    <row r="674" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="22"/>
@@ -14919,7 +14921,7 @@
       <c r="P674" s="2"/>
       <c r="Q674" s="2"/>
     </row>
-    <row r="675" spans="1:17" ht="13">
+    <row r="675" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="22"/>
@@ -14938,7 +14940,7 @@
       <c r="P675" s="2"/>
       <c r="Q675" s="2"/>
     </row>
-    <row r="676" spans="1:17" ht="13">
+    <row r="676" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="22"/>
@@ -14957,7 +14959,7 @@
       <c r="P676" s="2"/>
       <c r="Q676" s="2"/>
     </row>
-    <row r="677" spans="1:17" ht="13">
+    <row r="677" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="22"/>
@@ -14976,7 +14978,7 @@
       <c r="P677" s="2"/>
       <c r="Q677" s="2"/>
     </row>
-    <row r="678" spans="1:17" ht="13">
+    <row r="678" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="22"/>
@@ -14995,7 +14997,7 @@
       <c r="P678" s="2"/>
       <c r="Q678" s="2"/>
     </row>
-    <row r="679" spans="1:17" ht="13">
+    <row r="679" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="22"/>
@@ -15014,7 +15016,7 @@
       <c r="P679" s="2"/>
       <c r="Q679" s="2"/>
     </row>
-    <row r="680" spans="1:17" ht="13">
+    <row r="680" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="22"/>
@@ -15033,7 +15035,7 @@
       <c r="P680" s="2"/>
       <c r="Q680" s="2"/>
     </row>
-    <row r="681" spans="1:17" ht="13">
+    <row r="681" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="22"/>
@@ -15052,7 +15054,7 @@
       <c r="P681" s="2"/>
       <c r="Q681" s="2"/>
     </row>
-    <row r="682" spans="1:17" ht="13">
+    <row r="682" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="22"/>
@@ -15071,7 +15073,7 @@
       <c r="P682" s="2"/>
       <c r="Q682" s="2"/>
     </row>
-    <row r="683" spans="1:17" ht="13">
+    <row r="683" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="22"/>
@@ -15090,7 +15092,7 @@
       <c r="P683" s="2"/>
       <c r="Q683" s="2"/>
     </row>
-    <row r="684" spans="1:17" ht="13">
+    <row r="684" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="22"/>
@@ -15109,7 +15111,7 @@
       <c r="P684" s="2"/>
       <c r="Q684" s="2"/>
     </row>
-    <row r="685" spans="1:17" ht="13">
+    <row r="685" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="22"/>
@@ -15128,7 +15130,7 @@
       <c r="P685" s="2"/>
       <c r="Q685" s="2"/>
     </row>
-    <row r="686" spans="1:17" ht="13">
+    <row r="686" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="22"/>
@@ -15147,7 +15149,7 @@
       <c r="P686" s="2"/>
       <c r="Q686" s="2"/>
     </row>
-    <row r="687" spans="1:17" ht="13">
+    <row r="687" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="22"/>
@@ -15166,7 +15168,7 @@
       <c r="P687" s="2"/>
       <c r="Q687" s="2"/>
     </row>
-    <row r="688" spans="1:17" ht="13">
+    <row r="688" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="22"/>
@@ -15185,7 +15187,7 @@
       <c r="P688" s="2"/>
       <c r="Q688" s="2"/>
     </row>
-    <row r="689" spans="1:17" ht="13">
+    <row r="689" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="22"/>
@@ -15204,7 +15206,7 @@
       <c r="P689" s="2"/>
       <c r="Q689" s="2"/>
     </row>
-    <row r="690" spans="1:17" ht="13">
+    <row r="690" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="22"/>
@@ -15223,7 +15225,7 @@
       <c r="P690" s="2"/>
       <c r="Q690" s="2"/>
     </row>
-    <row r="691" spans="1:17" ht="13">
+    <row r="691" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="22"/>
@@ -15242,7 +15244,7 @@
       <c r="P691" s="2"/>
       <c r="Q691" s="2"/>
     </row>
-    <row r="692" spans="1:17" ht="13">
+    <row r="692" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="22"/>
@@ -15261,7 +15263,7 @@
       <c r="P692" s="2"/>
       <c r="Q692" s="2"/>
     </row>
-    <row r="693" spans="1:17" ht="13">
+    <row r="693" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="22"/>
@@ -15280,7 +15282,7 @@
       <c r="P693" s="2"/>
       <c r="Q693" s="2"/>
     </row>
-    <row r="694" spans="1:17" ht="13">
+    <row r="694" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="22"/>
@@ -15299,7 +15301,7 @@
       <c r="P694" s="2"/>
       <c r="Q694" s="2"/>
     </row>
-    <row r="695" spans="1:17" ht="13">
+    <row r="695" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="22"/>
@@ -15318,7 +15320,7 @@
       <c r="P695" s="2"/>
       <c r="Q695" s="2"/>
     </row>
-    <row r="696" spans="1:17" ht="13">
+    <row r="696" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="22"/>
@@ -15337,7 +15339,7 @@
       <c r="P696" s="2"/>
       <c r="Q696" s="2"/>
     </row>
-    <row r="697" spans="1:17" ht="13">
+    <row r="697" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="22"/>
@@ -15356,7 +15358,7 @@
       <c r="P697" s="2"/>
       <c r="Q697" s="2"/>
     </row>
-    <row r="698" spans="1:17" ht="13">
+    <row r="698" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="22"/>
@@ -15375,7 +15377,7 @@
       <c r="P698" s="2"/>
       <c r="Q698" s="2"/>
     </row>
-    <row r="699" spans="1:17" ht="13">
+    <row r="699" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="22"/>
@@ -15394,7 +15396,7 @@
       <c r="P699" s="2"/>
       <c r="Q699" s="2"/>
     </row>
-    <row r="700" spans="1:17" ht="13">
+    <row r="700" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="22"/>
@@ -15413,7 +15415,7 @@
       <c r="P700" s="2"/>
       <c r="Q700" s="2"/>
     </row>
-    <row r="701" spans="1:17" ht="13">
+    <row r="701" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="22"/>
@@ -15432,7 +15434,7 @@
       <c r="P701" s="2"/>
       <c r="Q701" s="2"/>
     </row>
-    <row r="702" spans="1:17" ht="13">
+    <row r="702" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="22"/>
@@ -15451,7 +15453,7 @@
       <c r="P702" s="2"/>
       <c r="Q702" s="2"/>
     </row>
-    <row r="703" spans="1:17" ht="13">
+    <row r="703" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="22"/>
@@ -15470,7 +15472,7 @@
       <c r="P703" s="2"/>
       <c r="Q703" s="2"/>
     </row>
-    <row r="704" spans="1:17" ht="13">
+    <row r="704" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="22"/>
@@ -15489,7 +15491,7 @@
       <c r="P704" s="2"/>
       <c r="Q704" s="2"/>
     </row>
-    <row r="705" spans="1:17" ht="13">
+    <row r="705" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="22"/>
@@ -15508,7 +15510,7 @@
       <c r="P705" s="2"/>
       <c r="Q705" s="2"/>
     </row>
-    <row r="706" spans="1:17" ht="13">
+    <row r="706" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="22"/>
@@ -15527,7 +15529,7 @@
       <c r="P706" s="2"/>
       <c r="Q706" s="2"/>
     </row>
-    <row r="707" spans="1:17" ht="13">
+    <row r="707" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="22"/>
@@ -15546,7 +15548,7 @@
       <c r="P707" s="2"/>
       <c r="Q707" s="2"/>
     </row>
-    <row r="708" spans="1:17" ht="13">
+    <row r="708" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="22"/>
@@ -15565,7 +15567,7 @@
       <c r="P708" s="2"/>
       <c r="Q708" s="2"/>
     </row>
-    <row r="709" spans="1:17" ht="13">
+    <row r="709" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="22"/>
@@ -15584,7 +15586,7 @@
       <c r="P709" s="2"/>
       <c r="Q709" s="2"/>
     </row>
-    <row r="710" spans="1:17" ht="13">
+    <row r="710" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="22"/>
@@ -15603,7 +15605,7 @@
       <c r="P710" s="2"/>
       <c r="Q710" s="2"/>
     </row>
-    <row r="711" spans="1:17" ht="13">
+    <row r="711" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="22"/>
@@ -15622,7 +15624,7 @@
       <c r="P711" s="2"/>
       <c r="Q711" s="2"/>
     </row>
-    <row r="712" spans="1:17" ht="13">
+    <row r="712" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="22"/>
@@ -15641,7 +15643,7 @@
       <c r="P712" s="2"/>
       <c r="Q712" s="2"/>
     </row>
-    <row r="713" spans="1:17" ht="13">
+    <row r="713" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="22"/>
@@ -15660,7 +15662,7 @@
       <c r="P713" s="2"/>
       <c r="Q713" s="2"/>
     </row>
-    <row r="714" spans="1:17" ht="13">
+    <row r="714" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="22"/>
@@ -15679,7 +15681,7 @@
       <c r="P714" s="2"/>
       <c r="Q714" s="2"/>
     </row>
-    <row r="715" spans="1:17" ht="13">
+    <row r="715" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="22"/>
@@ -15698,7 +15700,7 @@
       <c r="P715" s="2"/>
       <c r="Q715" s="2"/>
     </row>
-    <row r="716" spans="1:17" ht="13">
+    <row r="716" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="22"/>
@@ -15717,7 +15719,7 @@
       <c r="P716" s="2"/>
       <c r="Q716" s="2"/>
     </row>
-    <row r="717" spans="1:17" ht="13">
+    <row r="717" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="22"/>
@@ -15736,7 +15738,7 @@
       <c r="P717" s="2"/>
       <c r="Q717" s="2"/>
     </row>
-    <row r="718" spans="1:17" ht="13">
+    <row r="718" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="22"/>
@@ -15755,7 +15757,7 @@
       <c r="P718" s="2"/>
       <c r="Q718" s="2"/>
     </row>
-    <row r="719" spans="1:17" ht="13">
+    <row r="719" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="22"/>
@@ -15774,7 +15776,7 @@
       <c r="P719" s="2"/>
       <c r="Q719" s="2"/>
     </row>
-    <row r="720" spans="1:17" ht="13">
+    <row r="720" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="22"/>
@@ -15793,7 +15795,7 @@
       <c r="P720" s="2"/>
       <c r="Q720" s="2"/>
     </row>
-    <row r="721" spans="1:17" ht="13">
+    <row r="721" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="22"/>
@@ -15812,7 +15814,7 @@
       <c r="P721" s="2"/>
       <c r="Q721" s="2"/>
     </row>
-    <row r="722" spans="1:17" ht="13">
+    <row r="722" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="22"/>
@@ -15831,7 +15833,7 @@
       <c r="P722" s="2"/>
       <c r="Q722" s="2"/>
     </row>
-    <row r="723" spans="1:17" ht="13">
+    <row r="723" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="22"/>
@@ -15850,7 +15852,7 @@
       <c r="P723" s="2"/>
       <c r="Q723" s="2"/>
     </row>
-    <row r="724" spans="1:17" ht="13">
+    <row r="724" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="22"/>
@@ -15869,7 +15871,7 @@
       <c r="P724" s="2"/>
       <c r="Q724" s="2"/>
     </row>
-    <row r="725" spans="1:17" ht="13">
+    <row r="725" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="22"/>
@@ -15888,7 +15890,7 @@
       <c r="P725" s="2"/>
       <c r="Q725" s="2"/>
     </row>
-    <row r="726" spans="1:17" ht="13">
+    <row r="726" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="22"/>
@@ -15907,7 +15909,7 @@
       <c r="P726" s="2"/>
       <c r="Q726" s="2"/>
     </row>
-    <row r="727" spans="1:17" ht="13">
+    <row r="727" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="22"/>
@@ -15926,7 +15928,7 @@
       <c r="P727" s="2"/>
       <c r="Q727" s="2"/>
     </row>
-    <row r="728" spans="1:17" ht="13">
+    <row r="728" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="22"/>
@@ -15945,7 +15947,7 @@
       <c r="P728" s="2"/>
       <c r="Q728" s="2"/>
     </row>
-    <row r="729" spans="1:17" ht="13">
+    <row r="729" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="22"/>
@@ -15964,7 +15966,7 @@
       <c r="P729" s="2"/>
       <c r="Q729" s="2"/>
     </row>
-    <row r="730" spans="1:17" ht="13">
+    <row r="730" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="22"/>
@@ -15983,7 +15985,7 @@
       <c r="P730" s="2"/>
       <c r="Q730" s="2"/>
     </row>
-    <row r="731" spans="1:17" ht="13">
+    <row r="731" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="22"/>
@@ -16002,7 +16004,7 @@
       <c r="P731" s="2"/>
       <c r="Q731" s="2"/>
     </row>
-    <row r="732" spans="1:17" ht="13">
+    <row r="732" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="22"/>
@@ -16021,7 +16023,7 @@
       <c r="P732" s="2"/>
       <c r="Q732" s="2"/>
     </row>
-    <row r="733" spans="1:17" ht="13">
+    <row r="733" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="22"/>
@@ -16040,7 +16042,7 @@
       <c r="P733" s="2"/>
       <c r="Q733" s="2"/>
     </row>
-    <row r="734" spans="1:17" ht="13">
+    <row r="734" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="22"/>
@@ -16059,7 +16061,7 @@
       <c r="P734" s="2"/>
       <c r="Q734" s="2"/>
     </row>
-    <row r="735" spans="1:17" ht="13">
+    <row r="735" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="22"/>
@@ -16078,7 +16080,7 @@
       <c r="P735" s="2"/>
       <c r="Q735" s="2"/>
     </row>
-    <row r="736" spans="1:17" ht="13">
+    <row r="736" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="22"/>
@@ -16097,7 +16099,7 @@
       <c r="P736" s="2"/>
       <c r="Q736" s="2"/>
     </row>
-    <row r="737" spans="1:17" ht="13">
+    <row r="737" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="22"/>
@@ -16116,7 +16118,7 @@
       <c r="P737" s="2"/>
       <c r="Q737" s="2"/>
     </row>
-    <row r="738" spans="1:17" ht="13">
+    <row r="738" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="22"/>
@@ -16135,7 +16137,7 @@
       <c r="P738" s="2"/>
       <c r="Q738" s="2"/>
     </row>
-    <row r="739" spans="1:17" ht="13">
+    <row r="739" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="22"/>
@@ -16154,7 +16156,7 @@
       <c r="P739" s="2"/>
       <c r="Q739" s="2"/>
     </row>
-    <row r="740" spans="1:17" ht="13">
+    <row r="740" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="22"/>
@@ -16173,7 +16175,7 @@
       <c r="P740" s="2"/>
       <c r="Q740" s="2"/>
     </row>
-    <row r="741" spans="1:17" ht="13">
+    <row r="741" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="22"/>
@@ -16192,7 +16194,7 @@
       <c r="P741" s="2"/>
       <c r="Q741" s="2"/>
     </row>
-    <row r="742" spans="1:17" ht="13">
+    <row r="742" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="22"/>
@@ -16211,7 +16213,7 @@
       <c r="P742" s="2"/>
       <c r="Q742" s="2"/>
     </row>
-    <row r="743" spans="1:17" ht="13">
+    <row r="743" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="22"/>
@@ -16230,7 +16232,7 @@
       <c r="P743" s="2"/>
       <c r="Q743" s="2"/>
     </row>
-    <row r="744" spans="1:17" ht="13">
+    <row r="744" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="22"/>
@@ -16249,7 +16251,7 @@
       <c r="P744" s="2"/>
       <c r="Q744" s="2"/>
     </row>
-    <row r="745" spans="1:17" ht="13">
+    <row r="745" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="22"/>
@@ -16268,7 +16270,7 @@
       <c r="P745" s="2"/>
       <c r="Q745" s="2"/>
     </row>
-    <row r="746" spans="1:17" ht="13">
+    <row r="746" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="22"/>
@@ -16287,7 +16289,7 @@
       <c r="P746" s="2"/>
       <c r="Q746" s="2"/>
     </row>
-    <row r="747" spans="1:17" ht="13">
+    <row r="747" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="22"/>
@@ -16306,7 +16308,7 @@
       <c r="P747" s="2"/>
       <c r="Q747" s="2"/>
     </row>
-    <row r="748" spans="1:17" ht="13">
+    <row r="748" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="22"/>
@@ -16325,7 +16327,7 @@
       <c r="P748" s="2"/>
       <c r="Q748" s="2"/>
     </row>
-    <row r="749" spans="1:17" ht="13">
+    <row r="749" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="22"/>
@@ -16344,7 +16346,7 @@
       <c r="P749" s="2"/>
       <c r="Q749" s="2"/>
     </row>
-    <row r="750" spans="1:17" ht="13">
+    <row r="750" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="22"/>
@@ -16363,7 +16365,7 @@
       <c r="P750" s="2"/>
       <c r="Q750" s="2"/>
     </row>
-    <row r="751" spans="1:17" ht="13">
+    <row r="751" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="22"/>
@@ -16382,7 +16384,7 @@
       <c r="P751" s="2"/>
       <c r="Q751" s="2"/>
     </row>
-    <row r="752" spans="1:17" ht="13">
+    <row r="752" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="22"/>
@@ -16401,7 +16403,7 @@
       <c r="P752" s="2"/>
       <c r="Q752" s="2"/>
     </row>
-    <row r="753" spans="1:17" ht="13">
+    <row r="753" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="22"/>
@@ -16420,7 +16422,7 @@
       <c r="P753" s="2"/>
       <c r="Q753" s="2"/>
     </row>
-    <row r="754" spans="1:17" ht="13">
+    <row r="754" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="22"/>
@@ -16439,7 +16441,7 @@
       <c r="P754" s="2"/>
       <c r="Q754" s="2"/>
     </row>
-    <row r="755" spans="1:17" ht="13">
+    <row r="755" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="22"/>
@@ -16458,7 +16460,7 @@
       <c r="P755" s="2"/>
       <c r="Q755" s="2"/>
     </row>
-    <row r="756" spans="1:17" ht="13">
+    <row r="756" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="22"/>
@@ -16477,7 +16479,7 @@
       <c r="P756" s="2"/>
       <c r="Q756" s="2"/>
     </row>
-    <row r="757" spans="1:17" ht="13">
+    <row r="757" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="22"/>
@@ -16496,7 +16498,7 @@
       <c r="P757" s="2"/>
       <c r="Q757" s="2"/>
     </row>
-    <row r="758" spans="1:17" ht="13">
+    <row r="758" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="22"/>
@@ -16515,7 +16517,7 @@
       <c r="P758" s="2"/>
       <c r="Q758" s="2"/>
     </row>
-    <row r="759" spans="1:17" ht="13">
+    <row r="759" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="22"/>
@@ -16534,7 +16536,7 @@
       <c r="P759" s="2"/>
       <c r="Q759" s="2"/>
     </row>
-    <row r="760" spans="1:17" ht="13">
+    <row r="760" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="22"/>
@@ -16553,7 +16555,7 @@
       <c r="P760" s="2"/>
       <c r="Q760" s="2"/>
     </row>
-    <row r="761" spans="1:17" ht="13">
+    <row r="761" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="22"/>
@@ -16572,7 +16574,7 @@
       <c r="P761" s="2"/>
       <c r="Q761" s="2"/>
     </row>
-    <row r="762" spans="1:17" ht="13">
+    <row r="762" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="22"/>
@@ -16591,7 +16593,7 @@
       <c r="P762" s="2"/>
       <c r="Q762" s="2"/>
     </row>
-    <row r="763" spans="1:17" ht="13">
+    <row r="763" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="22"/>
@@ -16610,7 +16612,7 @@
       <c r="P763" s="2"/>
       <c r="Q763" s="2"/>
     </row>
-    <row r="764" spans="1:17" ht="13">
+    <row r="764" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="22"/>
@@ -16629,7 +16631,7 @@
       <c r="P764" s="2"/>
       <c r="Q764" s="2"/>
     </row>
-    <row r="765" spans="1:17" ht="13">
+    <row r="765" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="22"/>
@@ -16648,7 +16650,7 @@
       <c r="P765" s="2"/>
       <c r="Q765" s="2"/>
     </row>
-    <row r="766" spans="1:17" ht="13">
+    <row r="766" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="22"/>
@@ -16667,7 +16669,7 @@
       <c r="P766" s="2"/>
       <c r="Q766" s="2"/>
     </row>
-    <row r="767" spans="1:17" ht="13">
+    <row r="767" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="22"/>
@@ -16686,7 +16688,7 @@
       <c r="P767" s="2"/>
       <c r="Q767" s="2"/>
     </row>
-    <row r="768" spans="1:17" ht="13">
+    <row r="768" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="22"/>
@@ -16705,7 +16707,7 @@
       <c r="P768" s="2"/>
       <c r="Q768" s="2"/>
     </row>
-    <row r="769" spans="1:17" ht="13">
+    <row r="769" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="22"/>
@@ -16724,7 +16726,7 @@
       <c r="P769" s="2"/>
       <c r="Q769" s="2"/>
     </row>
-    <row r="770" spans="1:17" ht="13">
+    <row r="770" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="22"/>
@@ -16743,7 +16745,7 @@
       <c r="P770" s="2"/>
       <c r="Q770" s="2"/>
     </row>
-    <row r="771" spans="1:17" ht="13">
+    <row r="771" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="22"/>
@@ -16762,7 +16764,7 @@
       <c r="P771" s="2"/>
       <c r="Q771" s="2"/>
     </row>
-    <row r="772" spans="1:17" ht="13">
+    <row r="772" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="22"/>
@@ -16781,7 +16783,7 @@
       <c r="P772" s="2"/>
       <c r="Q772" s="2"/>
     </row>
-    <row r="773" spans="1:17" ht="13">
+    <row r="773" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="22"/>
@@ -16800,7 +16802,7 @@
       <c r="P773" s="2"/>
       <c r="Q773" s="2"/>
     </row>
-    <row r="774" spans="1:17" ht="13">
+    <row r="774" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="22"/>
@@ -16819,7 +16821,7 @@
       <c r="P774" s="2"/>
       <c r="Q774" s="2"/>
     </row>
-    <row r="775" spans="1:17" ht="13">
+    <row r="775" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="22"/>
@@ -16838,7 +16840,7 @@
       <c r="P775" s="2"/>
       <c r="Q775" s="2"/>
     </row>
-    <row r="776" spans="1:17" ht="13">
+    <row r="776" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="22"/>
@@ -16857,7 +16859,7 @@
       <c r="P776" s="2"/>
       <c r="Q776" s="2"/>
     </row>
-    <row r="777" spans="1:17" ht="13">
+    <row r="777" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="22"/>
@@ -16876,7 +16878,7 @@
       <c r="P777" s="2"/>
       <c r="Q777" s="2"/>
     </row>
-    <row r="778" spans="1:17" ht="13">
+    <row r="778" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="22"/>
@@ -16895,7 +16897,7 @@
       <c r="P778" s="2"/>
       <c r="Q778" s="2"/>
     </row>
-    <row r="779" spans="1:17" ht="13">
+    <row r="779" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="22"/>
@@ -16914,7 +16916,7 @@
       <c r="P779" s="2"/>
       <c r="Q779" s="2"/>
     </row>
-    <row r="780" spans="1:17" ht="13">
+    <row r="780" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="22"/>
@@ -16933,7 +16935,7 @@
       <c r="P780" s="2"/>
       <c r="Q780" s="2"/>
     </row>
-    <row r="781" spans="1:17" ht="13">
+    <row r="781" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="22"/>
@@ -16952,7 +16954,7 @@
       <c r="P781" s="2"/>
       <c r="Q781" s="2"/>
     </row>
-    <row r="782" spans="1:17" ht="13">
+    <row r="782" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="22"/>
@@ -16971,7 +16973,7 @@
       <c r="P782" s="2"/>
       <c r="Q782" s="2"/>
     </row>
-    <row r="783" spans="1:17" ht="13">
+    <row r="783" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="22"/>
@@ -16990,7 +16992,7 @@
       <c r="P783" s="2"/>
       <c r="Q783" s="2"/>
     </row>
-    <row r="784" spans="1:17" ht="13">
+    <row r="784" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="22"/>
@@ -17009,7 +17011,7 @@
       <c r="P784" s="2"/>
       <c r="Q784" s="2"/>
     </row>
-    <row r="785" spans="1:17" ht="13">
+    <row r="785" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="22"/>
@@ -17028,7 +17030,7 @@
       <c r="P785" s="2"/>
       <c r="Q785" s="2"/>
     </row>
-    <row r="786" spans="1:17" ht="13">
+    <row r="786" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="22"/>
@@ -17047,7 +17049,7 @@
       <c r="P786" s="2"/>
       <c r="Q786" s="2"/>
     </row>
-    <row r="787" spans="1:17" ht="13">
+    <row r="787" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="22"/>
@@ -17066,7 +17068,7 @@
       <c r="P787" s="2"/>
       <c r="Q787" s="2"/>
     </row>
-    <row r="788" spans="1:17" ht="13">
+    <row r="788" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="22"/>
@@ -17085,7 +17087,7 @@
       <c r="P788" s="2"/>
       <c r="Q788" s="2"/>
     </row>
-    <row r="789" spans="1:17" ht="13">
+    <row r="789" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="22"/>
@@ -17104,7 +17106,7 @@
       <c r="P789" s="2"/>
       <c r="Q789" s="2"/>
     </row>
-    <row r="790" spans="1:17" ht="13">
+    <row r="790" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="22"/>
@@ -17123,7 +17125,7 @@
       <c r="P790" s="2"/>
       <c r="Q790" s="2"/>
     </row>
-    <row r="791" spans="1:17" ht="13">
+    <row r="791" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="22"/>
@@ -17142,7 +17144,7 @@
       <c r="P791" s="2"/>
       <c r="Q791" s="2"/>
     </row>
-    <row r="792" spans="1:17" ht="13">
+    <row r="792" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="22"/>
@@ -17161,7 +17163,7 @@
       <c r="P792" s="2"/>
       <c r="Q792" s="2"/>
     </row>
-    <row r="793" spans="1:17" ht="13">
+    <row r="793" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="22"/>
@@ -17180,7 +17182,7 @@
       <c r="P793" s="2"/>
       <c r="Q793" s="2"/>
     </row>
-    <row r="794" spans="1:17" ht="13">
+    <row r="794" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="22"/>
@@ -17199,7 +17201,7 @@
       <c r="P794" s="2"/>
       <c r="Q794" s="2"/>
     </row>
-    <row r="795" spans="1:17" ht="13">
+    <row r="795" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="22"/>
@@ -17218,7 +17220,7 @@
       <c r="P795" s="2"/>
       <c r="Q795" s="2"/>
     </row>
-    <row r="796" spans="1:17" ht="13">
+    <row r="796" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="22"/>
@@ -17237,7 +17239,7 @@
       <c r="P796" s="2"/>
       <c r="Q796" s="2"/>
     </row>
-    <row r="797" spans="1:17" ht="13">
+    <row r="797" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="22"/>
@@ -17256,7 +17258,7 @@
       <c r="P797" s="2"/>
       <c r="Q797" s="2"/>
     </row>
-    <row r="798" spans="1:17" ht="13">
+    <row r="798" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="22"/>
@@ -17275,7 +17277,7 @@
       <c r="P798" s="2"/>
       <c r="Q798" s="2"/>
     </row>
-    <row r="799" spans="1:17" ht="13">
+    <row r="799" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="22"/>
@@ -17294,7 +17296,7 @@
       <c r="P799" s="2"/>
       <c r="Q799" s="2"/>
     </row>
-    <row r="800" spans="1:17" ht="13">
+    <row r="800" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="22"/>
@@ -17313,7 +17315,7 @@
       <c r="P800" s="2"/>
       <c r="Q800" s="2"/>
     </row>
-    <row r="801" spans="1:17" ht="13">
+    <row r="801" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="22"/>
@@ -17332,7 +17334,7 @@
       <c r="P801" s="2"/>
       <c r="Q801" s="2"/>
     </row>
-    <row r="802" spans="1:17" ht="13">
+    <row r="802" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="22"/>
@@ -17351,7 +17353,7 @@
       <c r="P802" s="2"/>
       <c r="Q802" s="2"/>
     </row>
-    <row r="803" spans="1:17" ht="13">
+    <row r="803" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="22"/>
@@ -17370,7 +17372,7 @@
       <c r="P803" s="2"/>
       <c r="Q803" s="2"/>
     </row>
-    <row r="804" spans="1:17" ht="13">
+    <row r="804" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="22"/>
@@ -17389,7 +17391,7 @@
       <c r="P804" s="2"/>
       <c r="Q804" s="2"/>
     </row>
-    <row r="805" spans="1:17" ht="13">
+    <row r="805" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="22"/>
@@ -17408,7 +17410,7 @@
       <c r="P805" s="2"/>
       <c r="Q805" s="2"/>
     </row>
-    <row r="806" spans="1:17" ht="13">
+    <row r="806" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="22"/>
@@ -17427,7 +17429,7 @@
       <c r="P806" s="2"/>
       <c r="Q806" s="2"/>
     </row>
-    <row r="807" spans="1:17" ht="13">
+    <row r="807" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="22"/>
@@ -17446,7 +17448,7 @@
       <c r="P807" s="2"/>
       <c r="Q807" s="2"/>
     </row>
-    <row r="808" spans="1:17" ht="13">
+    <row r="808" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="22"/>
@@ -17465,7 +17467,7 @@
       <c r="P808" s="2"/>
       <c r="Q808" s="2"/>
     </row>
-    <row r="809" spans="1:17" ht="13">
+    <row r="809" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="22"/>
@@ -17484,7 +17486,7 @@
       <c r="P809" s="2"/>
       <c r="Q809" s="2"/>
     </row>
-    <row r="810" spans="1:17" ht="13">
+    <row r="810" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="22"/>
@@ -17503,7 +17505,7 @@
       <c r="P810" s="2"/>
       <c r="Q810" s="2"/>
     </row>
-    <row r="811" spans="1:17" ht="13">
+    <row r="811" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="22"/>
@@ -17522,7 +17524,7 @@
       <c r="P811" s="2"/>
       <c r="Q811" s="2"/>
     </row>
-    <row r="812" spans="1:17" ht="13">
+    <row r="812" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="22"/>
@@ -17541,7 +17543,7 @@
       <c r="P812" s="2"/>
       <c r="Q812" s="2"/>
     </row>
-    <row r="813" spans="1:17" ht="13">
+    <row r="813" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="22"/>
@@ -17560,7 +17562,7 @@
       <c r="P813" s="2"/>
       <c r="Q813" s="2"/>
     </row>
-    <row r="814" spans="1:17" ht="13">
+    <row r="814" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="22"/>
@@ -17579,7 +17581,7 @@
       <c r="P814" s="2"/>
       <c r="Q814" s="2"/>
     </row>
-    <row r="815" spans="1:17" ht="13">
+    <row r="815" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="22"/>
@@ -17598,7 +17600,7 @@
       <c r="P815" s="2"/>
       <c r="Q815" s="2"/>
     </row>
-    <row r="816" spans="1:17" ht="13">
+    <row r="816" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="22"/>
@@ -17617,7 +17619,7 @@
       <c r="P816" s="2"/>
       <c r="Q816" s="2"/>
     </row>
-    <row r="817" spans="1:17" ht="13">
+    <row r="817" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="22"/>
@@ -17636,7 +17638,7 @@
       <c r="P817" s="2"/>
       <c r="Q817" s="2"/>
     </row>
-    <row r="818" spans="1:17" ht="13">
+    <row r="818" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="22"/>
@@ -17655,7 +17657,7 @@
       <c r="P818" s="2"/>
       <c r="Q818" s="2"/>
     </row>
-    <row r="819" spans="1:17" ht="13">
+    <row r="819" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="22"/>
@@ -17674,7 +17676,7 @@
       <c r="P819" s="2"/>
       <c r="Q819" s="2"/>
     </row>
-    <row r="820" spans="1:17" ht="13">
+    <row r="820" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="22"/>
@@ -17693,7 +17695,7 @@
       <c r="P820" s="2"/>
       <c r="Q820" s="2"/>
     </row>
-    <row r="821" spans="1:17" ht="13">
+    <row r="821" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="22"/>
@@ -17712,7 +17714,7 @@
       <c r="P821" s="2"/>
       <c r="Q821" s="2"/>
     </row>
-    <row r="822" spans="1:17" ht="13">
+    <row r="822" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="22"/>
@@ -17731,7 +17733,7 @@
       <c r="P822" s="2"/>
       <c r="Q822" s="2"/>
     </row>
-    <row r="823" spans="1:17" ht="13">
+    <row r="823" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="22"/>
@@ -17750,7 +17752,7 @@
       <c r="P823" s="2"/>
       <c r="Q823" s="2"/>
     </row>
-    <row r="824" spans="1:17" ht="13">
+    <row r="824" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="22"/>
@@ -17769,7 +17771,7 @@
       <c r="P824" s="2"/>
       <c r="Q824" s="2"/>
     </row>
-    <row r="825" spans="1:17" ht="13">
+    <row r="825" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="22"/>
@@ -17788,7 +17790,7 @@
       <c r="P825" s="2"/>
       <c r="Q825" s="2"/>
     </row>
-    <row r="826" spans="1:17" ht="13">
+    <row r="826" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="22"/>
@@ -17807,7 +17809,7 @@
       <c r="P826" s="2"/>
       <c r="Q826" s="2"/>
     </row>
-    <row r="827" spans="1:17" ht="13">
+    <row r="827" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="22"/>
@@ -17826,7 +17828,7 @@
       <c r="P827" s="2"/>
       <c r="Q827" s="2"/>
     </row>
-    <row r="828" spans="1:17" ht="13">
+    <row r="828" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="22"/>
@@ -17845,7 +17847,7 @@
       <c r="P828" s="2"/>
       <c r="Q828" s="2"/>
     </row>
-    <row r="829" spans="1:17" ht="13">
+    <row r="829" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="22"/>
@@ -17864,7 +17866,7 @@
       <c r="P829" s="2"/>
       <c r="Q829" s="2"/>
     </row>
-    <row r="830" spans="1:17" ht="13">
+    <row r="830" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="22"/>
@@ -17883,7 +17885,7 @@
       <c r="P830" s="2"/>
       <c r="Q830" s="2"/>
     </row>
-    <row r="831" spans="1:17" ht="13">
+    <row r="831" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="22"/>
@@ -17902,7 +17904,7 @@
       <c r="P831" s="2"/>
       <c r="Q831" s="2"/>
     </row>
-    <row r="832" spans="1:17" ht="13">
+    <row r="832" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="22"/>
@@ -17921,7 +17923,7 @@
       <c r="P832" s="2"/>
       <c r="Q832" s="2"/>
     </row>
-    <row r="833" spans="1:17" ht="13">
+    <row r="833" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="22"/>
@@ -17940,7 +17942,7 @@
       <c r="P833" s="2"/>
       <c r="Q833" s="2"/>
     </row>
-    <row r="834" spans="1:17" ht="13">
+    <row r="834" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="22"/>
@@ -17959,7 +17961,7 @@
       <c r="P834" s="2"/>
       <c r="Q834" s="2"/>
     </row>
-    <row r="835" spans="1:17" ht="13">
+    <row r="835" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="22"/>
@@ -17978,7 +17980,7 @@
       <c r="P835" s="2"/>
       <c r="Q835" s="2"/>
     </row>
-    <row r="836" spans="1:17" ht="13">
+    <row r="836" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="22"/>
@@ -17997,7 +17999,7 @@
       <c r="P836" s="2"/>
       <c r="Q836" s="2"/>
     </row>
-    <row r="837" spans="1:17" ht="13">
+    <row r="837" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="22"/>
@@ -18016,7 +18018,7 @@
       <c r="P837" s="2"/>
       <c r="Q837" s="2"/>
     </row>
-    <row r="838" spans="1:17" ht="13">
+    <row r="838" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="22"/>
@@ -18035,7 +18037,7 @@
       <c r="P838" s="2"/>
       <c r="Q838" s="2"/>
     </row>
-    <row r="839" spans="1:17" ht="13">
+    <row r="839" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="22"/>
@@ -18054,7 +18056,7 @@
       <c r="P839" s="2"/>
       <c r="Q839" s="2"/>
     </row>
-    <row r="840" spans="1:17" ht="13">
+    <row r="840" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="22"/>
@@ -18073,7 +18075,7 @@
       <c r="P840" s="2"/>
       <c r="Q840" s="2"/>
     </row>
-    <row r="841" spans="1:17" ht="13">
+    <row r="841" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="22"/>
@@ -18092,7 +18094,7 @@
       <c r="P841" s="2"/>
       <c r="Q841" s="2"/>
     </row>
-    <row r="842" spans="1:17" ht="13">
+    <row r="842" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="22"/>
@@ -18111,7 +18113,7 @@
       <c r="P842" s="2"/>
       <c r="Q842" s="2"/>
     </row>
-    <row r="843" spans="1:17" ht="13">
+    <row r="843" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="22"/>
@@ -18130,7 +18132,7 @@
       <c r="P843" s="2"/>
       <c r="Q843" s="2"/>
     </row>
-    <row r="844" spans="1:17" ht="13">
+    <row r="844" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="22"/>
@@ -18149,7 +18151,7 @@
       <c r="P844" s="2"/>
       <c r="Q844" s="2"/>
     </row>
-    <row r="845" spans="1:17" ht="13">
+    <row r="845" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="22"/>
@@ -18168,7 +18170,7 @@
       <c r="P845" s="2"/>
       <c r="Q845" s="2"/>
     </row>
-    <row r="846" spans="1:17" ht="13">
+    <row r="846" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="22"/>
@@ -18187,7 +18189,7 @@
       <c r="P846" s="2"/>
       <c r="Q846" s="2"/>
     </row>
-    <row r="847" spans="1:17" ht="13">
+    <row r="847" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="22"/>
@@ -18206,7 +18208,7 @@
       <c r="P847" s="2"/>
       <c r="Q847" s="2"/>
     </row>
-    <row r="848" spans="1:17" ht="13">
+    <row r="848" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="22"/>
@@ -18225,7 +18227,7 @@
       <c r="P848" s="2"/>
       <c r="Q848" s="2"/>
     </row>
-    <row r="849" spans="1:17" ht="13">
+    <row r="849" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="22"/>
@@ -18244,7 +18246,7 @@
       <c r="P849" s="2"/>
       <c r="Q849" s="2"/>
     </row>
-    <row r="850" spans="1:17" ht="13">
+    <row r="850" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="22"/>
@@ -18263,7 +18265,7 @@
       <c r="P850" s="2"/>
       <c r="Q850" s="2"/>
     </row>
-    <row r="851" spans="1:17" ht="13">
+    <row r="851" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="22"/>
@@ -18282,7 +18284,7 @@
       <c r="P851" s="2"/>
       <c r="Q851" s="2"/>
     </row>
-    <row r="852" spans="1:17" ht="13">
+    <row r="852" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="22"/>
@@ -18301,7 +18303,7 @@
       <c r="P852" s="2"/>
       <c r="Q852" s="2"/>
     </row>
-    <row r="853" spans="1:17" ht="13">
+    <row r="853" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="22"/>
@@ -18320,7 +18322,7 @@
       <c r="P853" s="2"/>
       <c r="Q853" s="2"/>
     </row>
-    <row r="854" spans="1:17" ht="13">
+    <row r="854" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="22"/>
@@ -18339,7 +18341,7 @@
       <c r="P854" s="2"/>
       <c r="Q854" s="2"/>
     </row>
-    <row r="855" spans="1:17" ht="13">
+    <row r="855" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="22"/>
@@ -18358,7 +18360,7 @@
       <c r="P855" s="2"/>
       <c r="Q855" s="2"/>
     </row>
-    <row r="856" spans="1:17" ht="13">
+    <row r="856" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="22"/>
@@ -18377,7 +18379,7 @@
       <c r="P856" s="2"/>
       <c r="Q856" s="2"/>
     </row>
-    <row r="857" spans="1:17" ht="13">
+    <row r="857" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="22"/>
@@ -18396,7 +18398,7 @@
       <c r="P857" s="2"/>
       <c r="Q857" s="2"/>
     </row>
-    <row r="858" spans="1:17" ht="13">
+    <row r="858" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="22"/>
@@ -18415,7 +18417,7 @@
       <c r="P858" s="2"/>
       <c r="Q858" s="2"/>
     </row>
-    <row r="859" spans="1:17" ht="13">
+    <row r="859" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="22"/>
@@ -18434,7 +18436,7 @@
       <c r="P859" s="2"/>
       <c r="Q859" s="2"/>
     </row>
-    <row r="860" spans="1:17" ht="13">
+    <row r="860" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="22"/>
@@ -18453,7 +18455,7 @@
       <c r="P860" s="2"/>
       <c r="Q860" s="2"/>
     </row>
-    <row r="861" spans="1:17" ht="13">
+    <row r="861" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="22"/>
@@ -18472,7 +18474,7 @@
       <c r="P861" s="2"/>
       <c r="Q861" s="2"/>
     </row>
-    <row r="862" spans="1:17" ht="13">
+    <row r="862" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="22"/>
@@ -18491,7 +18493,7 @@
       <c r="P862" s="2"/>
       <c r="Q862" s="2"/>
     </row>
-    <row r="863" spans="1:17" ht="13">
+    <row r="863" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="22"/>
@@ -18510,7 +18512,7 @@
       <c r="P863" s="2"/>
       <c r="Q863" s="2"/>
     </row>
-    <row r="864" spans="1:17" ht="13">
+    <row r="864" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="22"/>
@@ -18529,7 +18531,7 @@
       <c r="P864" s="2"/>
       <c r="Q864" s="2"/>
     </row>
-    <row r="865" spans="1:17" ht="13">
+    <row r="865" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="22"/>
@@ -18548,7 +18550,7 @@
       <c r="P865" s="2"/>
       <c r="Q865" s="2"/>
     </row>
-    <row r="866" spans="1:17" ht="13">
+    <row r="866" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="22"/>
@@ -18567,7 +18569,7 @@
       <c r="P866" s="2"/>
       <c r="Q866" s="2"/>
     </row>
-    <row r="867" spans="1:17" ht="13">
+    <row r="867" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="22"/>
@@ -18586,7 +18588,7 @@
       <c r="P867" s="2"/>
       <c r="Q867" s="2"/>
     </row>
-    <row r="868" spans="1:17" ht="13">
+    <row r="868" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="22"/>
@@ -18605,7 +18607,7 @@
       <c r="P868" s="2"/>
       <c r="Q868" s="2"/>
     </row>
-    <row r="869" spans="1:17" ht="13">
+    <row r="869" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="22"/>
@@ -18624,7 +18626,7 @@
       <c r="P869" s="2"/>
       <c r="Q869" s="2"/>
     </row>
-    <row r="870" spans="1:17" ht="13">
+    <row r="870" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="22"/>
@@ -18643,7 +18645,7 @@
       <c r="P870" s="2"/>
       <c r="Q870" s="2"/>
     </row>
-    <row r="871" spans="1:17" ht="13">
+    <row r="871" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="22"/>
@@ -18662,7 +18664,7 @@
       <c r="P871" s="2"/>
       <c r="Q871" s="2"/>
     </row>
-    <row r="872" spans="1:17" ht="13">
+    <row r="872" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="22"/>
@@ -18681,7 +18683,7 @@
       <c r="P872" s="2"/>
       <c r="Q872" s="2"/>
     </row>
-    <row r="873" spans="1:17" ht="13">
+    <row r="873" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="22"/>
@@ -18700,7 +18702,7 @@
       <c r="P873" s="2"/>
       <c r="Q873" s="2"/>
     </row>
-    <row r="874" spans="1:17" ht="13">
+    <row r="874" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="22"/>
@@ -18719,7 +18721,7 @@
       <c r="P874" s="2"/>
       <c r="Q874" s="2"/>
     </row>
-    <row r="875" spans="1:17" ht="13">
+    <row r="875" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="22"/>
@@ -18738,7 +18740,7 @@
       <c r="P875" s="2"/>
       <c r="Q875" s="2"/>
     </row>
-    <row r="876" spans="1:17" ht="13">
+    <row r="876" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="22"/>
@@ -18757,7 +18759,7 @@
       <c r="P876" s="2"/>
       <c r="Q876" s="2"/>
     </row>
-    <row r="877" spans="1:17" ht="13">
+    <row r="877" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="22"/>
@@ -18776,7 +18778,7 @@
       <c r="P877" s="2"/>
       <c r="Q877" s="2"/>
     </row>
-    <row r="878" spans="1:17" ht="13">
+    <row r="878" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="22"/>
@@ -18795,7 +18797,7 @@
       <c r="P878" s="2"/>
       <c r="Q878" s="2"/>
     </row>
-    <row r="879" spans="1:17" ht="13">
+    <row r="879" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="22"/>
@@ -18814,7 +18816,7 @@
       <c r="P879" s="2"/>
       <c r="Q879" s="2"/>
     </row>
-    <row r="880" spans="1:17" ht="13">
+    <row r="880" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="22"/>
@@ -18833,7 +18835,7 @@
       <c r="P880" s="2"/>
       <c r="Q880" s="2"/>
     </row>
-    <row r="881" spans="1:17" ht="13">
+    <row r="881" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="22"/>
@@ -18852,7 +18854,7 @@
       <c r="P881" s="2"/>
       <c r="Q881" s="2"/>
     </row>
-    <row r="882" spans="1:17" ht="13">
+    <row r="882" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="22"/>
@@ -18871,7 +18873,7 @@
       <c r="P882" s="2"/>
       <c r="Q882" s="2"/>
     </row>
-    <row r="883" spans="1:17" ht="13">
+    <row r="883" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="22"/>
@@ -18890,7 +18892,7 @@
       <c r="P883" s="2"/>
       <c r="Q883" s="2"/>
     </row>
-    <row r="884" spans="1:17" ht="13">
+    <row r="884" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="22"/>
@@ -18909,7 +18911,7 @@
       <c r="P884" s="2"/>
       <c r="Q884" s="2"/>
     </row>
-    <row r="885" spans="1:17" ht="13">
+    <row r="885" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="22"/>
@@ -18928,7 +18930,7 @@
       <c r="P885" s="2"/>
       <c r="Q885" s="2"/>
     </row>
-    <row r="886" spans="1:17" ht="13">
+    <row r="886" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="22"/>
@@ -18947,7 +18949,7 @@
       <c r="P886" s="2"/>
       <c r="Q886" s="2"/>
     </row>
-    <row r="887" spans="1:17" ht="13">
+    <row r="887" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="22"/>
@@ -18966,7 +18968,7 @@
       <c r="P887" s="2"/>
       <c r="Q887" s="2"/>
     </row>
-    <row r="888" spans="1:17" ht="13">
+    <row r="888" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="22"/>
@@ -18985,7 +18987,7 @@
       <c r="P888" s="2"/>
       <c r="Q888" s="2"/>
     </row>
-    <row r="889" spans="1:17" ht="13">
+    <row r="889" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="22"/>
@@ -19004,7 +19006,7 @@
       <c r="P889" s="2"/>
       <c r="Q889" s="2"/>
     </row>
-    <row r="890" spans="1:17" ht="13">
+    <row r="890" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="22"/>
@@ -19023,7 +19025,7 @@
       <c r="P890" s="2"/>
       <c r="Q890" s="2"/>
     </row>
-    <row r="891" spans="1:17" ht="13">
+    <row r="891" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="22"/>
@@ -19042,7 +19044,7 @@
       <c r="P891" s="2"/>
       <c r="Q891" s="2"/>
     </row>
-    <row r="892" spans="1:17" ht="13">
+    <row r="892" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="22"/>
@@ -19061,7 +19063,7 @@
       <c r="P892" s="2"/>
       <c r="Q892" s="2"/>
     </row>
-    <row r="893" spans="1:17" ht="13">
+    <row r="893" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="22"/>
@@ -19080,7 +19082,7 @@
       <c r="P893" s="2"/>
       <c r="Q893" s="2"/>
     </row>
-    <row r="894" spans="1:17" ht="13">
+    <row r="894" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="22"/>
@@ -19099,7 +19101,7 @@
       <c r="P894" s="2"/>
       <c r="Q894" s="2"/>
     </row>
-    <row r="895" spans="1:17" ht="13">
+    <row r="895" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="22"/>
@@ -19118,7 +19120,7 @@
       <c r="P895" s="2"/>
       <c r="Q895" s="2"/>
     </row>
-    <row r="896" spans="1:17" ht="13">
+    <row r="896" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="22"/>
@@ -19137,7 +19139,7 @@
       <c r="P896" s="2"/>
       <c r="Q896" s="2"/>
     </row>
-    <row r="897" spans="1:17" ht="13">
+    <row r="897" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="22"/>
@@ -19156,7 +19158,7 @@
       <c r="P897" s="2"/>
       <c r="Q897" s="2"/>
     </row>
-    <row r="898" spans="1:17" ht="13">
+    <row r="898" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="22"/>
@@ -19175,7 +19177,7 @@
       <c r="P898" s="2"/>
       <c r="Q898" s="2"/>
     </row>
-    <row r="899" spans="1:17" ht="13">
+    <row r="899" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="22"/>
@@ -19194,7 +19196,7 @@
       <c r="P899" s="2"/>
       <c r="Q899" s="2"/>
     </row>
-    <row r="900" spans="1:17" ht="13">
+    <row r="900" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="22"/>
@@ -19213,7 +19215,7 @@
       <c r="P900" s="2"/>
       <c r="Q900" s="2"/>
     </row>
-    <row r="901" spans="1:17" ht="13">
+    <row r="901" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="22"/>
@@ -19232,7 +19234,7 @@
       <c r="P901" s="2"/>
       <c r="Q901" s="2"/>
     </row>
-    <row r="902" spans="1:17" ht="13">
+    <row r="902" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="22"/>
@@ -19251,7 +19253,7 @@
       <c r="P902" s="2"/>
       <c r="Q902" s="2"/>
     </row>
-    <row r="903" spans="1:17" ht="13">
+    <row r="903" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="22"/>
@@ -19270,7 +19272,7 @@
       <c r="P903" s="2"/>
       <c r="Q903" s="2"/>
     </row>
-    <row r="904" spans="1:17" ht="13">
+    <row r="904" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="22"/>
@@ -19289,7 +19291,7 @@
       <c r="P904" s="2"/>
       <c r="Q904" s="2"/>
     </row>
-    <row r="905" spans="1:17" ht="13">
+    <row r="905" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="22"/>
@@ -19308,7 +19310,7 @@
       <c r="P905" s="2"/>
       <c r="Q905" s="2"/>
     </row>
-    <row r="906" spans="1:17" ht="13">
+    <row r="906" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="22"/>
@@ -19327,7 +19329,7 @@
       <c r="P906" s="2"/>
       <c r="Q906" s="2"/>
     </row>
-    <row r="907" spans="1:17" ht="13">
+    <row r="907" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="22"/>
@@ -19346,7 +19348,7 @@
       <c r="P907" s="2"/>
       <c r="Q907" s="2"/>
     </row>
-    <row r="908" spans="1:17" ht="13">
+    <row r="908" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="22"/>
@@ -19365,7 +19367,7 @@
       <c r="P908" s="2"/>
       <c r="Q908" s="2"/>
     </row>
-    <row r="909" spans="1:17" ht="13">
+    <row r="909" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="22"/>
@@ -19384,7 +19386,7 @@
       <c r="P909" s="2"/>
       <c r="Q909" s="2"/>
     </row>
-    <row r="910" spans="1:17" ht="13">
+    <row r="910" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="22"/>
@@ -19403,7 +19405,7 @@
       <c r="P910" s="2"/>
       <c r="Q910" s="2"/>
     </row>
-    <row r="911" spans="1:17" ht="13">
+    <row r="911" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="22"/>
@@ -19422,7 +19424,7 @@
       <c r="P911" s="2"/>
       <c r="Q911" s="2"/>
     </row>
-    <row r="912" spans="1:17" ht="13">
+    <row r="912" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="22"/>
@@ -19441,7 +19443,7 @@
       <c r="P912" s="2"/>
       <c r="Q912" s="2"/>
     </row>
-    <row r="913" spans="1:17" ht="13">
+    <row r="913" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="22"/>
@@ -19460,7 +19462,7 @@
       <c r="P913" s="2"/>
       <c r="Q913" s="2"/>
     </row>
-    <row r="914" spans="1:17" ht="13">
+    <row r="914" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="22"/>
@@ -19479,7 +19481,7 @@
       <c r="P914" s="2"/>
       <c r="Q914" s="2"/>
     </row>
-    <row r="915" spans="1:17" ht="13">
+    <row r="915" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="22"/>
@@ -19498,7 +19500,7 @@
       <c r="P915" s="2"/>
       <c r="Q915" s="2"/>
     </row>
-    <row r="916" spans="1:17" ht="13">
+    <row r="916" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="22"/>
@@ -19517,7 +19519,7 @@
       <c r="P916" s="2"/>
       <c r="Q916" s="2"/>
     </row>
-    <row r="917" spans="1:17" ht="13">
+    <row r="917" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="22"/>
@@ -19536,7 +19538,7 @@
       <c r="P917" s="2"/>
       <c r="Q917" s="2"/>
     </row>
-    <row r="918" spans="1:17" ht="13">
+    <row r="918" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="22"/>
@@ -19555,7 +19557,7 @@
       <c r="P918" s="2"/>
       <c r="Q918" s="2"/>
     </row>
-    <row r="919" spans="1:17" ht="13">
+    <row r="919" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="22"/>
@@ -19574,7 +19576,7 @@
       <c r="P919" s="2"/>
       <c r="Q919" s="2"/>
     </row>
-    <row r="920" spans="1:17" ht="13">
+    <row r="920" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="22"/>
@@ -19593,7 +19595,7 @@
       <c r="P920" s="2"/>
       <c r="Q920" s="2"/>
     </row>
-    <row r="921" spans="1:17" ht="13">
+    <row r="921" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="22"/>
@@ -19612,7 +19614,7 @@
       <c r="P921" s="2"/>
       <c r="Q921" s="2"/>
     </row>
-    <row r="922" spans="1:17" ht="13">
+    <row r="922" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="22"/>
@@ -19631,7 +19633,7 @@
       <c r="P922" s="2"/>
       <c r="Q922" s="2"/>
     </row>
-    <row r="923" spans="1:17" ht="13">
+    <row r="923" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="22"/>
@@ -19650,7 +19652,7 @@
       <c r="P923" s="2"/>
       <c r="Q923" s="2"/>
     </row>
-    <row r="924" spans="1:17" ht="13">
+    <row r="924" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="22"/>
@@ -19669,7 +19671,7 @@
       <c r="P924" s="2"/>
       <c r="Q924" s="2"/>
     </row>
-    <row r="925" spans="1:17" ht="13">
+    <row r="925" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="22"/>
@@ -19688,7 +19690,7 @@
       <c r="P925" s="2"/>
       <c r="Q925" s="2"/>
     </row>
-    <row r="926" spans="1:17" ht="13">
+    <row r="926" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="22"/>
@@ -19707,7 +19709,7 @@
       <c r="P926" s="2"/>
       <c r="Q926" s="2"/>
     </row>
-    <row r="927" spans="1:17" ht="13">
+    <row r="927" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="22"/>
@@ -19726,7 +19728,7 @@
       <c r="P927" s="2"/>
       <c r="Q927" s="2"/>
     </row>
-    <row r="928" spans="1:17" ht="13">
+    <row r="928" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="22"/>
@@ -19745,7 +19747,7 @@
       <c r="P928" s="2"/>
       <c r="Q928" s="2"/>
     </row>
-    <row r="929" spans="1:17" ht="13">
+    <row r="929" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="22"/>
@@ -19764,7 +19766,7 @@
       <c r="P929" s="2"/>
       <c r="Q929" s="2"/>
     </row>
-    <row r="930" spans="1:17" ht="13">
+    <row r="930" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="22"/>
@@ -19783,7 +19785,7 @@
       <c r="P930" s="2"/>
       <c r="Q930" s="2"/>
     </row>
-    <row r="931" spans="1:17" ht="13">
+    <row r="931" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="22"/>
@@ -19802,7 +19804,7 @@
       <c r="P931" s="2"/>
       <c r="Q931" s="2"/>
     </row>
-    <row r="932" spans="1:17" ht="13">
+    <row r="932" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="22"/>
@@ -19821,7 +19823,7 @@
       <c r="P932" s="2"/>
       <c r="Q932" s="2"/>
     </row>
-    <row r="933" spans="1:17" ht="13">
+    <row r="933" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="22"/>
@@ -19840,7 +19842,7 @@
       <c r="P933" s="2"/>
       <c r="Q933" s="2"/>
     </row>
-    <row r="934" spans="1:17" ht="13">
+    <row r="934" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="22"/>
@@ -19859,7 +19861,7 @@
       <c r="P934" s="2"/>
       <c r="Q934" s="2"/>
     </row>
-    <row r="935" spans="1:17" ht="13">
+    <row r="935" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="22"/>
@@ -19878,7 +19880,7 @@
       <c r="P935" s="2"/>
       <c r="Q935" s="2"/>
     </row>
-    <row r="936" spans="1:17" ht="13">
+    <row r="936" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="22"/>
@@ -19897,7 +19899,7 @@
       <c r="P936" s="2"/>
       <c r="Q936" s="2"/>
     </row>
-    <row r="937" spans="1:17" ht="13">
+    <row r="937" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="22"/>
@@ -19916,7 +19918,7 @@
       <c r="P937" s="2"/>
       <c r="Q937" s="2"/>
     </row>
-    <row r="938" spans="1:17" ht="13">
+    <row r="938" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="22"/>
@@ -19935,7 +19937,7 @@
       <c r="P938" s="2"/>
       <c r="Q938" s="2"/>
     </row>
-    <row r="939" spans="1:17" ht="13">
+    <row r="939" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="22"/>
@@ -19954,7 +19956,7 @@
       <c r="P939" s="2"/>
       <c r="Q939" s="2"/>
     </row>
-    <row r="940" spans="1:17" ht="13">
+    <row r="940" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="22"/>
@@ -19973,7 +19975,7 @@
       <c r="P940" s="2"/>
       <c r="Q940" s="2"/>
     </row>
-    <row r="941" spans="1:17" ht="13">
+    <row r="941" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="22"/>
@@ -19992,7 +19994,7 @@
       <c r="P941" s="2"/>
       <c r="Q941" s="2"/>
     </row>
-    <row r="942" spans="1:17" ht="13">
+    <row r="942" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="22"/>
@@ -20011,7 +20013,7 @@
       <c r="P942" s="2"/>
       <c r="Q942" s="2"/>
     </row>
-    <row r="943" spans="1:17" ht="13">
+    <row r="943" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="22"/>
@@ -20030,7 +20032,7 @@
       <c r="P943" s="2"/>
       <c r="Q943" s="2"/>
     </row>
-    <row r="944" spans="1:17" ht="13">
+    <row r="944" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="22"/>
@@ -20049,7 +20051,7 @@
       <c r="P944" s="2"/>
       <c r="Q944" s="2"/>
     </row>
-    <row r="945" spans="1:17" ht="13">
+    <row r="945" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="22"/>
@@ -20068,7 +20070,7 @@
       <c r="P945" s="2"/>
       <c r="Q945" s="2"/>
     </row>
-    <row r="946" spans="1:17" ht="13">
+    <row r="946" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="22"/>
@@ -20087,7 +20089,7 @@
       <c r="P946" s="2"/>
       <c r="Q946" s="2"/>
     </row>
-    <row r="947" spans="1:17" ht="13">
+    <row r="947" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="22"/>
@@ -20106,7 +20108,7 @@
       <c r="P947" s="2"/>
       <c r="Q947" s="2"/>
     </row>
-    <row r="948" spans="1:17" ht="13">
+    <row r="948" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="22"/>
@@ -20125,7 +20127,7 @@
       <c r="P948" s="2"/>
       <c r="Q948" s="2"/>
     </row>
-    <row r="949" spans="1:17" ht="13">
+    <row r="949" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="22"/>
@@ -20144,7 +20146,7 @@
       <c r="P949" s="2"/>
       <c r="Q949" s="2"/>
     </row>
-    <row r="950" spans="1:17" ht="13">
+    <row r="950" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="22"/>
@@ -20163,7 +20165,7 @@
       <c r="P950" s="2"/>
       <c r="Q950" s="2"/>
     </row>
-    <row r="951" spans="1:17" ht="13">
+    <row r="951" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="22"/>
@@ -20182,7 +20184,7 @@
       <c r="P951" s="2"/>
       <c r="Q951" s="2"/>
     </row>
-    <row r="952" spans="1:17" ht="13">
+    <row r="952" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="22"/>
@@ -20201,7 +20203,7 @@
       <c r="P952" s="2"/>
       <c r="Q952" s="2"/>
     </row>
-    <row r="953" spans="1:17" ht="13">
+    <row r="953" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="22"/>
@@ -20220,7 +20222,7 @@
       <c r="P953" s="2"/>
       <c r="Q953" s="2"/>
     </row>
-    <row r="954" spans="1:17" ht="13">
+    <row r="954" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="22"/>
@@ -20239,7 +20241,7 @@
       <c r="P954" s="2"/>
       <c r="Q954" s="2"/>
     </row>
-    <row r="955" spans="1:17" ht="13">
+    <row r="955" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="22"/>
@@ -20258,7 +20260,7 @@
       <c r="P955" s="2"/>
       <c r="Q955" s="2"/>
     </row>
-    <row r="956" spans="1:17" ht="13">
+    <row r="956" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="22"/>
@@ -20277,7 +20279,7 @@
       <c r="P956" s="2"/>
       <c r="Q956" s="2"/>
     </row>
-    <row r="957" spans="1:17" ht="13">
+    <row r="957" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="22"/>
@@ -20296,7 +20298,7 @@
       <c r="P957" s="2"/>
       <c r="Q957" s="2"/>
     </row>
-    <row r="958" spans="1:17" ht="13">
+    <row r="958" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="22"/>
@@ -20315,7 +20317,7 @@
       <c r="P958" s="2"/>
       <c r="Q958" s="2"/>
     </row>
-    <row r="959" spans="1:17" ht="13">
+    <row r="959" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="22"/>
@@ -20334,7 +20336,7 @@
       <c r="P959" s="2"/>
       <c r="Q959" s="2"/>
     </row>
-    <row r="960" spans="1:17" ht="13">
+    <row r="960" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="22"/>
@@ -20353,7 +20355,7 @@
       <c r="P960" s="2"/>
       <c r="Q960" s="2"/>
     </row>
-    <row r="961" spans="1:17" ht="13">
+    <row r="961" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="22"/>
@@ -20372,7 +20374,7 @@
       <c r="P961" s="2"/>
       <c r="Q961" s="2"/>
     </row>
-    <row r="962" spans="1:17" ht="13">
+    <row r="962" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="22"/>
@@ -20391,7 +20393,7 @@
       <c r="P962" s="2"/>
       <c r="Q962" s="2"/>
     </row>
-    <row r="963" spans="1:17" ht="13">
+    <row r="963" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="22"/>
@@ -20410,7 +20412,7 @@
       <c r="P963" s="2"/>
       <c r="Q963" s="2"/>
     </row>
-    <row r="964" spans="1:17" ht="13">
+    <row r="964" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="22"/>
@@ -20429,7 +20431,7 @@
       <c r="P964" s="2"/>
       <c r="Q964" s="2"/>
     </row>
-    <row r="965" spans="1:17" ht="13">
+    <row r="965" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="22"/>
@@ -20448,7 +20450,7 @@
       <c r="P965" s="2"/>
       <c r="Q965" s="2"/>
     </row>
-    <row r="966" spans="1:17" ht="13">
+    <row r="966" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="22"/>
@@ -20467,7 +20469,7 @@
       <c r="P966" s="2"/>
       <c r="Q966" s="2"/>
     </row>
-    <row r="967" spans="1:17" ht="13">
+    <row r="967" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="22"/>
@@ -20486,7 +20488,7 @@
       <c r="P967" s="2"/>
       <c r="Q967" s="2"/>
     </row>
-    <row r="968" spans="1:17" ht="13">
+    <row r="968" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="22"/>
@@ -20505,7 +20507,7 @@
       <c r="P968" s="2"/>
       <c r="Q968" s="2"/>
     </row>
-    <row r="969" spans="1:17" ht="13">
+    <row r="969" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="22"/>
@@ -20524,7 +20526,7 @@
       <c r="P969" s="2"/>
       <c r="Q969" s="2"/>
     </row>
-    <row r="970" spans="1:17" ht="13">
+    <row r="970" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="22"/>
@@ -20543,7 +20545,7 @@
       <c r="P970" s="2"/>
       <c r="Q970" s="2"/>
     </row>
-    <row r="971" spans="1:17" ht="13">
+    <row r="971" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="22"/>
@@ -20562,7 +20564,7 @@
       <c r="P971" s="2"/>
       <c r="Q971" s="2"/>
     </row>
-    <row r="972" spans="1:17" ht="13">
+    <row r="972" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="22"/>
@@ -20581,7 +20583,7 @@
       <c r="P972" s="2"/>
       <c r="Q972" s="2"/>
     </row>
-    <row r="973" spans="1:17" ht="13">
+    <row r="973" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="22"/>
@@ -20600,7 +20602,7 @@
       <c r="P973" s="2"/>
       <c r="Q973" s="2"/>
     </row>
-    <row r="974" spans="1:17" ht="13">
+    <row r="974" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="22"/>
@@ -20619,7 +20621,7 @@
       <c r="P974" s="2"/>
       <c r="Q974" s="2"/>
     </row>
-    <row r="975" spans="1:17" ht="13">
+    <row r="975" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="22"/>
@@ -20638,7 +20640,7 @@
       <c r="P975" s="2"/>
       <c r="Q975" s="2"/>
     </row>
-    <row r="976" spans="1:17" ht="13">
+    <row r="976" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="22"/>
@@ -20657,7 +20659,7 @@
       <c r="P976" s="2"/>
       <c r="Q976" s="2"/>
     </row>
-    <row r="977" spans="1:17" ht="13">
+    <row r="977" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="22"/>
@@ -20676,7 +20678,7 @@
       <c r="P977" s="2"/>
       <c r="Q977" s="2"/>
     </row>
-    <row r="978" spans="1:17" ht="13">
+    <row r="978" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="22"/>
@@ -20695,7 +20697,7 @@
       <c r="P978" s="2"/>
       <c r="Q978" s="2"/>
     </row>
-    <row r="979" spans="1:17" ht="13">
+    <row r="979" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="22"/>
@@ -20714,7 +20716,7 @@
       <c r="P979" s="2"/>
       <c r="Q979" s="2"/>
     </row>
-    <row r="980" spans="1:17" ht="13">
+    <row r="980" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="22"/>
@@ -20733,7 +20735,7 @@
       <c r="P980" s="2"/>
       <c r="Q980" s="2"/>
     </row>
-    <row r="981" spans="1:17" ht="13">
+    <row r="981" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="22"/>
@@ -20752,7 +20754,7 @@
       <c r="P981" s="2"/>
       <c r="Q981" s="2"/>
     </row>
-    <row r="982" spans="1:17" ht="13">
+    <row r="982" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="22"/>
@@ -20771,7 +20773,7 @@
       <c r="P982" s="2"/>
       <c r="Q982" s="2"/>
     </row>
-    <row r="983" spans="1:17" ht="13">
+    <row r="983" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="22"/>
@@ -20790,7 +20792,7 @@
       <c r="P983" s="2"/>
       <c r="Q983" s="2"/>
     </row>
-    <row r="984" spans="1:17" ht="13">
+    <row r="984" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="22"/>
@@ -20809,7 +20811,7 @@
       <c r="P984" s="2"/>
       <c r="Q984" s="2"/>
     </row>
-    <row r="985" spans="1:17" ht="13">
+    <row r="985" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="22"/>
@@ -20828,7 +20830,7 @@
       <c r="P985" s="2"/>
       <c r="Q985" s="2"/>
     </row>
-    <row r="986" spans="1:17" ht="13">
+    <row r="986" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="22"/>
@@ -20847,7 +20849,7 @@
       <c r="P986" s="2"/>
       <c r="Q986" s="2"/>
     </row>
-    <row r="987" spans="1:17" ht="13">
+    <row r="987" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="22"/>
@@ -20866,7 +20868,7 @@
       <c r="P987" s="2"/>
       <c r="Q987" s="2"/>
     </row>
-    <row r="988" spans="1:17" ht="13">
+    <row r="988" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="22"/>
@@ -20885,7 +20887,7 @@
       <c r="P988" s="2"/>
       <c r="Q988" s="2"/>
     </row>
-    <row r="989" spans="1:17" ht="13">
+    <row r="989" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="22"/>
@@ -20904,7 +20906,7 @@
       <c r="P989" s="2"/>
       <c r="Q989" s="2"/>
     </row>
-    <row r="990" spans="1:17" ht="13">
+    <row r="990" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="22"/>
@@ -20923,7 +20925,7 @@
       <c r="P990" s="2"/>
       <c r="Q990" s="2"/>
     </row>
-    <row r="991" spans="1:17" ht="13">
+    <row r="991" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="22"/>
@@ -20942,7 +20944,7 @@
       <c r="P991" s="2"/>
       <c r="Q991" s="2"/>
     </row>
-    <row r="992" spans="1:17" ht="13">
+    <row r="992" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="22"/>
@@ -20961,7 +20963,7 @@
       <c r="P992" s="2"/>
       <c r="Q992" s="2"/>
     </row>
-    <row r="993" spans="1:17" ht="13">
+    <row r="993" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="22"/>
@@ -20980,7 +20982,7 @@
       <c r="P993" s="2"/>
       <c r="Q993" s="2"/>
     </row>
-    <row r="994" spans="1:17" ht="13">
+    <row r="994" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="22"/>
@@ -20999,7 +21001,7 @@
       <c r="P994" s="2"/>
       <c r="Q994" s="2"/>
     </row>
-    <row r="995" spans="1:17" ht="13">
+    <row r="995" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="22"/>
@@ -21018,7 +21020,7 @@
       <c r="P995" s="2"/>
       <c r="Q995" s="2"/>
     </row>
-    <row r="996" spans="1:17" ht="13">
+    <row r="996" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="22"/>
@@ -21037,7 +21039,7 @@
       <c r="P996" s="2"/>
       <c r="Q996" s="2"/>
     </row>
-    <row r="997" spans="1:17" ht="13">
+    <row r="997" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="22"/>
@@ -21056,7 +21058,7 @@
       <c r="P997" s="2"/>
       <c r="Q997" s="2"/>
     </row>
-    <row r="998" spans="1:17" ht="13">
+    <row r="998" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="22"/>
@@ -21075,7 +21077,7 @@
       <c r="P998" s="2"/>
       <c r="Q998" s="2"/>
     </row>
-    <row r="999" spans="1:17" ht="13">
+    <row r="999" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="22"/>
@@ -21094,7 +21096,7 @@
       <c r="P999" s="2"/>
       <c r="Q999" s="2"/>
     </row>
-    <row r="1000" spans="1:17" ht="13">
+    <row r="1000" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="22"/>
@@ -21113,7 +21115,7 @@
       <c r="P1000" s="2"/>
       <c r="Q1000" s="2"/>
     </row>
-    <row r="1001" spans="1:17" ht="13">
+    <row r="1001" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="22"/>
@@ -21132,7 +21134,7 @@
       <c r="P1001" s="2"/>
       <c r="Q1001" s="2"/>
     </row>
-    <row r="1002" spans="1:17" ht="13">
+    <row r="1002" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1002" s="2"/>
       <c r="B1002" s="2"/>
       <c r="C1002" s="22"/>
@@ -21151,7 +21153,7 @@
       <c r="P1002" s="2"/>
       <c r="Q1002" s="2"/>
     </row>
-    <row r="1003" spans="1:17" ht="13">
+    <row r="1003" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1003" s="2"/>
       <c r="B1003" s="2"/>
       <c r="C1003" s="22"/>
@@ -21170,7 +21172,7 @@
       <c r="P1003" s="2"/>
       <c r="Q1003" s="2"/>
     </row>
-    <row r="1004" spans="1:17" ht="13">
+    <row r="1004" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1004" s="2"/>
       <c r="B1004" s="2"/>
       <c r="C1004" s="22"/>
@@ -21189,7 +21191,7 @@
       <c r="P1004" s="2"/>
       <c r="Q1004" s="2"/>
     </row>
-    <row r="1005" spans="1:17" ht="13">
+    <row r="1005" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1005" s="2"/>
       <c r="B1005" s="2"/>
       <c r="C1005" s="22"/>
@@ -21208,7 +21210,7 @@
       <c r="P1005" s="2"/>
       <c r="Q1005" s="2"/>
     </row>
-    <row r="1006" spans="1:17" ht="13">
+    <row r="1006" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1006" s="2"/>
       <c r="B1006" s="2"/>
       <c r="C1006" s="22"/>
@@ -21227,7 +21229,7 @@
       <c r="P1006" s="2"/>
       <c r="Q1006" s="2"/>
     </row>
-    <row r="1007" spans="1:17" ht="13">
+    <row r="1007" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1007" s="2"/>
       <c r="B1007" s="2"/>
       <c r="C1007" s="22"/>
@@ -21246,7 +21248,7 @@
       <c r="P1007" s="2"/>
       <c r="Q1007" s="2"/>
     </row>
-    <row r="1008" spans="1:17" ht="13">
+    <row r="1008" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1008" s="2"/>
       <c r="B1008" s="2"/>
       <c r="C1008" s="22"/>
@@ -21265,7 +21267,7 @@
       <c r="P1008" s="2"/>
       <c r="Q1008" s="2"/>
     </row>
-    <row r="1009" spans="1:17" ht="13">
+    <row r="1009" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1009" s="2"/>
       <c r="B1009" s="2"/>
       <c r="C1009" s="22"/>
@@ -21284,7 +21286,7 @@
       <c r="P1009" s="2"/>
       <c r="Q1009" s="2"/>
     </row>
-    <row r="1010" spans="1:17" ht="13">
+    <row r="1010" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1010" s="2"/>
       <c r="B1010" s="2"/>
       <c r="C1010" s="22"/>
@@ -21303,7 +21305,7 @@
       <c r="P1010" s="2"/>
       <c r="Q1010" s="2"/>
     </row>
-    <row r="1011" spans="1:17" ht="13">
+    <row r="1011" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1011" s="2"/>
       <c r="B1011" s="2"/>
       <c r="C1011" s="22"/>
@@ -21322,7 +21324,7 @@
       <c r="P1011" s="2"/>
       <c r="Q1011" s="2"/>
     </row>
-    <row r="1012" spans="1:17" ht="13">
+    <row r="1012" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1012" s="2"/>
       <c r="B1012" s="2"/>
       <c r="C1012" s="22"/>
@@ -21341,7 +21343,7 @@
       <c r="P1012" s="2"/>
       <c r="Q1012" s="2"/>
     </row>
-    <row r="1013" spans="1:17" ht="13">
+    <row r="1013" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1013" s="2"/>
       <c r="B1013" s="2"/>
       <c r="C1013" s="22"/>
@@ -21360,7 +21362,7 @@
       <c r="P1013" s="2"/>
       <c r="Q1013" s="2"/>
     </row>
-    <row r="1014" spans="1:17" ht="13">
+    <row r="1014" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1014" s="2"/>
       <c r="B1014" s="2"/>
       <c r="C1014" s="22"/>
@@ -21379,7 +21381,7 @@
       <c r="P1014" s="2"/>
       <c r="Q1014" s="2"/>
     </row>
-    <row r="1015" spans="1:17" ht="13">
+    <row r="1015" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1015" s="2"/>
       <c r="B1015" s="2"/>
       <c r="C1015" s="22"/>
@@ -21398,7 +21400,7 @@
       <c r="P1015" s="2"/>
       <c r="Q1015" s="2"/>
     </row>
-    <row r="1016" spans="1:17" ht="13">
+    <row r="1016" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A1016" s="2"/>
       <c r="B1016" s="2"/>
       <c r="C1016" s="22"/>
@@ -21419,14 +21421,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A4:H4"/>
@@ -21439,11 +21438,14 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A54:G54"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter 1, 2 or 3." sqref="H12:H14 H19:H20 H24:H27 H31:H33 H37 H41 H45:H46 H50" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -21455,9 +21457,9 @@
     <hyperlink ref="A54" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A4:H4" r:id="rId3" display="Rubric Usage Instructions and Use Case Examples can be accessed at: https://modeldatarcn.github.io/rubrics-worksheets/Rubric-Instructions-and-Use-Cases.pdf " xr:uid="{2F88FF02-6BE4-F94B-B3D3-BE16A84C04B8}"/>
     <hyperlink ref="A54:G54" r:id="rId4" display="Rubric Use Case Examples can be accessed at: https://modeldatarcn.github.io/rubrics-worksheets/Rubric-Instructions-and-Use-Cases.pdf " xr:uid="{3B281033-2DEC-1340-BC9F-73AA7855A977}"/>
-    <hyperlink ref="H59" r:id="rId5" xr:uid="{80A6DF7F-E01E-B549-A540-B10798AA35DE}"/>
-    <hyperlink ref="I59" r:id="rId6" xr:uid="{4FCDD64E-E381-2D40-AA67-3FCE30AF7312}"/>
-    <hyperlink ref="J59" r:id="rId7" xr:uid="{0AAEA612-A4FC-2342-979C-F1B70D4DF618}"/>
+    <hyperlink ref="H59" r:id="rId5" display="See Use Case 1, Knowledge Production" xr:uid="{80A6DF7F-E01E-B549-A540-B10798AA35DE}"/>
+    <hyperlink ref="I59" r:id="rId6" display="See Use Case 2, Knowledge Production" xr:uid="{4FCDD64E-E381-2D40-AA67-3FCE30AF7312}"/>
+    <hyperlink ref="J59" r:id="rId7" display="See Use Case 3, Knowledge Production" xr:uid="{0AAEA612-A4FC-2342-979C-F1B70D4DF618}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/rubrics-worksheets/Descriptor-classifications-worksheet-v2.0.xlsx
+++ b/rubrics-worksheets/Descriptor-classifications-worksheet-v2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schuster/Desktop/modeldatarcn/rubric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86130536-0C85-BD40-945D-3DAA2F3044EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08580DF8-75B4-1444-A31A-AA998D34240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34900" windowHeight="23140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric Worksheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
   <si>
     <t xml:space="preserve">Simulation workflow outputs are assumed to be produced by a combination of the simulation run and simulation post processing workflow components. </t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>Weighted Score.            (Score X Suggested Weight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubruc, Usage instructions and Use Case examples are all archived under https://doi.org/10.5065/g936-q118 </t>
   </si>
 </sst>
 </file>
@@ -737,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -986,80 +989,81 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1354,11 +1358,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB60"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
+      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -1389,231 +1393,220 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="A3" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="2"/>
+    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="90"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8" t="s">
-        <v>4</v>
-      </c>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H9" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="112" t="s">
+      <c r="J9" s="85" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="98" t="s">
+    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-    </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="98" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+    </row>
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-    </row>
-    <row r="12" spans="1:10" ht="238" x14ac:dyDescent="0.15">
-      <c r="A12" s="99" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+    </row>
+    <row r="13" spans="1:10" ht="238" x14ac:dyDescent="0.15">
+      <c r="A13" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B13" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C13" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18">
-        <v>2</v>
-      </c>
-      <c r="J12" s="19">
-        <f t="shared" ref="J12:J14" si="0">IF(H12&gt;1,H12*I12,H12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="56" x14ac:dyDescent="0.15">
-      <c r="A13" s="87"/>
-      <c r="B13" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="18">
         <v>2</v>
       </c>
       <c r="J13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="42" x14ac:dyDescent="0.15">
-      <c r="A14" s="87"/>
-      <c r="B14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="20"/>
+        <f t="shared" ref="J13:J15" si="0">IF(H13&gt;1,H13*I13,H13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A14" s="93"/>
+      <c r="B14" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="G14" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="18">
@@ -1624,236 +1617,236 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="85"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+    <row r="15" spans="1:10" ht="42" x14ac:dyDescent="0.15">
+      <c r="A15" s="93"/>
+      <c r="B15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18">
+        <v>2</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="94"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="22">
-        <f>SUM(H12:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="23" t="s">
+      <c r="H16" s="22">
+        <f>SUM(H13:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="22">
-        <f>SUM(J12:J14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="102" t="s">
+      <c r="J16" s="22">
+        <f>SUM(J13:J15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="93"/>
-    </row>
-    <row r="18" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="103" t="s">
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="100"/>
+    </row>
+    <row r="19" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="93"/>
-    </row>
-    <row r="19" spans="1:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="A19" s="104" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="100"/>
+    </row>
+    <row r="20" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="A20" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C20" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="28">
-        <v>2</v>
-      </c>
-      <c r="J19" s="29">
-        <f t="shared" ref="J19:J20" si="1">IF(H19&gt;1,H19*I19,H19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="87"/>
-      <c r="B20" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>35</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="28">
         <v>2</v>
       </c>
       <c r="J20" s="29">
+        <f t="shared" ref="J20:J21" si="1">IF(H20&gt;1,H20*I20,H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="93"/>
+      <c r="B21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="28">
+        <v>2</v>
+      </c>
+      <c r="J21" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A21" s="85"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="30" t="s">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A22" s="94"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="31">
-        <f>SUM(H19:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="30" t="s">
+      <c r="H22" s="31">
+        <f>SUM(H20:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="29">
-        <f>SUM(J19:J20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="105" t="s">
+      <c r="J22" s="29">
+        <f>SUM(J20:J21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A24" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="93"/>
-    </row>
-    <row r="24" spans="1:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="A24" s="106" t="s">
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="100"/>
+    </row>
+    <row r="25" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="A25" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B25" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C25" s="33" t="s">
         <v>43</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="34">
-        <v>1</v>
-      </c>
-      <c r="J24" s="35">
-        <f t="shared" ref="J24:J27" si="2">IF(H24&gt;1,H24*I24,H24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="56" x14ac:dyDescent="0.15">
-      <c r="A25" s="87"/>
-      <c r="B25" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>48</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="33"/>
+        <v>44</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>45</v>
+      </c>
       <c r="G25" s="33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="34">
         <v>1</v>
       </c>
       <c r="J25" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="98" x14ac:dyDescent="0.15">
-      <c r="A26" s="87"/>
+        <f t="shared" ref="J25:J28" si="2">IF(H25&gt;1,H25*I25,H25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A26" s="93"/>
       <c r="B26" s="33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="36"/>
+        <v>49</v>
+      </c>
+      <c r="F26" s="33"/>
       <c r="G26" s="33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="34">
@@ -1865,20 +1858,20 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="98" x14ac:dyDescent="0.15">
-      <c r="A27" s="87"/>
-      <c r="B27" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="37"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="33"/>
       <c r="E27" s="33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="34">
@@ -1889,123 +1882,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A28" s="85"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+    <row r="28" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+      <c r="A28" s="93"/>
+      <c r="B28" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>56</v>
+      </c>
       <c r="D28" s="37"/>
-      <c r="E28" s="33"/>
+      <c r="E28" s="33" t="s">
+        <v>57</v>
+      </c>
       <c r="F28" s="36"/>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="34">
+        <v>1</v>
+      </c>
+      <c r="J28" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A29" s="94"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="39">
-        <f>SUM(H24:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="38" t="s">
+      <c r="H29" s="39">
+        <f>SUM(H25:H28)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="J28" s="39">
-        <f>SUM(J24:J27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" s="107" t="s">
+      <c r="J29" s="39">
+        <f>SUM(J25:J28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A31" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="93"/>
-    </row>
-    <row r="31" spans="1:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="A31" s="100" t="s">
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="100"/>
+    </row>
+    <row r="32" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="A32" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B32" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C32" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40" t="s">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F32" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G32" s="40" t="s">
         <v>67</v>
-      </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="41">
-        <v>1</v>
-      </c>
-      <c r="J31" s="42">
-        <f t="shared" ref="J31:J33" si="3">IF(H31&gt;1,H31*I31,H31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="56" x14ac:dyDescent="0.15">
-      <c r="A32" s="87"/>
-      <c r="B32" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40" t="s">
-        <v>50</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="41">
         <v>1</v>
       </c>
       <c r="J32" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="98" x14ac:dyDescent="0.15">
-      <c r="A33" s="87"/>
+        <f t="shared" ref="J32:J34" si="3">IF(H32&gt;1,H32*I32,H32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A33" s="93"/>
       <c r="B33" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="D33" s="40"/>
-      <c r="E33" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="44"/>
+      <c r="E33" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="40"/>
       <c r="G33" s="40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="41">
@@ -2016,521 +2009,548 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A34" s="85"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
+    <row r="34" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+      <c r="A34" s="93"/>
+      <c r="B34" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>71</v>
+      </c>
       <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="F34" s="44"/>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="41">
+        <v>1</v>
+      </c>
+      <c r="J34" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A35" s="94"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="46">
-        <f>SUM(H31:H33)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="45" t="s">
+      <c r="H35" s="46">
+        <f>SUM(H32:H34)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="46">
-        <f>SUM(J31:J33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.15">
-      <c r="A36" s="108" t="s">
+      <c r="J35" s="46">
+        <f>SUM(J32:J34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A37" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="93"/>
-    </row>
-    <row r="37" spans="1:10" ht="98" x14ac:dyDescent="0.15">
-      <c r="A37" s="101" t="s">
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="100"/>
+    </row>
+    <row r="38" spans="1:10" ht="98" x14ac:dyDescent="0.15">
+      <c r="A38" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B38" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C38" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="47" t="s">
+      <c r="D38" s="48"/>
+      <c r="E38" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="47" t="s">
+      <c r="F38" s="49"/>
+      <c r="G38" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="50">
+      <c r="H38" s="17"/>
+      <c r="I38" s="50">
         <v>2</v>
       </c>
-      <c r="J37" s="51">
-        <f>IF(H37&gt;1,H37*I37,H37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A38" s="85"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="52" t="s">
+      <c r="J38" s="51">
+        <f>IF(H38&gt;1,H38*I38,H38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A39" s="94"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="53">
-        <f>SUM(H37)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="52" t="s">
+      <c r="H39" s="53">
+        <f>SUM(H38)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="J38" s="53">
-        <f>SUM(J37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.15">
-      <c r="A40" s="91" t="s">
+      <c r="J39" s="53">
+        <f>SUM(J38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A41" s="111" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="93"/>
-    </row>
-    <row r="41" spans="1:10" ht="56" x14ac:dyDescent="0.15">
-      <c r="A41" s="84" t="s">
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="100"/>
+    </row>
+    <row r="42" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="A42" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B42" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="81" t="s">
+      <c r="C42" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="81" t="s">
+      <c r="D42" s="55"/>
+      <c r="E42" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="81" t="s">
+      <c r="F42" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="G41" s="81" t="s">
+      <c r="G42" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="56">
+      <c r="H42" s="17"/>
+      <c r="I42" s="56">
         <v>3</v>
       </c>
-      <c r="J41" s="57">
-        <f>IF(H41&gt;1,H41*I41,H41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A42" s="85"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="58" t="s">
+      <c r="J42" s="57">
+        <f>IF(H42&gt;1,H42*I42,H42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A43" s="94"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="59">
-        <f>SUM(H41)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="58" t="s">
+      <c r="H43" s="59">
+        <f>SUM(H42)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="J42" s="59">
-        <f>SUM(J41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.15">
-      <c r="A44" s="94" t="s">
+      <c r="J43" s="59">
+        <f>SUM(J42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A45" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="93"/>
-    </row>
-    <row r="45" spans="1:10" ht="70" x14ac:dyDescent="0.15">
-      <c r="A45" s="86" t="s">
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="100"/>
+    </row>
+    <row r="46" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+      <c r="A46" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B46" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C46" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="61" t="s">
+      <c r="D46" s="60"/>
+      <c r="E46" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="61" t="s">
+      <c r="F46" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="G45" s="61" t="s">
+      <c r="G46" s="61" t="s">
         <v>87</v>
-      </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="62">
-        <v>2</v>
-      </c>
-      <c r="J45" s="63">
-        <f t="shared" ref="J45:J46" si="4">IF(H45&gt;1,H45*I45,H45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="A46" s="87"/>
-      <c r="B46" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="64"/>
-      <c r="G46" s="61" t="s">
-        <v>90</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="62">
         <v>2</v>
       </c>
       <c r="J46" s="63">
+        <f t="shared" ref="J46:J47" si="4">IF(H46&gt;1,H46*I46,H46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="A47" s="93"/>
+      <c r="B47" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="64"/>
+      <c r="E47" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="64"/>
+      <c r="G47" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="62">
+        <v>2</v>
+      </c>
+      <c r="J47" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A47" s="85"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65" t="s">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A48" s="94"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="66">
-        <f>SUM(H45:H46)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="65" t="s">
+      <c r="H48" s="66">
+        <f>SUM(H46:H47)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="J47" s="66">
-        <f>SUM(J45:J46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="11"/>
-    </row>
-    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.15">
-      <c r="A49" s="95" t="s">
+      <c r="J48" s="66">
+        <f>SUM(J46:J47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="A50" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="93"/>
-    </row>
-    <row r="50" spans="1:10" ht="84" x14ac:dyDescent="0.15">
-      <c r="A50" s="88" t="s">
+      <c r="B50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="100"/>
+    </row>
+    <row r="51" spans="1:10" ht="84" x14ac:dyDescent="0.15">
+      <c r="A51" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="68" t="s">
+      <c r="B51" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C51" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68" t="s">
+      <c r="D51" s="68"/>
+      <c r="E51" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="F50" s="69"/>
-      <c r="G50" s="68" t="s">
+      <c r="F51" s="69"/>
+      <c r="G51" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="67">
+      <c r="H51" s="17"/>
+      <c r="I51" s="67">
         <v>4</v>
       </c>
-      <c r="J50" s="70">
-        <f>IF(H50&gt;1,H50*I50,H50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A51" s="85"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="72" t="s">
+      <c r="J51" s="70">
+        <f>IF(H51&gt;1,H51*I51,H51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A52" s="94"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="H51" s="73">
-        <f>SUM(H50)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="72" t="s">
+      <c r="H52" s="73">
+        <f>SUM(H51)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="J51" s="73">
-        <f>SUM(J50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="J52" s="13"/>
-    </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="74" t="s">
+      <c r="J52" s="73">
+        <f>SUM(J51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="H53" s="14">
-        <f>H15+H21+H28+H34+H38+H42+H47+H51</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="74" t="s">
+      <c r="H54" s="14">
+        <f>H16+H22+H29+H35+H39+H43+H48+H52</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="J53" s="14">
-        <f>J15+J21+J28+J34+J38+J42+J47+J51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="96" t="s">
+      <c r="J54" s="14">
+        <f>J16+J22+J29+J35+J39+J43+J48+J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A55" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="97"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A56" s="89"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="H56" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="I56" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="J56" s="75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A57" s="90"/>
+    <row r="56" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A57" s="110"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
-      <c r="H57" s="17" t="s">
+      <c r="H57" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A58" s="87"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="H58" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I57" s="17" t="s">
+      <c r="I58" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="J57" s="17" t="s">
+      <c r="J58" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="H58" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I58" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J58" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="I59" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="J59" s="78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H59" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I60" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="J60" s="78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A54:G54"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter 1, 2 or 3." sqref="H12:H14 H19:H20 H24:H27 H31:H33 H37 H41 H45:H46 H50" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter 1, 2 or 3." sqref="H13:H15 H20:H21 H25:H28 H32:H34 H38 H42 H46:H47 H51" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>",1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="Rubric Usage Instructions and Use Case Examples can be accessed at: https://modeldatarcn.github.io/rubrics-worksheets/Rubric-Instructions-and-Use-Cases.pdf " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A54" r:id="rId2" display="Rubric Use Case Examples can be accessed at: https://modeldatarcn.github.io/rubrics-worksheets/Rubric-Instructions-and-Use-Cases.pdf " xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A55" r:id="rId2" display="Rubric Use Case Examples can be accessed at: https://modeldatarcn.github.io/rubrics-worksheets/Rubric-Instructions-and-Use-Cases.pdf " xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A4:H4" r:id="rId3" display="Rubric Usage Instructions and Use Case Examples can be accessed at: https://gdex.ucar.edu/dataset/14_schuster/file/Rubric-Instructions-and-Use-Cases.pdf" xr:uid="{2F88FF02-6BE4-F94B-B3D3-BE16A84C04B8}"/>
-    <hyperlink ref="A54:G54" r:id="rId4" display="Rubric Use Case Examples can be accessed at: https://gdex.ucar.edu/dataset/14_schuster/file/Rubric-Instructions-and-Use-Cases.pdf" xr:uid="{3B281033-2DEC-1340-BC9F-73AA7855A977}"/>
-    <hyperlink ref="H59" r:id="rId5" xr:uid="{80A6DF7F-E01E-B549-A540-B10798AA35DE}"/>
-    <hyperlink ref="I59" r:id="rId6" xr:uid="{4FCDD64E-E381-2D40-AA67-3FCE30AF7312}"/>
-    <hyperlink ref="J59" r:id="rId7" xr:uid="{0AAEA612-A4FC-2342-979C-F1B70D4DF618}"/>
+    <hyperlink ref="A55:G55" r:id="rId4" display="Rubric Use Case Examples can be accessed at: https://gdex.ucar.edu/dataset/14_schuster/file/Rubric-Instructions-and-Use-Cases.pdf" xr:uid="{3B281033-2DEC-1340-BC9F-73AA7855A977}"/>
+    <hyperlink ref="H60" r:id="rId5" xr:uid="{80A6DF7F-E01E-B549-A540-B10798AA35DE}"/>
+    <hyperlink ref="I60" r:id="rId6" xr:uid="{4FCDD64E-E381-2D40-AA67-3FCE30AF7312}"/>
+    <hyperlink ref="J60" r:id="rId7" xr:uid="{0AAEA612-A4FC-2342-979C-F1B70D4DF618}"/>
+    <hyperlink ref="A5:F5" r:id="rId8" display="Rubruc, Usage instructions and Use Case examples are all archived under https://doi.org/10.5065/g936-q118 " xr:uid="{379C15B7-F61F-474E-BD8C-E67368CF1FAA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>